--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E656D5DC-661B-4729-8B66-6075AB41EDA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="188">
   <si>
     <t>남색</t>
   </si>
@@ -25,9 +34,6 @@
     <t>#000080</t>
   </si>
   <si>
-    <t>0;0;128</t>
-  </si>
-  <si>
     <t>초록색</t>
   </si>
   <si>
@@ -43,33 +49,578 @@
     <t>#ffd440</t>
   </si>
   <si>
-    <t>128;128;0</t>
-  </si>
-  <si>
     <t>녹색</t>
   </si>
   <si>
     <t>#008000</t>
   </si>
   <si>
-    <t>0;128;0</t>
+    <t>황색</t>
+  </si>
+  <si>
+    <t>유황색</t>
+  </si>
+  <si>
+    <t>명황색</t>
+  </si>
+  <si>
+    <t>담황색</t>
+  </si>
+  <si>
+    <t>송화색</t>
+  </si>
+  <si>
+    <t>자황색
+(赭⿈⾊</t>
+  </si>
+  <si>
+    <t>행황색</t>
+  </si>
+  <si>
+    <t>두록색</t>
+  </si>
+  <si>
+    <t>적황색</t>
+  </si>
+  <si>
+    <t>토황색</t>
+  </si>
+  <si>
+    <t>지황색</t>
+  </si>
+  <si>
+    <t>토색</t>
+  </si>
+  <si>
+    <t>치자색</t>
+  </si>
+  <si>
+    <t>홍황색</t>
+  </si>
+  <si>
+    <t>자황색
+(紫⿈⾊)</t>
+  </si>
+  <si>
+    <t>금색</t>
+  </si>
+  <si>
+    <t>청색</t>
+  </si>
+  <si>
+    <t>벽색</t>
+  </si>
+  <si>
+    <t>천청색</t>
+  </si>
+  <si>
+    <t>담청색</t>
+  </si>
+  <si>
+    <t>취람색</t>
+  </si>
+  <si>
+    <t>양람색</t>
+  </si>
+  <si>
+    <t>벽청색</t>
+  </si>
+  <si>
+    <t>청현색</t>
+  </si>
+  <si>
+    <t>감색(紺⾊)</t>
+  </si>
+  <si>
+    <t>연람색</t>
+  </si>
+  <si>
+    <t>벽람색</t>
+  </si>
+  <si>
+    <t>숙람색</t>
+  </si>
+  <si>
+    <t>군청색</t>
+  </si>
+  <si>
+    <t>명록색</t>
+  </si>
+  <si>
+    <t>유록색</t>
+  </si>
+  <si>
+    <t>유청색</t>
+  </si>
+  <si>
+    <t>연두색</t>
+  </si>
+  <si>
+    <t>춘유록색</t>
+  </si>
+  <si>
+    <t>청록색</t>
+  </si>
+  <si>
+    <t>진초록색</t>
+  </si>
+  <si>
+    <t>흑록색</t>
+  </si>
+  <si>
+    <t>비색</t>
+  </si>
+  <si>
+    <t>옥색</t>
+  </si>
+  <si>
+    <t>삼청색</t>
+  </si>
+  <si>
+    <t>뇌록색</t>
+  </si>
+  <si>
+    <t>양록색</t>
+  </si>
+  <si>
+    <t>하엽색</t>
+  </si>
+  <si>
+    <t>흑청색</t>
+  </si>
+  <si>
+    <t>청벽색</t>
+  </si>
+  <si>
+    <t>백색</t>
+  </si>
+  <si>
+    <t>흑색</t>
+  </si>
+  <si>
+    <t>회색</t>
+  </si>
+  <si>
+    <t>구색</t>
+  </si>
+  <si>
+    <t>치색</t>
+  </si>
+  <si>
+    <t>연지회색</t>
+  </si>
+  <si>
+    <t>설백색</t>
+  </si>
+  <si>
+    <t>유백색</t>
+  </si>
+  <si>
+    <t>지백색</t>
+  </si>
+  <si>
+    <t>소색</t>
+  </si>
+  <si>
+    <t>자색</t>
+  </si>
+  <si>
+    <t>자주색</t>
+  </si>
+  <si>
+    <t>보라색</t>
+  </si>
+  <si>
+    <t>홍람색</t>
+  </si>
+  <si>
+    <t>포도색</t>
+  </si>
+  <si>
+    <t>청자색
+(⾭紫⾊)</t>
+  </si>
+  <si>
+    <t>벽자색</t>
+  </si>
+  <si>
+    <t>회보라색</t>
+  </si>
+  <si>
+    <t>담자색</t>
+  </si>
+  <si>
+    <t>다자색</t>
+  </si>
+  <si>
+    <t>적자색</t>
+  </si>
+  <si>
+    <t>적색</t>
+  </si>
+  <si>
+    <t>홍색</t>
+  </si>
+  <si>
+    <t>적토색</t>
+  </si>
+  <si>
+    <t>휴색</t>
+  </si>
+  <si>
+    <t>갈색</t>
+  </si>
+  <si>
+    <t>호박색
+(琥珀⾊)</t>
+  </si>
+  <si>
+    <t>추향색</t>
+  </si>
+  <si>
+    <t>육색</t>
+  </si>
+  <si>
+    <t>주색</t>
+  </si>
+  <si>
+    <t>주홍색</t>
+  </si>
+  <si>
+    <t>담주색</t>
+  </si>
+  <si>
+    <t>진홍색</t>
+  </si>
+  <si>
+    <t>선홍색</t>
+  </si>
+  <si>
+    <t>연지색</t>
+  </si>
+  <si>
+    <t>훈색</t>
+  </si>
+  <si>
+    <t>진분홍색</t>
+  </si>
+  <si>
+    <t>분홍색</t>
+  </si>
+  <si>
+    <t>연분홍색</t>
+  </si>
+  <si>
+    <t>장단색</t>
+  </si>
+  <si>
+    <t>석간주색</t>
+  </si>
+  <si>
+    <t>흑홍색</t>
+  </si>
+  <si>
+    <t>236; 212; 55</t>
+  </si>
+  <si>
+    <t>229; 186; 105</t>
+  </si>
+  <si>
+    <t>204; 219; 0</t>
+  </si>
+  <si>
+    <t>242; 234; 178</t>
+  </si>
+  <si>
+    <t>228; 234; 125</t>
+  </si>
+  <si>
+    <t>228; 192; 67</t>
+  </si>
+  <si>
+    <t>247; 166; 93</t>
+  </si>
+  <si>
+    <t>217; 199; 138</t>
+  </si>
+  <si>
+    <t>252; 147; 57</t>
+  </si>
+  <si>
+    <t>191; 129; 66</t>
+  </si>
+  <si>
+    <t>215; 184; 88</t>
+  </si>
+  <si>
+    <t>163; 122; 70</t>
+  </si>
+  <si>
+    <t>233; 204; 86</t>
+  </si>
+  <si>
+    <t>222; 158; 145</t>
+  </si>
+  <si>
+    <t>182; 152; 126</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>53; 74; 141</t>
+  </si>
+  <si>
+    <t>46; 146; 213</t>
+  </si>
+  <si>
+    <t>115; 178; 217</t>
+  </si>
+  <si>
+    <t>61; 143; 181</t>
+  </si>
+  <si>
+    <t>82; 190; 181</t>
+  </si>
+  <si>
+    <t>132; 114; 195</t>
+  </si>
+  <si>
+    <t>82; 120; 177</t>
+  </si>
+  <si>
+    <t>70; 91; 129</t>
+  </si>
+  <si>
+    <t>56; 76; 113</t>
+  </si>
+  <si>
+    <t>91; 63; 123</t>
+  </si>
+  <si>
+    <t>119; 83; 147</t>
+  </si>
+  <si>
+    <t>125; 125; 169</t>
+  </si>
+  <si>
+    <t>96; 79; 115</t>
+  </si>
+  <si>
+    <t>70; 72; 99</t>
+  </si>
+  <si>
+    <t>86; 139; 84</t>
+  </si>
+  <si>
+    <t>52; 177; 94</t>
+  </si>
+  <si>
+    <t>79; 157; 78</t>
+  </si>
+  <si>
+    <t>104; 164; 59</t>
+  </si>
+  <si>
+    <t>182; 228; 111</t>
+  </si>
+  <si>
+    <t>209; 228; 146</t>
+  </si>
+  <si>
+    <t>155;135</t>
+  </si>
+  <si>
+    <t>25; 152; 120</t>
+  </si>
+  <si>
+    <t>85; 165; 83</t>
+  </si>
+  <si>
+    <t>65; 109; 99</t>
+  </si>
+  <si>
+    <t>116; 192; 177</t>
+  </si>
+  <si>
+    <t>140; 212; 212</t>
+  </si>
+  <si>
+    <t>91; 107; 176</t>
+  </si>
+  <si>
+    <t>34; 124; 119</t>
+  </si>
+  <si>
+    <t>32; 179; 129</t>
+  </si>
+  <si>
+    <t>69; 96; 66</t>
+  </si>
+  <si>
+    <t>112; 121; 143</t>
+  </si>
+  <si>
+    <t>116; 150; 188</t>
+  </si>
+  <si>
+    <t>241; 241; 241</t>
+  </si>
+  <si>
+    <t>28; 28; 28</t>
+  </si>
+  <si>
+    <t>140; 140; 134</t>
+  </si>
+  <si>
+    <t>173; 173; 175</t>
+  </si>
+  <si>
+    <t>108; 106; 106</t>
+  </si>
+  <si>
+    <t>131; 118; 128</t>
+  </si>
+  <si>
+    <t>216; 223; 219</t>
+  </si>
+  <si>
+    <t>233; 228; 194</t>
+  </si>
+  <si>
+    <t>232; 227; 206</t>
+  </si>
+  <si>
+    <t>226; 209; 176</t>
+  </si>
+  <si>
+    <t>132; 46; 85</t>
+  </si>
+  <si>
+    <t>147; 45; 103</t>
+  </si>
+  <si>
+    <t>169; 63; 149</t>
+  </si>
+  <si>
+    <t>117; 74; 132</t>
+  </si>
+  <si>
+    <t>102; 55; 93</t>
+  </si>
+  <si>
+    <t>104; 53; 161</t>
+  </si>
+  <si>
+    <t>124; 145; 208</t>
+  </si>
+  <si>
+    <t>161; 137; 187</t>
+  </si>
+  <si>
+    <t>161; 141; 165</t>
+  </si>
+  <si>
+    <t>86; 59; 55</t>
+  </si>
+  <si>
+    <t>193; 113; 134</t>
+  </si>
+  <si>
+    <t>206; 69; 55</t>
+  </si>
+  <si>
+    <t>227; 61; 109</t>
+  </si>
+  <si>
+    <t>172; 66; 60</t>
+  </si>
+  <si>
+    <t>121; 65; 61</t>
+  </si>
+  <si>
+    <t>157; 111; 89</t>
+  </si>
+  <si>
+    <t>206; 129; 65</t>
+  </si>
+  <si>
+    <t>194; 134; 100</t>
+  </si>
+  <si>
+    <t>208; 113; 86</t>
+  </si>
+  <si>
+    <t>231; 111; 83</t>
+  </si>
+  <si>
+    <t>247; 106; 118</t>
+  </si>
+  <si>
+    <t>255; 164; 113</t>
+  </si>
+  <si>
+    <t>143; 95; 114</t>
+  </si>
+  <si>
+    <t>217; 76; 158</t>
+  </si>
+  <si>
+    <t>214; 88; 125</t>
+  </si>
+  <si>
+    <t>221; 112; 150</t>
+  </si>
+  <si>
+    <t>232; 109; 181</t>
+  </si>
+  <si>
+    <t>228; 171; 188</t>
+  </si>
+  <si>
+    <t>227; 179; 193</t>
+  </si>
+  <si>
+    <t>208; 78; 63</t>
+  </si>
+  <si>
+    <t>148; 84; 56</t>
+  </si>
+  <si>
+    <t>157; 107; 126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,42 +628,83 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -302,22 +894,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -329,62 +926,759 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A48" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A55" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A57" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A58" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A60" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A61" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A65" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A66" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A67" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A68" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A69" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A71" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A73" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A74" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A75" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A76" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A77" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A78" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A79" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A80" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A81" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A82" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A84" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A85" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A86" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A87" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A88" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A89" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A90" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3320DDA2-AD69-4807-B9DD-5DBA7A39955D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A277F388-EE97-4092-A4C3-A3B3546A77BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="209">
   <si>
     <t>남색</t>
-  </si>
-  <si>
-    <t>곤색;담청색</t>
   </si>
   <si>
     <t>신하의 색이다.</t>
@@ -1702,6 +1699,17 @@
       </rPr>
       <t>흑홍색</t>
     </r>
+  </si>
+  <si>
+    <t>곤색;담청색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2061,7 +2069,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2072,45 +2080,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>0</v>
@@ -2118,774 +2126,1558 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" t="s">
+        <v>207</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" t="s">
+        <v>207</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" t="s">
+        <v>207</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" t="s">
+        <v>207</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>207</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" t="s">
+        <v>207</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" t="s">
+        <v>207</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" t="s">
+        <v>207</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" t="s">
+        <v>207</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" t="s">
+        <v>207</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>207</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" t="s">
+        <v>207</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" t="s">
+        <v>207</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" t="s">
+        <v>207</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="B33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" t="s">
+        <v>207</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" t="s">
+        <v>207</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A37" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>207</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>207</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" t="s">
+        <v>207</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" t="s">
+        <v>207</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="B41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" t="s">
+        <v>207</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="B42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>207</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="B43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>207</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" t="s">
+        <v>207</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>207</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" t="s">
+        <v>207</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
+        <v>207</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="B49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>207</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="B50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
+        <v>207</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" t="s">
+        <v>207</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" t="s">
+        <v>207</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>207</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" t="s">
+        <v>207</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A55" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>207</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A56" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>207</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A57" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A58" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" t="s">
+        <v>207</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A59" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" t="s">
+        <v>207</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="B60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>207</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A61" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="B61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>207</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A62" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="B62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" t="s">
+        <v>207</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A63" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" t="s">
+        <v>207</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A64" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" t="s">
+        <v>207</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="B65" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" t="s">
+        <v>207</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A66" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="B66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" t="s">
+        <v>207</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A67" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>207</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A68" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" t="s">
+        <v>207</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" t="s">
+        <v>207</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A70" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" t="s">
+        <v>207</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A71" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" t="s">
+        <v>207</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A72" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" t="s">
+        <v>207</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="B73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>207</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" t="s">
+        <v>207</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="B75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" t="s">
+        <v>207</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A76" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="B76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" t="s">
+        <v>207</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A77" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="B77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" t="s">
+        <v>207</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A78" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" t="s">
+        <v>207</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A79" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="B79" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" t="s">
+        <v>207</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="B80" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" t="s">
+        <v>207</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A81" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="B81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" t="s">
+        <v>207</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="B82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" t="s">
+        <v>207</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A83" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="B83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" t="s">
+        <v>207</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="B84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" t="s">
+        <v>207</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A85" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="B85" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" t="s">
+        <v>207</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
+        <v>207</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" t="s">
+        <v>207</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A87" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="B87" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" t="s">
+        <v>207</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A88" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="B88" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" t="s">
+        <v>207</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A89" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="B89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" t="s">
+        <v>207</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A90" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="B90" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" t="s">
+        <v>207</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A277F388-EE97-4092-A4C3-A3B3546A77BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9F827D-6DC8-4FEC-9E2F-54C1A99D9C58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="296">
   <si>
     <t>남색</t>
   </si>
@@ -28,9 +28,6 @@
     <t>신하의 색이다.</t>
   </si>
   <si>
-    <t>#000080</t>
-  </si>
-  <si>
     <t>초록색</t>
   </si>
   <si>
@@ -43,13 +40,7 @@
     <t>으악</t>
   </si>
   <si>
-    <t>#ffd440</t>
-  </si>
-  <si>
     <t>녹색</t>
-  </si>
-  <si>
-    <t>#008000</t>
   </si>
   <si>
     <t>황색</t>
@@ -1709,6 +1700,277 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ecd437</t>
+  </si>
+  <si>
+    <t>#e5ba69</t>
+  </si>
+  <si>
+    <t>#ccdb00</t>
+  </si>
+  <si>
+    <t>#f2eab2</t>
+  </si>
+  <si>
+    <t>#e4ea7d</t>
+  </si>
+  <si>
+    <t>#e4c043</t>
+  </si>
+  <si>
+    <t>#f7a65d</t>
+  </si>
+  <si>
+    <t>#d9c78a</t>
+  </si>
+  <si>
+    <t>#fc9339</t>
+  </si>
+  <si>
+    <t>#bf8142</t>
+  </si>
+  <si>
+    <t>#d7b858</t>
+  </si>
+  <si>
+    <t>#a37a46</t>
+  </si>
+  <si>
+    <t>#e9cc56</t>
+  </si>
+  <si>
+    <t>#de9e91</t>
+  </si>
+  <si>
+    <t>#b6987e</t>
+  </si>
+  <si>
+    <t>#354a8d</t>
+  </si>
+  <si>
+    <t>#2e92d5</t>
+  </si>
+  <si>
+    <t>#73b2d9</t>
+  </si>
+  <si>
+    <t>#3d8fb5</t>
+  </si>
+  <si>
+    <t>#52beb5</t>
+  </si>
+  <si>
+    <t>#8472c3</t>
+  </si>
+  <si>
+    <t>#5278b1</t>
+  </si>
+  <si>
+    <t>#465b81</t>
+  </si>
+  <si>
+    <t>#384c71</t>
+  </si>
+  <si>
+    <t>#5b3f7b</t>
+  </si>
+  <si>
+    <t>#775393</t>
+  </si>
+  <si>
+    <t>#7d7da9</t>
+  </si>
+  <si>
+    <t>#604f73</t>
+  </si>
+  <si>
+    <t>#464863</t>
+  </si>
+  <si>
+    <t>#568b54</t>
+  </si>
+  <si>
+    <t>#34b15e</t>
+  </si>
+  <si>
+    <t>#4f9d4e</t>
+  </si>
+  <si>
+    <t>#68a43b</t>
+  </si>
+  <si>
+    <t>#b6e46f</t>
+  </si>
+  <si>
+    <t>#d1e492</t>
+  </si>
+  <si>
+    <t>#009b87</t>
+  </si>
+  <si>
+    <t>#199878</t>
+  </si>
+  <si>
+    <t>#55a553</t>
+  </si>
+  <si>
+    <t>#416d63</t>
+  </si>
+  <si>
+    <t>#74c0b1</t>
+  </si>
+  <si>
+    <t>#8cd4d4</t>
+  </si>
+  <si>
+    <t>#5b6bb0</t>
+  </si>
+  <si>
+    <t>#227c77</t>
+  </si>
+  <si>
+    <t>#20b381</t>
+  </si>
+  <si>
+    <t>#456042</t>
+  </si>
+  <si>
+    <t>#70798f</t>
+  </si>
+  <si>
+    <t>#7496bc</t>
+  </si>
+  <si>
+    <t>#f1f1f1</t>
+  </si>
+  <si>
+    <t>#1c1c1c</t>
+  </si>
+  <si>
+    <t>#8c8c86</t>
+  </si>
+  <si>
+    <t>#adadaf</t>
+  </si>
+  <si>
+    <t>#6c6a6a</t>
+  </si>
+  <si>
+    <t>#837680</t>
+  </si>
+  <si>
+    <t>#d8dfdb</t>
+  </si>
+  <si>
+    <t>#e9e4c2</t>
+  </si>
+  <si>
+    <t>#e8e3ce</t>
+  </si>
+  <si>
+    <t>#e2d1b0</t>
+  </si>
+  <si>
+    <t>#842e55</t>
+  </si>
+  <si>
+    <t>#932d67</t>
+  </si>
+  <si>
+    <t>#a93f95</t>
+  </si>
+  <si>
+    <t>#754a84</t>
+  </si>
+  <si>
+    <t>#66375d</t>
+  </si>
+  <si>
+    <t>#6835a1</t>
+  </si>
+  <si>
+    <t>#7c91d0</t>
+  </si>
+  <si>
+    <t>#a189bb</t>
+  </si>
+  <si>
+    <t>#a18da5</t>
+  </si>
+  <si>
+    <t>#563b37</t>
+  </si>
+  <si>
+    <t>#c17186</t>
+  </si>
+  <si>
+    <t>#ce4537</t>
+  </si>
+  <si>
+    <t>#e33d6d</t>
+  </si>
+  <si>
+    <t>#ac423c</t>
+  </si>
+  <si>
+    <t>#79413d</t>
+  </si>
+  <si>
+    <t>#9d6f59</t>
+  </si>
+  <si>
+    <t>#ce8141</t>
+  </si>
+  <si>
+    <t>#c28664</t>
+  </si>
+  <si>
+    <t>#d07156</t>
+  </si>
+  <si>
+    <t>#e76f53</t>
+  </si>
+  <si>
+    <t>#f76a76</t>
+  </si>
+  <si>
+    <t>#ffa471</t>
+  </si>
+  <si>
+    <t>#8f5f72</t>
+  </si>
+  <si>
+    <t>#d94c9e</t>
+  </si>
+  <si>
+    <t>#d6587d</t>
+  </si>
+  <si>
+    <t>#dd7096</t>
+  </si>
+  <si>
+    <t>#e86db5</t>
+  </si>
+  <si>
+    <t>#e4abbc</t>
+  </si>
+  <si>
+    <t>#e3b3c1</t>
+  </si>
+  <si>
+    <t>#d04e3f</t>
+  </si>
+  <si>
+    <t>#945438</t>
+  </si>
+  <si>
+    <t>#9d6b7e</t>
+  </si>
+  <si>
+    <t>#000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1716,7 +1978,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1773,6 +2035,13 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1782,7 +2051,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1817,6 +2086,21 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1827,7 +2111,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,6 +2130,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2066,1614 +2352,4344 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="4"/>
-    <col min="5" max="5" width="12.6328125" style="4"/>
+    <col min="1" max="1" width="12.6328125" style="3"/>
+    <col min="5" max="5" width="12.6328125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>116</v>
+      <c r="A1" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="10" t="s">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="B11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="10" t="s">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="10" t="s">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="B13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="10" t="s">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="10" t="s">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="10" t="s">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="10" t="s">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="10" t="s">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="B18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="10" t="s">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="10" t="s">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="10" t="s">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="10" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="10" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="10" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="B24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="10" t="s">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="10" t="s">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="10" t="s">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="10" t="s">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A28" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="B28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="10" t="s">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="10" t="s">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="B30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="10" t="s">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="B31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="10" t="s">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="B32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="10" t="s">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B30" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="10" t="s">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="B34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="10" t="s">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A35" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="10" t="s">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A36" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="10" t="s">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="10" t="s">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="B38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A36" s="10" t="s">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A39" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B36" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="B39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="10" t="s">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A40" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="10" t="s">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B38" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="10" t="s">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A42" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" t="s">
-        <v>207</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="10" t="s">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A43" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="10" t="s">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B41" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="10" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A45" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B42" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="10" t="s">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A46" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B43" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" t="s">
-        <v>207</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A44" s="10" t="s">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A47" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B44" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" t="s">
-        <v>207</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="10" t="s">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A48" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B45" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="10" t="s">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A49" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="10" t="s">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A50" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B47" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" t="s">
-        <v>207</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="10" t="s">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A51" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B48" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="B51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A49" s="10" t="s">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A52" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B49" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="10" t="s">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A53" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" t="s">
-        <v>207</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A51" s="10" t="s">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A54" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B51" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" t="s">
-        <v>207</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="B54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="10" t="s">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A55" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" t="s">
-        <v>207</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A53" s="10" t="s">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A56" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B53" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" t="s">
-        <v>207</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="10" t="s">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A57" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B54" t="s">
-        <v>207</v>
-      </c>
-      <c r="C54" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" t="s">
-        <v>207</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="B57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A55" s="10" t="s">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A58" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B55" t="s">
-        <v>207</v>
-      </c>
-      <c r="C55" t="s">
-        <v>207</v>
-      </c>
-      <c r="D55" t="s">
-        <v>207</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="B58" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A56" s="10" t="s">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A59" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B56" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="B59" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A57" s="10" t="s">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A60" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B57" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="B60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A58" s="10" t="s">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A61" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="B61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A59" s="10" t="s">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A62" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B59" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" t="s">
-        <v>207</v>
-      </c>
-      <c r="D59" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="10" t="s">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A63" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" t="s">
-        <v>207</v>
-      </c>
-      <c r="E60" s="4" t="s">
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A61" s="10" t="s">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A64" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B61" t="s">
-        <v>207</v>
-      </c>
-      <c r="C61" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="10" t="s">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A65" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B62" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" t="s">
-        <v>207</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A63" s="10" t="s">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A66" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C63" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" t="s">
-        <v>207</v>
-      </c>
-      <c r="E63" s="4" t="s">
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A64" s="10" t="s">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A67" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B64" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" t="s">
-        <v>207</v>
-      </c>
-      <c r="D64" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="4" t="s">
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A65" s="10" t="s">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A68" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B65" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" t="s">
-        <v>207</v>
-      </c>
-      <c r="D65" t="s">
-        <v>207</v>
-      </c>
-      <c r="E65" s="4" t="s">
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A66" s="10" t="s">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A69" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B66" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" t="s">
-        <v>207</v>
-      </c>
-      <c r="E66" s="4" t="s">
+      <c r="B69" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A67" s="10" t="s">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A70" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B67" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="10" t="s">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A71" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B68" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" t="s">
-        <v>207</v>
-      </c>
-      <c r="D68" t="s">
-        <v>207</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="B71" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A69" s="10" t="s">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A72" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B69" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" s="4" t="s">
+      <c r="B72" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A70" s="10" t="s">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A73" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B70" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" t="s">
-        <v>207</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="B73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A71" s="10" t="s">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A74" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B71" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" t="s">
-        <v>207</v>
-      </c>
-      <c r="D71" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A72" s="10" t="s">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A75" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B72" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" t="s">
-        <v>207</v>
-      </c>
-      <c r="D72" t="s">
-        <v>207</v>
-      </c>
-      <c r="E72" s="4" t="s">
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A73" s="10" t="s">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A76" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C73" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" t="s">
-        <v>207</v>
-      </c>
-      <c r="E73" s="4" t="s">
+      <c r="B76" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A74" s="10" t="s">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A77" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B74" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" t="s">
-        <v>207</v>
-      </c>
-      <c r="D74" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="B77" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="10" t="s">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A78" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B75" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" t="s">
-        <v>207</v>
-      </c>
-      <c r="E75" s="4" t="s">
+      <c r="B78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A76" s="10" t="s">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A79" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B76" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" t="s">
-        <v>207</v>
-      </c>
-      <c r="D76" t="s">
-        <v>207</v>
-      </c>
-      <c r="E76" s="4" t="s">
+      <c r="B79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A77" s="10" t="s">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A80" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B77" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77" t="s">
-        <v>207</v>
-      </c>
-      <c r="D77" t="s">
-        <v>207</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="B80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A78" s="10" t="s">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A81" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B78" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" t="s">
-        <v>207</v>
-      </c>
-      <c r="D78" t="s">
-        <v>207</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="B81" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A79" s="10" t="s">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A82" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B79" t="s">
-        <v>207</v>
-      </c>
-      <c r="C79" t="s">
-        <v>207</v>
-      </c>
-      <c r="D79" t="s">
-        <v>207</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="B82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A80" s="10" t="s">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A83" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B80" t="s">
-        <v>207</v>
-      </c>
-      <c r="C80" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" t="s">
-        <v>207</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="B83" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A81" s="10" t="s">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A84" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B81" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" t="s">
-        <v>207</v>
-      </c>
-      <c r="E81" s="4" t="s">
+      <c r="B84" t="s">
+        <v>204</v>
+      </c>
+      <c r="C84" t="s">
+        <v>204</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="10" t="s">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A85" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B82" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" t="s">
-        <v>207</v>
-      </c>
-      <c r="E82" s="4" t="s">
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="10" t="s">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A86" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" t="s">
-        <v>207</v>
-      </c>
-      <c r="D83" t="s">
-        <v>207</v>
-      </c>
-      <c r="E83" s="4" t="s">
+      <c r="B86" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A84" s="10" t="s">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A87" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B84" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" t="s">
-        <v>207</v>
-      </c>
-      <c r="D84" t="s">
-        <v>207</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="B87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A85" s="10" t="s">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A88" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B85" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="10" t="s">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A89" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B86" t="s">
-        <v>207</v>
-      </c>
-      <c r="C86" t="s">
-        <v>207</v>
-      </c>
-      <c r="D86" t="s">
-        <v>207</v>
-      </c>
-      <c r="E86" s="4" t="s">
+      <c r="B89" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A87" s="10" t="s">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A90" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C87" t="s">
-        <v>207</v>
-      </c>
-      <c r="D87" t="s">
-        <v>207</v>
-      </c>
-      <c r="E87" s="4" t="s">
+      <c r="B90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" t="s">
+        <v>204</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A88" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B88" t="s">
-        <v>207</v>
-      </c>
-      <c r="C88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A89" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B89" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" t="s">
-        <v>207</v>
-      </c>
-      <c r="D89" t="s">
-        <v>207</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A90" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B90" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" t="s">
-        <v>207</v>
-      </c>
-      <c r="D90" t="s">
-        <v>207</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>115</v>
-      </c>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D96" s="10"/>
+    </row>
+    <row r="97" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D97" s="10"/>
+    </row>
+    <row r="98" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D105" s="10"/>
+    </row>
+    <row r="106" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D109" s="10"/>
+    </row>
+    <row r="110" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D110" s="10"/>
+    </row>
+    <row r="111" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D112" s="10"/>
+    </row>
+    <row r="113" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D113" s="10"/>
+    </row>
+    <row r="114" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D114" s="10"/>
+    </row>
+    <row r="115" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D115" s="10"/>
+    </row>
+    <row r="116" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D116" s="10"/>
+    </row>
+    <row r="117" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D117" s="10"/>
+    </row>
+    <row r="118" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D118" s="10"/>
+    </row>
+    <row r="119" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D119" s="10"/>
+    </row>
+    <row r="120" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D120" s="10"/>
+    </row>
+    <row r="121" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D121" s="10"/>
+    </row>
+    <row r="122" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D122" s="10"/>
+    </row>
+    <row r="123" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D123" s="10"/>
+    </row>
+    <row r="124" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D124" s="10"/>
+    </row>
+    <row r="125" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D125" s="10"/>
+    </row>
+    <row r="126" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D126" s="10"/>
+    </row>
+    <row r="127" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D127" s="10"/>
+    </row>
+    <row r="128" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D128" s="10"/>
+    </row>
+    <row r="129" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D129" s="10"/>
+    </row>
+    <row r="130" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D130" s="10"/>
+    </row>
+    <row r="131" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D131" s="10"/>
+    </row>
+    <row r="132" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D132" s="10"/>
+    </row>
+    <row r="133" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D133" s="10"/>
+    </row>
+    <row r="134" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D134" s="10"/>
+    </row>
+    <row r="135" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D135" s="10"/>
+    </row>
+    <row r="136" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D136" s="10"/>
+    </row>
+    <row r="137" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D137" s="10"/>
+    </row>
+    <row r="138" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D138" s="10"/>
+    </row>
+    <row r="139" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D139" s="10"/>
+    </row>
+    <row r="140" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D140" s="10"/>
+    </row>
+    <row r="141" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D141" s="10"/>
+    </row>
+    <row r="142" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D142" s="10"/>
+    </row>
+    <row r="143" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D143" s="10"/>
+    </row>
+    <row r="144" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D144" s="10"/>
+    </row>
+    <row r="145" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D145" s="10"/>
+    </row>
+    <row r="146" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D146" s="10"/>
+    </row>
+    <row r="147" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D147" s="10"/>
+    </row>
+    <row r="148" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D148" s="10"/>
+    </row>
+    <row r="149" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D149" s="10"/>
+    </row>
+    <row r="150" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D150" s="10"/>
+    </row>
+    <row r="151" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D151" s="10"/>
+    </row>
+    <row r="152" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D152" s="10"/>
+    </row>
+    <row r="153" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D153" s="10"/>
+    </row>
+    <row r="154" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D154" s="10"/>
+    </row>
+    <row r="155" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D155" s="10"/>
+    </row>
+    <row r="156" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D156" s="10"/>
+    </row>
+    <row r="157" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D160" s="10"/>
+    </row>
+    <row r="161" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D161" s="10"/>
+    </row>
+    <row r="162" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D162" s="10"/>
+    </row>
+    <row r="163" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D163" s="10"/>
+    </row>
+    <row r="164" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D164" s="10"/>
+    </row>
+    <row r="165" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D165" s="10"/>
+    </row>
+    <row r="166" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D166" s="10"/>
+    </row>
+    <row r="167" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D167" s="10"/>
+    </row>
+    <row r="168" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D168" s="10"/>
+    </row>
+    <row r="169" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D169" s="10"/>
+    </row>
+    <row r="170" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D170" s="10"/>
+    </row>
+    <row r="171" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D171" s="10"/>
+    </row>
+    <row r="172" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D172" s="10"/>
+    </row>
+    <row r="173" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D173" s="10"/>
+    </row>
+    <row r="174" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D174" s="10"/>
+    </row>
+    <row r="175" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D175" s="10"/>
+    </row>
+    <row r="176" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D176" s="10"/>
+    </row>
+    <row r="177" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D177" s="10"/>
+    </row>
+    <row r="178" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D178" s="10"/>
+    </row>
+    <row r="179" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D179" s="10"/>
+    </row>
+    <row r="180" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D180" s="10"/>
+    </row>
+    <row r="181" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D181" s="10"/>
+    </row>
+    <row r="182" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D182" s="10"/>
+    </row>
+    <row r="183" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D183" s="10"/>
+    </row>
+    <row r="184" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D184" s="10"/>
+    </row>
+    <row r="185" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D185" s="10"/>
+    </row>
+    <row r="186" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D186" s="10"/>
+    </row>
+    <row r="187" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D187" s="10"/>
+    </row>
+    <row r="188" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D188" s="10"/>
+    </row>
+    <row r="189" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D189" s="10"/>
+    </row>
+    <row r="190" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D190" s="10"/>
+    </row>
+    <row r="191" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D191" s="10"/>
+    </row>
+    <row r="192" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D192" s="10"/>
+    </row>
+    <row r="193" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D193" s="10"/>
+    </row>
+    <row r="194" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D194" s="10"/>
+    </row>
+    <row r="195" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D195" s="10"/>
+    </row>
+    <row r="196" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D196" s="10"/>
+    </row>
+    <row r="197" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D197" s="10"/>
+    </row>
+    <row r="198" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D198" s="10"/>
+    </row>
+    <row r="199" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D199" s="10"/>
+    </row>
+    <row r="200" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D200" s="10"/>
+    </row>
+    <row r="201" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D201" s="10"/>
+    </row>
+    <row r="202" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D202" s="10"/>
+    </row>
+    <row r="203" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D203" s="10"/>
+    </row>
+    <row r="204" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D204" s="10"/>
+    </row>
+    <row r="205" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D205" s="10"/>
+    </row>
+    <row r="206" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D206" s="10"/>
+    </row>
+    <row r="207" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D207" s="10"/>
+    </row>
+    <row r="208" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D208" s="10"/>
+    </row>
+    <row r="209" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D209" s="10"/>
+    </row>
+    <row r="210" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D210" s="10"/>
+    </row>
+    <row r="211" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D211" s="10"/>
+    </row>
+    <row r="212" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D212" s="10"/>
+    </row>
+    <row r="213" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D213" s="10"/>
+    </row>
+    <row r="214" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D214" s="10"/>
+    </row>
+    <row r="215" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D215" s="10"/>
+    </row>
+    <row r="216" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D216" s="10"/>
+    </row>
+    <row r="217" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D217" s="10"/>
+    </row>
+    <row r="218" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D218" s="10"/>
+    </row>
+    <row r="219" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D219" s="10"/>
+    </row>
+    <row r="220" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D220" s="10"/>
+    </row>
+    <row r="221" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D221" s="10"/>
+    </row>
+    <row r="222" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D222" s="10"/>
+    </row>
+    <row r="223" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D223" s="10"/>
+    </row>
+    <row r="224" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D224" s="10"/>
+    </row>
+    <row r="225" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D225" s="10"/>
+    </row>
+    <row r="226" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D226" s="10"/>
+    </row>
+    <row r="227" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D227" s="10"/>
+    </row>
+    <row r="228" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D228" s="10"/>
+    </row>
+    <row r="229" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D229" s="10"/>
+    </row>
+    <row r="230" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D230" s="10"/>
+    </row>
+    <row r="231" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D231" s="10"/>
+    </row>
+    <row r="232" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D232" s="10"/>
+    </row>
+    <row r="233" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D233" s="10"/>
+    </row>
+    <row r="234" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D234" s="10"/>
+    </row>
+    <row r="235" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D235" s="10"/>
+    </row>
+    <row r="236" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D236" s="10"/>
+    </row>
+    <row r="237" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D237" s="10"/>
+    </row>
+    <row r="238" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D238" s="10"/>
+    </row>
+    <row r="239" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D239" s="10"/>
+    </row>
+    <row r="240" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D240" s="10"/>
+    </row>
+    <row r="241" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D241" s="10"/>
+    </row>
+    <row r="242" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D242" s="10"/>
+    </row>
+    <row r="243" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D243" s="10"/>
+    </row>
+    <row r="244" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D244" s="10"/>
+    </row>
+    <row r="245" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D245" s="10"/>
+    </row>
+    <row r="246" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D246" s="10"/>
+    </row>
+    <row r="247" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D247" s="10"/>
+    </row>
+    <row r="248" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D248" s="10"/>
+    </row>
+    <row r="249" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D249" s="10"/>
+    </row>
+    <row r="250" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D250" s="10"/>
+    </row>
+    <row r="251" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D251" s="10"/>
+    </row>
+    <row r="252" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D252" s="10"/>
+    </row>
+    <row r="253" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D253" s="10"/>
+    </row>
+    <row r="254" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D254" s="10"/>
+    </row>
+    <row r="255" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D255" s="10"/>
+    </row>
+    <row r="256" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D256" s="10"/>
+    </row>
+    <row r="257" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D257" s="10"/>
+    </row>
+    <row r="258" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D258" s="10"/>
+    </row>
+    <row r="259" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D259" s="10"/>
+    </row>
+    <row r="260" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D260" s="10"/>
+    </row>
+    <row r="261" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D261" s="10"/>
+    </row>
+    <row r="262" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D262" s="10"/>
+    </row>
+    <row r="263" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D263" s="10"/>
+    </row>
+    <row r="264" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D264" s="10"/>
+    </row>
+    <row r="265" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D265" s="10"/>
+    </row>
+    <row r="266" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D266" s="10"/>
+    </row>
+    <row r="267" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D267" s="10"/>
+    </row>
+    <row r="268" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D268" s="10"/>
+    </row>
+    <row r="269" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D269" s="10"/>
+    </row>
+    <row r="270" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D270" s="10"/>
+    </row>
+    <row r="271" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D271" s="10"/>
+    </row>
+    <row r="272" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D272" s="10"/>
+    </row>
+    <row r="273" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D273" s="10"/>
+    </row>
+    <row r="274" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D274" s="10"/>
+    </row>
+    <row r="275" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D275" s="10"/>
+    </row>
+    <row r="276" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D276" s="10"/>
+    </row>
+    <row r="277" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D277" s="10"/>
+    </row>
+    <row r="278" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D278" s="10"/>
+    </row>
+    <row r="279" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D279" s="10"/>
+    </row>
+    <row r="280" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D280" s="10"/>
+    </row>
+    <row r="281" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D281" s="10"/>
+    </row>
+    <row r="282" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D282" s="10"/>
+    </row>
+    <row r="283" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D283" s="10"/>
+    </row>
+    <row r="284" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D284" s="10"/>
+    </row>
+    <row r="285" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D285" s="10"/>
+    </row>
+    <row r="286" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D286" s="10"/>
+    </row>
+    <row r="287" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D287" s="10"/>
+    </row>
+    <row r="288" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D288" s="10"/>
+    </row>
+    <row r="289" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D289" s="10"/>
+    </row>
+    <row r="290" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D290" s="10"/>
+    </row>
+    <row r="291" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D291" s="10"/>
+    </row>
+    <row r="292" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D292" s="10"/>
+    </row>
+    <row r="293" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D293" s="10"/>
+    </row>
+    <row r="294" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D294" s="10"/>
+    </row>
+    <row r="295" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D295" s="10"/>
+    </row>
+    <row r="296" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D296" s="10"/>
+    </row>
+    <row r="297" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D297" s="10"/>
+    </row>
+    <row r="298" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D298" s="10"/>
+    </row>
+    <row r="299" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D299" s="10"/>
+    </row>
+    <row r="300" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D300" s="10"/>
+    </row>
+    <row r="301" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D301" s="10"/>
+    </row>
+    <row r="302" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D302" s="10"/>
+    </row>
+    <row r="303" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D303" s="10"/>
+    </row>
+    <row r="304" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D304" s="10"/>
+    </row>
+    <row r="305" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D305" s="10"/>
+    </row>
+    <row r="306" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D306" s="10"/>
+    </row>
+    <row r="307" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D307" s="10"/>
+    </row>
+    <row r="308" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D308" s="10"/>
+    </row>
+    <row r="309" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D309" s="10"/>
+    </row>
+    <row r="310" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D310" s="10"/>
+    </row>
+    <row r="311" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D311" s="10"/>
+    </row>
+    <row r="312" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D312" s="10"/>
+    </row>
+    <row r="313" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D313" s="10"/>
+    </row>
+    <row r="314" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D314" s="10"/>
+    </row>
+    <row r="315" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D315" s="10"/>
+    </row>
+    <row r="316" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D316" s="10"/>
+    </row>
+    <row r="317" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D317" s="10"/>
+    </row>
+    <row r="318" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D318" s="10"/>
+    </row>
+    <row r="319" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D319" s="10"/>
+    </row>
+    <row r="320" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D320" s="10"/>
+    </row>
+    <row r="321" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D321" s="10"/>
+    </row>
+    <row r="322" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D322" s="10"/>
+    </row>
+    <row r="323" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D323" s="10"/>
+    </row>
+    <row r="324" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D324" s="10"/>
+    </row>
+    <row r="325" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D325" s="10"/>
+    </row>
+    <row r="326" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D326" s="10"/>
+    </row>
+    <row r="327" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D327" s="10"/>
+    </row>
+    <row r="328" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D328" s="10"/>
+    </row>
+    <row r="329" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D329" s="10"/>
+    </row>
+    <row r="330" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D330" s="10"/>
+    </row>
+    <row r="331" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D331" s="10"/>
+    </row>
+    <row r="332" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D332" s="10"/>
+    </row>
+    <row r="333" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D333" s="10"/>
+    </row>
+    <row r="334" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D334" s="10"/>
+    </row>
+    <row r="335" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D335" s="10"/>
+    </row>
+    <row r="336" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D336" s="10"/>
+    </row>
+    <row r="337" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D337" s="10"/>
+    </row>
+    <row r="338" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D338" s="10"/>
+    </row>
+    <row r="339" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D339" s="10"/>
+    </row>
+    <row r="340" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D340" s="10"/>
+    </row>
+    <row r="341" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D341" s="10"/>
+    </row>
+    <row r="342" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D342" s="10"/>
+    </row>
+    <row r="343" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D343" s="10"/>
+    </row>
+    <row r="344" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D344" s="10"/>
+    </row>
+    <row r="345" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D345" s="10"/>
+    </row>
+    <row r="346" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D346" s="10"/>
+    </row>
+    <row r="347" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D347" s="10"/>
+    </row>
+    <row r="348" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D348" s="10"/>
+    </row>
+    <row r="349" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D349" s="10"/>
+    </row>
+    <row r="350" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D350" s="10"/>
+    </row>
+    <row r="351" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D351" s="10"/>
+    </row>
+    <row r="352" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D352" s="10"/>
+    </row>
+    <row r="353" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D353" s="10"/>
+    </row>
+    <row r="354" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D354" s="10"/>
+    </row>
+    <row r="355" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D355" s="10"/>
+    </row>
+    <row r="356" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D356" s="10"/>
+    </row>
+    <row r="357" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D357" s="10"/>
+    </row>
+    <row r="358" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D358" s="10"/>
+    </row>
+    <row r="359" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D359" s="10"/>
+    </row>
+    <row r="360" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D360" s="10"/>
+    </row>
+    <row r="361" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D361" s="10"/>
+    </row>
+    <row r="362" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D362" s="10"/>
+    </row>
+    <row r="363" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D363" s="10"/>
+    </row>
+    <row r="364" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D364" s="10"/>
+    </row>
+    <row r="365" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D365" s="10"/>
+    </row>
+    <row r="366" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D366" s="10"/>
+    </row>
+    <row r="367" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D367" s="10"/>
+    </row>
+    <row r="368" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D368" s="10"/>
+    </row>
+    <row r="369" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D369" s="10"/>
+    </row>
+    <row r="370" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D370" s="10"/>
+    </row>
+    <row r="371" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D371" s="10"/>
+    </row>
+    <row r="372" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D372" s="10"/>
+    </row>
+    <row r="373" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D373" s="10"/>
+    </row>
+    <row r="374" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D374" s="10"/>
+    </row>
+    <row r="375" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D375" s="10"/>
+    </row>
+    <row r="376" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D376" s="10"/>
+    </row>
+    <row r="377" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D377" s="10"/>
+    </row>
+    <row r="378" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D378" s="10"/>
+    </row>
+    <row r="379" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D379" s="10"/>
+    </row>
+    <row r="380" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D380" s="10"/>
+    </row>
+    <row r="381" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D381" s="10"/>
+    </row>
+    <row r="382" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D382" s="10"/>
+    </row>
+    <row r="383" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D383" s="10"/>
+    </row>
+    <row r="384" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D384" s="10"/>
+    </row>
+    <row r="385" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D385" s="10"/>
+    </row>
+    <row r="386" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D386" s="10"/>
+    </row>
+    <row r="387" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D387" s="10"/>
+    </row>
+    <row r="388" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D388" s="10"/>
+    </row>
+    <row r="389" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D389" s="10"/>
+    </row>
+    <row r="390" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D390" s="10"/>
+    </row>
+    <row r="391" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D391" s="10"/>
+    </row>
+    <row r="392" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D392" s="10"/>
+    </row>
+    <row r="393" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D393" s="10"/>
+    </row>
+    <row r="394" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D394" s="10"/>
+    </row>
+    <row r="395" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D395" s="10"/>
+    </row>
+    <row r="396" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D396" s="10"/>
+    </row>
+    <row r="397" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D397" s="10"/>
+    </row>
+    <row r="398" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D398" s="10"/>
+    </row>
+    <row r="399" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D399" s="10"/>
+    </row>
+    <row r="400" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D400" s="10"/>
+    </row>
+    <row r="401" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D401" s="10"/>
+    </row>
+    <row r="402" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D402" s="10"/>
+    </row>
+    <row r="403" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D403" s="10"/>
+    </row>
+    <row r="404" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D404" s="10"/>
+    </row>
+    <row r="405" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D405" s="10"/>
+    </row>
+    <row r="406" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D406" s="10"/>
+    </row>
+    <row r="407" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D407" s="10"/>
+    </row>
+    <row r="408" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D408" s="10"/>
+    </row>
+    <row r="409" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D409" s="10"/>
+    </row>
+    <row r="410" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D410" s="10"/>
+    </row>
+    <row r="411" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D411" s="10"/>
+    </row>
+    <row r="412" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D412" s="10"/>
+    </row>
+    <row r="413" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D413" s="10"/>
+    </row>
+    <row r="414" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D414" s="10"/>
+    </row>
+    <row r="415" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D415" s="10"/>
+    </row>
+    <row r="416" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D416" s="10"/>
+    </row>
+    <row r="417" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D417" s="10"/>
+    </row>
+    <row r="418" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D418" s="10"/>
+    </row>
+    <row r="419" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D419" s="10"/>
+    </row>
+    <row r="420" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D420" s="10"/>
+    </row>
+    <row r="421" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D421" s="10"/>
+    </row>
+    <row r="422" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D422" s="10"/>
+    </row>
+    <row r="423" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D423" s="10"/>
+    </row>
+    <row r="424" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D424" s="10"/>
+    </row>
+    <row r="425" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D425" s="10"/>
+    </row>
+    <row r="426" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D426" s="10"/>
+    </row>
+    <row r="427" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D427" s="10"/>
+    </row>
+    <row r="428" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D428" s="10"/>
+    </row>
+    <row r="429" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D429" s="10"/>
+    </row>
+    <row r="430" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D430" s="10"/>
+    </row>
+    <row r="431" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D431" s="10"/>
+    </row>
+    <row r="432" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D432" s="10"/>
+    </row>
+    <row r="433" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D433" s="10"/>
+    </row>
+    <row r="434" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D434" s="10"/>
+    </row>
+    <row r="435" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D435" s="10"/>
+    </row>
+    <row r="436" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D436" s="10"/>
+    </row>
+    <row r="437" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D437" s="10"/>
+    </row>
+    <row r="438" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D438" s="10"/>
+    </row>
+    <row r="439" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D439" s="10"/>
+    </row>
+    <row r="440" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D440" s="10"/>
+    </row>
+    <row r="441" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D441" s="10"/>
+    </row>
+    <row r="442" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D442" s="10"/>
+    </row>
+    <row r="443" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D443" s="10"/>
+    </row>
+    <row r="444" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D444" s="10"/>
+    </row>
+    <row r="445" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D445" s="10"/>
+    </row>
+    <row r="446" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D446" s="10"/>
+    </row>
+    <row r="447" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D447" s="10"/>
+    </row>
+    <row r="448" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D448" s="10"/>
+    </row>
+    <row r="449" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D449" s="10"/>
+    </row>
+    <row r="450" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D450" s="10"/>
+    </row>
+    <row r="451" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D451" s="10"/>
+    </row>
+    <row r="452" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D452" s="10"/>
+    </row>
+    <row r="453" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D453" s="10"/>
+    </row>
+    <row r="454" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D454" s="10"/>
+    </row>
+    <row r="455" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D455" s="10"/>
+    </row>
+    <row r="456" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D456" s="10"/>
+    </row>
+    <row r="457" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D457" s="10"/>
+    </row>
+    <row r="458" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D458" s="10"/>
+    </row>
+    <row r="459" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D459" s="10"/>
+    </row>
+    <row r="460" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D460" s="10"/>
+    </row>
+    <row r="461" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D461" s="10"/>
+    </row>
+    <row r="462" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D462" s="10"/>
+    </row>
+    <row r="463" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D463" s="10"/>
+    </row>
+    <row r="464" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D464" s="10"/>
+    </row>
+    <row r="465" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D465" s="10"/>
+    </row>
+    <row r="466" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D466" s="10"/>
+    </row>
+    <row r="467" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D467" s="10"/>
+    </row>
+    <row r="468" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D468" s="10"/>
+    </row>
+    <row r="469" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D469" s="10"/>
+    </row>
+    <row r="470" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D470" s="10"/>
+    </row>
+    <row r="471" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D471" s="10"/>
+    </row>
+    <row r="472" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D472" s="10"/>
+    </row>
+    <row r="473" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D473" s="10"/>
+    </row>
+    <row r="474" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D474" s="10"/>
+    </row>
+    <row r="475" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D475" s="10"/>
+    </row>
+    <row r="476" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D476" s="10"/>
+    </row>
+    <row r="477" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D477" s="10"/>
+    </row>
+    <row r="478" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D478" s="10"/>
+    </row>
+    <row r="479" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D479" s="10"/>
+    </row>
+    <row r="480" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D480" s="10"/>
+    </row>
+    <row r="481" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D481" s="10"/>
+    </row>
+    <row r="482" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D482" s="10"/>
+    </row>
+    <row r="483" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D483" s="10"/>
+    </row>
+    <row r="484" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D484" s="10"/>
+    </row>
+    <row r="485" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D485" s="10"/>
+    </row>
+    <row r="486" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D486" s="10"/>
+    </row>
+    <row r="487" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D487" s="10"/>
+    </row>
+    <row r="488" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D488" s="10"/>
+    </row>
+    <row r="489" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D489" s="10"/>
+    </row>
+    <row r="490" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D490" s="10"/>
+    </row>
+    <row r="491" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D491" s="10"/>
+    </row>
+    <row r="492" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D492" s="10"/>
+    </row>
+    <row r="493" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D493" s="10"/>
+    </row>
+    <row r="494" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D494" s="10"/>
+    </row>
+    <row r="495" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D495" s="10"/>
+    </row>
+    <row r="496" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D496" s="10"/>
+    </row>
+    <row r="497" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D497" s="10"/>
+    </row>
+    <row r="498" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D498" s="10"/>
+    </row>
+    <row r="499" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D499" s="10"/>
+    </row>
+    <row r="500" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D500" s="10"/>
+    </row>
+    <row r="501" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D501" s="10"/>
+    </row>
+    <row r="502" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D502" s="10"/>
+    </row>
+    <row r="503" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D503" s="10"/>
+    </row>
+    <row r="504" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D504" s="10"/>
+    </row>
+    <row r="505" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D505" s="10"/>
+    </row>
+    <row r="506" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D506" s="10"/>
+    </row>
+    <row r="507" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D507" s="10"/>
+    </row>
+    <row r="508" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D508" s="10"/>
+    </row>
+    <row r="509" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D509" s="10"/>
+    </row>
+    <row r="510" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D510" s="10"/>
+    </row>
+    <row r="511" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D511" s="10"/>
+    </row>
+    <row r="512" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D512" s="10"/>
+    </row>
+    <row r="513" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D513" s="10"/>
+    </row>
+    <row r="514" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D514" s="10"/>
+    </row>
+    <row r="515" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D515" s="10"/>
+    </row>
+    <row r="516" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D516" s="10"/>
+    </row>
+    <row r="517" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D517" s="10"/>
+    </row>
+    <row r="518" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D518" s="10"/>
+    </row>
+    <row r="519" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D519" s="10"/>
+    </row>
+    <row r="520" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D520" s="10"/>
+    </row>
+    <row r="521" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D521" s="10"/>
+    </row>
+    <row r="522" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D522" s="10"/>
+    </row>
+    <row r="523" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D523" s="10"/>
+    </row>
+    <row r="524" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D524" s="10"/>
+    </row>
+    <row r="525" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D525" s="10"/>
+    </row>
+    <row r="526" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D526" s="10"/>
+    </row>
+    <row r="527" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D527" s="10"/>
+    </row>
+    <row r="528" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D528" s="10"/>
+    </row>
+    <row r="529" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D529" s="10"/>
+    </row>
+    <row r="530" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D530" s="10"/>
+    </row>
+    <row r="531" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D531" s="10"/>
+    </row>
+    <row r="532" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D532" s="10"/>
+    </row>
+    <row r="533" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D533" s="10"/>
+    </row>
+    <row r="534" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D534" s="10"/>
+    </row>
+    <row r="535" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D535" s="10"/>
+    </row>
+    <row r="536" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D536" s="10"/>
+    </row>
+    <row r="537" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D537" s="10"/>
+    </row>
+    <row r="538" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D538" s="10"/>
+    </row>
+    <row r="539" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D539" s="10"/>
+    </row>
+    <row r="540" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D540" s="10"/>
+    </row>
+    <row r="541" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D541" s="10"/>
+    </row>
+    <row r="542" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D542" s="10"/>
+    </row>
+    <row r="543" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D543" s="10"/>
+    </row>
+    <row r="544" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D544" s="10"/>
+    </row>
+    <row r="545" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D545" s="10"/>
+    </row>
+    <row r="546" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D546" s="10"/>
+    </row>
+    <row r="547" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D547" s="10"/>
+    </row>
+    <row r="548" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D548" s="10"/>
+    </row>
+    <row r="549" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D549" s="10"/>
+    </row>
+    <row r="550" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D550" s="10"/>
+    </row>
+    <row r="551" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D551" s="10"/>
+    </row>
+    <row r="552" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D552" s="10"/>
+    </row>
+    <row r="553" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D553" s="10"/>
+    </row>
+    <row r="554" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D554" s="10"/>
+    </row>
+    <row r="555" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D555" s="10"/>
+    </row>
+    <row r="556" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D556" s="10"/>
+    </row>
+    <row r="557" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D557" s="10"/>
+    </row>
+    <row r="558" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D558" s="10"/>
+    </row>
+    <row r="559" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D559" s="10"/>
+    </row>
+    <row r="560" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D560" s="10"/>
+    </row>
+    <row r="561" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D561" s="10"/>
+    </row>
+    <row r="562" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D562" s="10"/>
+    </row>
+    <row r="563" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D563" s="10"/>
+    </row>
+    <row r="564" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D564" s="10"/>
+    </row>
+    <row r="565" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D565" s="10"/>
+    </row>
+    <row r="566" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D566" s="10"/>
+    </row>
+    <row r="567" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D567" s="10"/>
+    </row>
+    <row r="568" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D568" s="10"/>
+    </row>
+    <row r="569" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D569" s="10"/>
+    </row>
+    <row r="570" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D570" s="10"/>
+    </row>
+    <row r="571" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D571" s="10"/>
+    </row>
+    <row r="572" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D572" s="10"/>
+    </row>
+    <row r="573" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D573" s="10"/>
+    </row>
+    <row r="574" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D574" s="10"/>
+    </row>
+    <row r="575" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D575" s="10"/>
+    </row>
+    <row r="576" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D576" s="10"/>
+    </row>
+    <row r="577" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D577" s="10"/>
+    </row>
+    <row r="578" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D578" s="10"/>
+    </row>
+    <row r="579" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D579" s="10"/>
+    </row>
+    <row r="580" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D580" s="10"/>
+    </row>
+    <row r="581" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D581" s="10"/>
+    </row>
+    <row r="582" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D582" s="10"/>
+    </row>
+    <row r="583" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D583" s="10"/>
+    </row>
+    <row r="584" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D584" s="10"/>
+    </row>
+    <row r="585" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D585" s="10"/>
+    </row>
+    <row r="586" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D586" s="10"/>
+    </row>
+    <row r="587" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D587" s="10"/>
+    </row>
+    <row r="588" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D588" s="10"/>
+    </row>
+    <row r="589" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D589" s="10"/>
+    </row>
+    <row r="590" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D590" s="10"/>
+    </row>
+    <row r="591" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D591" s="10"/>
+    </row>
+    <row r="592" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D592" s="10"/>
+    </row>
+    <row r="593" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D593" s="10"/>
+    </row>
+    <row r="594" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D594" s="10"/>
+    </row>
+    <row r="595" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D595" s="10"/>
+    </row>
+    <row r="596" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D596" s="10"/>
+    </row>
+    <row r="597" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D597" s="10"/>
+    </row>
+    <row r="598" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D598" s="10"/>
+    </row>
+    <row r="599" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D599" s="10"/>
+    </row>
+    <row r="600" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D600" s="10"/>
+    </row>
+    <row r="601" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D601" s="10"/>
+    </row>
+    <row r="602" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D602" s="10"/>
+    </row>
+    <row r="603" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D603" s="10"/>
+    </row>
+    <row r="604" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D604" s="10"/>
+    </row>
+    <row r="605" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D605" s="10"/>
+    </row>
+    <row r="606" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D606" s="10"/>
+    </row>
+    <row r="607" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D607" s="10"/>
+    </row>
+    <row r="608" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D608" s="10"/>
+    </row>
+    <row r="609" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D609" s="10"/>
+    </row>
+    <row r="610" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D610" s="10"/>
+    </row>
+    <row r="611" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D611" s="10"/>
+    </row>
+    <row r="612" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D612" s="10"/>
+    </row>
+    <row r="613" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D613" s="10"/>
+    </row>
+    <row r="614" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D614" s="10"/>
+    </row>
+    <row r="615" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D615" s="10"/>
+    </row>
+    <row r="616" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D616" s="10"/>
+    </row>
+    <row r="617" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D617" s="10"/>
+    </row>
+    <row r="618" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D618" s="10"/>
+    </row>
+    <row r="619" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D619" s="10"/>
+    </row>
+    <row r="620" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D620" s="10"/>
+    </row>
+    <row r="621" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D621" s="10"/>
+    </row>
+    <row r="622" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D622" s="10"/>
+    </row>
+    <row r="623" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D623" s="10"/>
+    </row>
+    <row r="624" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D624" s="10"/>
+    </row>
+    <row r="625" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D625" s="10"/>
+    </row>
+    <row r="626" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D626" s="10"/>
+    </row>
+    <row r="627" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D627" s="10"/>
+    </row>
+    <row r="628" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D628" s="10"/>
+    </row>
+    <row r="629" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D629" s="10"/>
+    </row>
+    <row r="630" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D630" s="10"/>
+    </row>
+    <row r="631" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D631" s="10"/>
+    </row>
+    <row r="632" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D632" s="10"/>
+    </row>
+    <row r="633" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D633" s="10"/>
+    </row>
+    <row r="634" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D634" s="10"/>
+    </row>
+    <row r="635" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D635" s="10"/>
+    </row>
+    <row r="636" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D636" s="10"/>
+    </row>
+    <row r="637" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D637" s="10"/>
+    </row>
+    <row r="638" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D638" s="10"/>
+    </row>
+    <row r="639" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D639" s="10"/>
+    </row>
+    <row r="640" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D640" s="10"/>
+    </row>
+    <row r="641" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D641" s="10"/>
+    </row>
+    <row r="642" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D642" s="10"/>
+    </row>
+    <row r="643" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D643" s="10"/>
+    </row>
+    <row r="644" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D644" s="10"/>
+    </row>
+    <row r="645" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D645" s="10"/>
+    </row>
+    <row r="646" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D646" s="10"/>
+    </row>
+    <row r="647" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D647" s="10"/>
+    </row>
+    <row r="648" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D648" s="10"/>
+    </row>
+    <row r="649" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D649" s="10"/>
+    </row>
+    <row r="650" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D650" s="10"/>
+    </row>
+    <row r="651" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D651" s="10"/>
+    </row>
+    <row r="652" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D652" s="10"/>
+    </row>
+    <row r="653" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D653" s="10"/>
+    </row>
+    <row r="654" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D654" s="10"/>
+    </row>
+    <row r="655" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D655" s="10"/>
+    </row>
+    <row r="656" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D656" s="10"/>
+    </row>
+    <row r="657" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D657" s="10"/>
+    </row>
+    <row r="658" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D658" s="10"/>
+    </row>
+    <row r="659" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D659" s="10"/>
+    </row>
+    <row r="660" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D660" s="10"/>
+    </row>
+    <row r="661" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D661" s="10"/>
+    </row>
+    <row r="662" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D662" s="10"/>
+    </row>
+    <row r="663" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D663" s="10"/>
+    </row>
+    <row r="664" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D664" s="10"/>
+    </row>
+    <row r="665" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D665" s="10"/>
+    </row>
+    <row r="666" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D666" s="10"/>
+    </row>
+    <row r="667" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D667" s="10"/>
+    </row>
+    <row r="668" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D668" s="10"/>
+    </row>
+    <row r="669" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D669" s="10"/>
+    </row>
+    <row r="670" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D670" s="10"/>
+    </row>
+    <row r="671" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D671" s="10"/>
+    </row>
+    <row r="672" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D672" s="10"/>
+    </row>
+    <row r="673" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D673" s="10"/>
+    </row>
+    <row r="674" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D674" s="10"/>
+    </row>
+    <row r="675" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D675" s="10"/>
+    </row>
+    <row r="676" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D676" s="10"/>
+    </row>
+    <row r="677" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D677" s="10"/>
+    </row>
+    <row r="678" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D678" s="10"/>
+    </row>
+    <row r="679" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D679" s="10"/>
+    </row>
+    <row r="680" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D680" s="10"/>
+    </row>
+    <row r="681" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D681" s="10"/>
+    </row>
+    <row r="682" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D682" s="10"/>
+    </row>
+    <row r="683" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D683" s="10"/>
+    </row>
+    <row r="684" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D684" s="10"/>
+    </row>
+    <row r="685" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D685" s="10"/>
+    </row>
+    <row r="686" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D686" s="10"/>
+    </row>
+    <row r="687" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D687" s="10"/>
+    </row>
+    <row r="688" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D688" s="10"/>
+    </row>
+    <row r="689" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D689" s="10"/>
+    </row>
+    <row r="690" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D690" s="10"/>
+    </row>
+    <row r="691" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D691" s="10"/>
+    </row>
+    <row r="692" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D692" s="10"/>
+    </row>
+    <row r="693" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D693" s="10"/>
+    </row>
+    <row r="694" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D694" s="10"/>
+    </row>
+    <row r="695" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D695" s="10"/>
+    </row>
+    <row r="696" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D696" s="10"/>
+    </row>
+    <row r="697" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D697" s="10"/>
+    </row>
+    <row r="698" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D698" s="10"/>
+    </row>
+    <row r="699" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D699" s="10"/>
+    </row>
+    <row r="700" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D700" s="10"/>
+    </row>
+    <row r="701" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D701" s="10"/>
+    </row>
+    <row r="702" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D702" s="10"/>
+    </row>
+    <row r="703" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D703" s="10"/>
+    </row>
+    <row r="704" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D704" s="10"/>
+    </row>
+    <row r="705" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D705" s="10"/>
+    </row>
+    <row r="706" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D706" s="10"/>
+    </row>
+    <row r="707" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D707" s="10"/>
+    </row>
+    <row r="708" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D708" s="10"/>
+    </row>
+    <row r="709" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D709" s="10"/>
+    </row>
+    <row r="710" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D710" s="10"/>
+    </row>
+    <row r="711" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D711" s="10"/>
+    </row>
+    <row r="712" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D712" s="10"/>
+    </row>
+    <row r="713" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D713" s="10"/>
+    </row>
+    <row r="714" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D714" s="10"/>
+    </row>
+    <row r="715" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D715" s="10"/>
+    </row>
+    <row r="716" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D716" s="10"/>
+    </row>
+    <row r="717" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D717" s="10"/>
+    </row>
+    <row r="718" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D718" s="10"/>
+    </row>
+    <row r="719" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D719" s="10"/>
+    </row>
+    <row r="720" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D720" s="10"/>
+    </row>
+    <row r="721" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D721" s="10"/>
+    </row>
+    <row r="722" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D722" s="10"/>
+    </row>
+    <row r="723" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D723" s="10"/>
+    </row>
+    <row r="724" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D724" s="10"/>
+    </row>
+    <row r="725" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D725" s="10"/>
+    </row>
+    <row r="726" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D726" s="10"/>
+    </row>
+    <row r="727" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D727" s="10"/>
+    </row>
+    <row r="728" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D728" s="10"/>
+    </row>
+    <row r="729" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D729" s="10"/>
+    </row>
+    <row r="730" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D730" s="10"/>
+    </row>
+    <row r="731" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D731" s="10"/>
+    </row>
+    <row r="732" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D732" s="10"/>
+    </row>
+    <row r="733" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D733" s="10"/>
+    </row>
+    <row r="734" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D734" s="10"/>
+    </row>
+    <row r="735" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D735" s="10"/>
+    </row>
+    <row r="736" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D736" s="10"/>
+    </row>
+    <row r="737" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D737" s="10"/>
+    </row>
+    <row r="738" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D738" s="10"/>
+    </row>
+    <row r="739" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D739" s="10"/>
+    </row>
+    <row r="740" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D740" s="10"/>
+    </row>
+    <row r="741" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D741" s="10"/>
+    </row>
+    <row r="742" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D742" s="10"/>
+    </row>
+    <row r="743" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D743" s="10"/>
+    </row>
+    <row r="744" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D744" s="10"/>
+    </row>
+    <row r="745" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D745" s="10"/>
+    </row>
+    <row r="746" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D746" s="10"/>
+    </row>
+    <row r="747" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D747" s="10"/>
+    </row>
+    <row r="748" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D748" s="10"/>
+    </row>
+    <row r="749" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D749" s="10"/>
+    </row>
+    <row r="750" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D750" s="10"/>
+    </row>
+    <row r="751" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D751" s="10"/>
+    </row>
+    <row r="752" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D752" s="10"/>
+    </row>
+    <row r="753" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D753" s="10"/>
+    </row>
+    <row r="754" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D754" s="10"/>
+    </row>
+    <row r="755" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D755" s="10"/>
+    </row>
+    <row r="756" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D756" s="10"/>
+    </row>
+    <row r="757" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D757" s="10"/>
+    </row>
+    <row r="758" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D758" s="10"/>
+    </row>
+    <row r="759" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D759" s="10"/>
+    </row>
+    <row r="760" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D760" s="10"/>
+    </row>
+    <row r="761" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D761" s="10"/>
+    </row>
+    <row r="762" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D762" s="10"/>
+    </row>
+    <row r="763" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D763" s="10"/>
+    </row>
+    <row r="764" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D764" s="10"/>
+    </row>
+    <row r="765" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D765" s="10"/>
+    </row>
+    <row r="766" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D766" s="10"/>
+    </row>
+    <row r="767" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D767" s="10"/>
+    </row>
+    <row r="768" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D768" s="10"/>
+    </row>
+    <row r="769" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D769" s="10"/>
+    </row>
+    <row r="770" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D770" s="10"/>
+    </row>
+    <row r="771" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D771" s="10"/>
+    </row>
+    <row r="772" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D772" s="10"/>
+    </row>
+    <row r="773" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D773" s="10"/>
+    </row>
+    <row r="774" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D774" s="10"/>
+    </row>
+    <row r="775" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D775" s="10"/>
+    </row>
+    <row r="776" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D776" s="10"/>
+    </row>
+    <row r="777" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D777" s="10"/>
+    </row>
+    <row r="778" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D778" s="10"/>
+    </row>
+    <row r="779" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D779" s="10"/>
+    </row>
+    <row r="780" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D780" s="10"/>
+    </row>
+    <row r="781" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D781" s="10"/>
+    </row>
+    <row r="782" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D782" s="10"/>
+    </row>
+    <row r="783" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D783" s="10"/>
+    </row>
+    <row r="784" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D784" s="10"/>
+    </row>
+    <row r="785" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D785" s="10"/>
+    </row>
+    <row r="786" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D786" s="10"/>
+    </row>
+    <row r="787" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D787" s="10"/>
+    </row>
+    <row r="788" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D788" s="10"/>
+    </row>
+    <row r="789" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D789" s="10"/>
+    </row>
+    <row r="790" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D790" s="10"/>
+    </row>
+    <row r="791" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D791" s="10"/>
+    </row>
+    <row r="792" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D792" s="10"/>
+    </row>
+    <row r="793" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D793" s="10"/>
+    </row>
+    <row r="794" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D794" s="10"/>
+    </row>
+    <row r="795" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D795" s="10"/>
+    </row>
+    <row r="796" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D796" s="10"/>
+    </row>
+    <row r="797" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D797" s="10"/>
+    </row>
+    <row r="798" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D798" s="10"/>
+    </row>
+    <row r="799" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D799" s="10"/>
+    </row>
+    <row r="800" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D800" s="10"/>
+    </row>
+    <row r="801" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D801" s="10"/>
+    </row>
+    <row r="802" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D802" s="10"/>
+    </row>
+    <row r="803" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D803" s="10"/>
+    </row>
+    <row r="804" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D804" s="10"/>
+    </row>
+    <row r="805" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D805" s="10"/>
+    </row>
+    <row r="806" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D806" s="10"/>
+    </row>
+    <row r="807" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D807" s="10"/>
+    </row>
+    <row r="808" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D808" s="10"/>
+    </row>
+    <row r="809" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D809" s="10"/>
+    </row>
+    <row r="810" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D810" s="10"/>
+    </row>
+    <row r="811" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D811" s="10"/>
+    </row>
+    <row r="812" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D812" s="10"/>
+    </row>
+    <row r="813" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D813" s="10"/>
+    </row>
+    <row r="814" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D814" s="10"/>
+    </row>
+    <row r="815" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D815" s="10"/>
+    </row>
+    <row r="816" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D816" s="10"/>
+    </row>
+    <row r="817" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D817" s="10"/>
+    </row>
+    <row r="818" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D818" s="10"/>
+    </row>
+    <row r="819" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D819" s="10"/>
+    </row>
+    <row r="820" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D820" s="10"/>
+    </row>
+    <row r="821" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D821" s="10"/>
+    </row>
+    <row r="822" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D822" s="10"/>
+    </row>
+    <row r="823" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D823" s="10"/>
+    </row>
+    <row r="824" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D824" s="10"/>
+    </row>
+    <row r="825" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D825" s="10"/>
+    </row>
+    <row r="826" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D826" s="10"/>
+    </row>
+    <row r="827" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D827" s="10"/>
+    </row>
+    <row r="828" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D828" s="10"/>
+    </row>
+    <row r="829" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D829" s="10"/>
+    </row>
+    <row r="830" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D830" s="10"/>
+    </row>
+    <row r="831" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D831" s="10"/>
+    </row>
+    <row r="832" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D832" s="10"/>
+    </row>
+    <row r="833" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D833" s="10"/>
+    </row>
+    <row r="834" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D834" s="10"/>
+    </row>
+    <row r="835" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D835" s="10"/>
+    </row>
+    <row r="836" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D836" s="10"/>
+    </row>
+    <row r="837" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D837" s="10"/>
+    </row>
+    <row r="838" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D838" s="10"/>
+    </row>
+    <row r="839" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D839" s="10"/>
+    </row>
+    <row r="840" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D840" s="10"/>
+    </row>
+    <row r="841" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D841" s="10"/>
+    </row>
+    <row r="842" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D842" s="10"/>
+    </row>
+    <row r="843" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D843" s="10"/>
+    </row>
+    <row r="844" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D844" s="10"/>
+    </row>
+    <row r="845" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D845" s="10"/>
+    </row>
+    <row r="846" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D846" s="10"/>
+    </row>
+    <row r="847" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D847" s="10"/>
+    </row>
+    <row r="848" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D848" s="10"/>
+    </row>
+    <row r="849" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D849" s="10"/>
+    </row>
+    <row r="850" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D850" s="10"/>
+    </row>
+    <row r="851" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D851" s="10"/>
+    </row>
+    <row r="852" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D852" s="10"/>
+    </row>
+    <row r="853" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D853" s="10"/>
+    </row>
+    <row r="854" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D854" s="10"/>
+    </row>
+    <row r="855" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D855" s="10"/>
+    </row>
+    <row r="856" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D856" s="10"/>
+    </row>
+    <row r="857" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D857" s="10"/>
+    </row>
+    <row r="858" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D858" s="10"/>
+    </row>
+    <row r="859" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D859" s="10"/>
+    </row>
+    <row r="860" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D860" s="10"/>
+    </row>
+    <row r="861" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D861" s="10"/>
+    </row>
+    <row r="862" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D862" s="10"/>
+    </row>
+    <row r="863" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D863" s="10"/>
+    </row>
+    <row r="864" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D864" s="10"/>
+    </row>
+    <row r="865" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D865" s="10"/>
+    </row>
+    <row r="866" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D866" s="10"/>
+    </row>
+    <row r="867" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D867" s="10"/>
+    </row>
+    <row r="868" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D868" s="10"/>
+    </row>
+    <row r="869" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D869" s="10"/>
+    </row>
+    <row r="870" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D870" s="10"/>
+    </row>
+    <row r="871" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D871" s="10"/>
+    </row>
+    <row r="872" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D872" s="10"/>
+    </row>
+    <row r="873" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D873" s="10"/>
+    </row>
+    <row r="874" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D874" s="10"/>
+    </row>
+    <row r="875" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D875" s="10"/>
+    </row>
+    <row r="876" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D876" s="10"/>
+    </row>
+    <row r="877" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D877" s="10"/>
+    </row>
+    <row r="878" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D878" s="10"/>
+    </row>
+    <row r="879" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D879" s="10"/>
+    </row>
+    <row r="880" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D880" s="10"/>
+    </row>
+    <row r="881" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D881" s="10"/>
+    </row>
+    <row r="882" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D882" s="10"/>
+    </row>
+    <row r="883" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D883" s="10"/>
+    </row>
+    <row r="884" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D884" s="10"/>
+    </row>
+    <row r="885" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D885" s="10"/>
+    </row>
+    <row r="886" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D886" s="10"/>
+    </row>
+    <row r="887" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D887" s="10"/>
+    </row>
+    <row r="888" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D888" s="10"/>
+    </row>
+    <row r="889" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D889" s="10"/>
+    </row>
+    <row r="890" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D890" s="10"/>
+    </row>
+    <row r="891" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D891" s="10"/>
+    </row>
+    <row r="892" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D892" s="10"/>
+    </row>
+    <row r="893" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D893" s="10"/>
+    </row>
+    <row r="894" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D894" s="10"/>
+    </row>
+    <row r="895" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D895" s="10"/>
+    </row>
+    <row r="896" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D896" s="10"/>
+    </row>
+    <row r="897" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D897" s="10"/>
+    </row>
+    <row r="898" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D898" s="10"/>
+    </row>
+    <row r="899" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D899" s="10"/>
+    </row>
+    <row r="900" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D900" s="10"/>
+    </row>
+    <row r="901" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D901" s="10"/>
+    </row>
+    <row r="902" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D902" s="10"/>
+    </row>
+    <row r="903" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D903" s="10"/>
+    </row>
+    <row r="904" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D904" s="10"/>
+    </row>
+    <row r="905" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D905" s="10"/>
+    </row>
+    <row r="906" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D906" s="10"/>
+    </row>
+    <row r="907" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D907" s="10"/>
+    </row>
+    <row r="908" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D908" s="10"/>
+    </row>
+    <row r="909" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D909" s="10"/>
+    </row>
+    <row r="910" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D910" s="10"/>
+    </row>
+    <row r="911" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D911" s="10"/>
+    </row>
+    <row r="912" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D912" s="10"/>
+    </row>
+    <row r="913" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D913" s="10"/>
+    </row>
+    <row r="914" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D914" s="10"/>
+    </row>
+    <row r="915" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D915" s="10"/>
+    </row>
+    <row r="916" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D916" s="10"/>
+    </row>
+    <row r="917" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D917" s="10"/>
+    </row>
+    <row r="918" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D918" s="10"/>
+    </row>
+    <row r="919" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D919" s="10"/>
+    </row>
+    <row r="920" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D920" s="10"/>
+    </row>
+    <row r="921" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D921" s="10"/>
+    </row>
+    <row r="922" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D922" s="10"/>
+    </row>
+    <row r="923" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D923" s="10"/>
+    </row>
+    <row r="924" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D924" s="10"/>
+    </row>
+    <row r="925" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D925" s="10"/>
+    </row>
+    <row r="926" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D926" s="10"/>
+    </row>
+    <row r="927" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D927" s="10"/>
+    </row>
+    <row r="928" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D928" s="10"/>
+    </row>
+    <row r="929" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D929" s="10"/>
+    </row>
+    <row r="930" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D930" s="10"/>
+    </row>
+    <row r="931" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D931" s="10"/>
+    </row>
+    <row r="932" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D932" s="10"/>
+    </row>
+    <row r="933" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D933" s="10"/>
+    </row>
+    <row r="934" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D934" s="10"/>
+    </row>
+    <row r="935" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D935" s="10"/>
+    </row>
+    <row r="936" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D936" s="10"/>
+    </row>
+    <row r="937" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D937" s="10"/>
+    </row>
+    <row r="938" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D938" s="10"/>
+    </row>
+    <row r="939" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D939" s="10"/>
+    </row>
+    <row r="940" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D940" s="10"/>
+    </row>
+    <row r="941" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D941" s="10"/>
+    </row>
+    <row r="942" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D942" s="10"/>
+    </row>
+    <row r="943" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D943" s="10"/>
+    </row>
+    <row r="944" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D944" s="10"/>
+    </row>
+    <row r="945" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D945" s="10"/>
+    </row>
+    <row r="946" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D946" s="10"/>
+    </row>
+    <row r="947" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D947" s="10"/>
+    </row>
+    <row r="948" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D948" s="10"/>
+    </row>
+    <row r="949" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D949" s="10"/>
+    </row>
+    <row r="950" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D950" s="10"/>
+    </row>
+    <row r="951" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D951" s="10"/>
+    </row>
+    <row r="952" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D952" s="10"/>
+    </row>
+    <row r="953" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D953" s="10"/>
+    </row>
+    <row r="954" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D954" s="10"/>
+    </row>
+    <row r="955" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D955" s="10"/>
+    </row>
+    <row r="956" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D956" s="10"/>
+    </row>
+    <row r="957" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D957" s="10"/>
+    </row>
+    <row r="958" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D958" s="10"/>
+    </row>
+    <row r="959" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D959" s="10"/>
+    </row>
+    <row r="960" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D960" s="10"/>
+    </row>
+    <row r="961" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D961" s="10"/>
+    </row>
+    <row r="962" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D962" s="10"/>
+    </row>
+    <row r="963" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D963" s="10"/>
+    </row>
+    <row r="964" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D964" s="10"/>
+    </row>
+    <row r="965" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D965" s="10"/>
+    </row>
+    <row r="966" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D966" s="10"/>
+    </row>
+    <row r="967" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D967" s="10"/>
+    </row>
+    <row r="968" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D968" s="10"/>
+    </row>
+    <row r="969" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D969" s="10"/>
+    </row>
+    <row r="970" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D970" s="10"/>
+    </row>
+    <row r="971" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D971" s="10"/>
+    </row>
+    <row r="972" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D972" s="10"/>
+    </row>
+    <row r="973" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D973" s="10"/>
+    </row>
+    <row r="974" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D974" s="10"/>
+    </row>
+    <row r="975" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D975" s="10"/>
+    </row>
+    <row r="976" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D976" s="10"/>
+    </row>
+    <row r="977" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D977" s="10"/>
+    </row>
+    <row r="978" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D978" s="10"/>
+    </row>
+    <row r="979" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D979" s="10"/>
+    </row>
+    <row r="980" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D980" s="10"/>
+    </row>
+    <row r="981" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D981" s="10"/>
+    </row>
+    <row r="982" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D982" s="10"/>
+    </row>
+    <row r="983" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D983" s="10"/>
+    </row>
+    <row r="984" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D984" s="10"/>
+    </row>
+    <row r="985" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D985" s="10"/>
+    </row>
+    <row r="986" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D986" s="10"/>
+    </row>
+    <row r="987" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D987" s="10"/>
+    </row>
+    <row r="988" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D988" s="10"/>
+    </row>
+    <row r="989" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D989" s="10"/>
+    </row>
+    <row r="990" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D990" s="10"/>
+    </row>
+    <row r="991" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D991" s="10"/>
+    </row>
+    <row r="992" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D992" s="10"/>
+    </row>
+    <row r="993" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D993" s="10"/>
+    </row>
+    <row r="994" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D994" s="10"/>
+    </row>
+    <row r="995" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D995" s="10"/>
+    </row>
+    <row r="996" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D996" s="10"/>
+    </row>
+    <row r="997" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D997" s="10"/>
+    </row>
+    <row r="998" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D998" s="10"/>
+    </row>
+    <row r="999" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D999" s="10"/>
+    </row>
+    <row r="1000" spans="4:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D1000" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C13560E-7B40-4FC1-A523-AA457DFFFB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02A8ABC-51FA-4924-A960-6C432D2CD2CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9400" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6040" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="384">
   <si>
     <t>곤색;담청색</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1987,13 +1987,278 @@
       </rPr>
       <t>⾊)</t>
     </r>
+  </si>
+  <si>
+    <t>Formular Guide 7404 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2008 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 382 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7499 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 930 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4017 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 714 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 4002 CP</t>
+  </si>
+  <si>
+    <t>Formular Guide 715 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 722 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7751 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2318 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 122 CP</t>
+  </si>
+  <si>
+    <t>Formular Guide 487 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2312 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7687 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2925 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 542 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7459 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 3258 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2101 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7683 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2374 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2378 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 3574 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7677 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7675 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 5275 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4131 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 7730 CP</t>
+  </si>
+  <si>
+    <t>Color Bridge 2257 CP</t>
+  </si>
+  <si>
+    <t>Extended Gamut 7739 XGC</t>
+  </si>
+  <si>
+    <t>Formular Guide 7737 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 374 C</t>
+  </si>
+  <si>
+    <t>Extended Gamut 2281 XGC</t>
+  </si>
+  <si>
+    <t>CMYK P 130-14 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2243 C</t>
+  </si>
+  <si>
+    <t>CMYK P 142-14 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 5545 CP</t>
+  </si>
+  <si>
+    <t>Color Bridge 3255 CP</t>
+  </si>
+  <si>
+    <t>Extended Gamut 318 XGC</t>
+  </si>
+  <si>
+    <t>Formular Guide 7456 C</t>
+  </si>
+  <si>
+    <t>CMYK P 126-5 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 339 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 2410 CP</t>
+  </si>
+  <si>
+    <t>Formular Guide 2360 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 645 C</t>
+  </si>
+  <si>
+    <t>CMYK P 179-1 C</t>
+  </si>
+  <si>
+    <t>Formular Guide Black 6 C</t>
+  </si>
+  <si>
+    <t>Extended Gamut 7539 XGC</t>
+  </si>
+  <si>
+    <t>Formular Guide Cool Gray
+6 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4292 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 8462 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7541 C</t>
+  </si>
+  <si>
+    <t>Pastels &amp; Neons 9142 C</t>
+  </si>
+  <si>
+    <t>CMYK P 3-1 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 468 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 683 C</t>
+  </si>
+  <si>
+    <t>CMYK P 81-15 C</t>
+  </si>
+  <si>
+    <t>Color Bridge Purple CP</t>
+  </si>
+  <si>
+    <t>Formular Guide 2082 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 5125 C</t>
+  </si>
+  <si>
+    <t>Extended Gamut 2090 XGC</t>
+  </si>
+  <si>
+    <t>Formular Guide 2114 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4121 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 666 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7617 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 695 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 7626 CP</t>
+  </si>
+  <si>
+    <t>Extended Gamut 198 XGC</t>
+  </si>
+  <si>
+    <t>Formular Guide 7608 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 499 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4715 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7515 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7618 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7416 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 1777 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7410 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4095 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 3527 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7423 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2045 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 218 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 508 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 509 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 2033 CP</t>
+  </si>
+  <si>
+    <t>Formular Guide 2469 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7646 C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2024,6 +2289,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2033,12 +2305,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2047,9 +2349,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2365,18 +2673,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F1" sqref="F1:F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="7" width="14.25" customWidth="1"/>
+    <col min="1" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="7" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="17.5" thickBot="1">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -2392,14 +2702,17 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>207</v>
       </c>
@@ -2415,14 +2728,17 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -2438,14 +2754,17 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="17.5" thickBot="1">
       <c r="A4" t="s">
         <v>209</v>
       </c>
@@ -2461,11 +2780,14 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="17.5" thickBot="1">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -2481,11 +2803,14 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="17.5" thickBot="1">
       <c r="A6" t="s">
         <v>291</v>
       </c>
@@ -2501,11 +2826,14 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="17.5" thickBot="1">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -2521,11 +2849,14 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="17.5" thickBot="1">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -2541,11 +2872,14 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="17.5" thickBot="1">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -2561,11 +2895,14 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="17.5" thickBot="1">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -2581,11 +2918,14 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="17.5" thickBot="1">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -2601,11 +2941,14 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="17.5" thickBot="1">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -2621,11 +2964,14 @@
       <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="17.5" thickBot="1">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -2641,11 +2987,14 @@
       <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="17.5" thickBot="1">
       <c r="A14" t="s">
         <v>218</v>
       </c>
@@ -2661,11 +3010,14 @@
       <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="17.5" thickBot="1">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -2681,11 +3033,14 @@
       <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="17.5" thickBot="1">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -2701,11 +3056,14 @@
       <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="17.5" thickBot="1">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -2721,11 +3079,14 @@
       <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="17.5" thickBot="1">
       <c r="A18" t="s">
         <v>221</v>
       </c>
@@ -2741,11 +3102,14 @@
       <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="17.5" thickBot="1">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -2761,11 +3125,14 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="17.5" thickBot="1">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -2781,8 +3148,11 @@
       <c r="E20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F20" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.5" thickBot="1">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -2798,8 +3168,11 @@
       <c r="E21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F21" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.5" thickBot="1">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -2815,8 +3188,11 @@
       <c r="E22" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F22" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.5" thickBot="1">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -2832,8 +3208,11 @@
       <c r="E23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F23" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.5" thickBot="1">
       <c r="A24" t="s">
         <v>227</v>
       </c>
@@ -2849,8 +3228,11 @@
       <c r="E24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F24" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.5" thickBot="1">
       <c r="A25" t="s">
         <v>293</v>
       </c>
@@ -2866,8 +3248,11 @@
       <c r="E25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F25" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.5" thickBot="1">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -2883,8 +3268,11 @@
       <c r="E26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F26" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.5" thickBot="1">
       <c r="A27" t="s">
         <v>229</v>
       </c>
@@ -2900,8 +3288,11 @@
       <c r="E27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F27" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.5" thickBot="1">
       <c r="A28" t="s">
         <v>230</v>
       </c>
@@ -2917,8 +3308,11 @@
       <c r="E28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F28" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.5" thickBot="1">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -2934,8 +3328,11 @@
       <c r="E29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F29" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.5" thickBot="1">
       <c r="A30" t="s">
         <v>232</v>
       </c>
@@ -2951,8 +3348,11 @@
       <c r="E30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F30" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.5" thickBot="1">
       <c r="A31" t="s">
         <v>233</v>
       </c>
@@ -2968,8 +3368,11 @@
       <c r="E31" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F31" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.5" thickBot="1">
       <c r="A32" t="s">
         <v>234</v>
       </c>
@@ -2985,8 +3388,11 @@
       <c r="E32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.5" thickBot="1">
       <c r="A33" t="s">
         <v>235</v>
       </c>
@@ -3002,8 +3408,11 @@
       <c r="E33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.5" thickBot="1">
       <c r="A34" t="s">
         <v>236</v>
       </c>
@@ -3019,8 +3428,11 @@
       <c r="E34" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.5" thickBot="1">
       <c r="A35" t="s">
         <v>237</v>
       </c>
@@ -3036,8 +3448,11 @@
       <c r="E35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.5" thickBot="1">
       <c r="A36" t="s">
         <v>238</v>
       </c>
@@ -3053,8 +3468,11 @@
       <c r="E36" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.5" thickBot="1">
       <c r="A37" t="s">
         <v>239</v>
       </c>
@@ -3070,8 +3488,11 @@
       <c r="E37" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.5" thickBot="1">
       <c r="A38" t="s">
         <v>240</v>
       </c>
@@ -3087,8 +3508,11 @@
       <c r="E38" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.5" thickBot="1">
       <c r="A39" t="s">
         <v>241</v>
       </c>
@@ -3104,8 +3528,11 @@
       <c r="E39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.5" thickBot="1">
       <c r="A40" t="s">
         <v>242</v>
       </c>
@@ -3121,8 +3548,11 @@
       <c r="E40" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.5" thickBot="1">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -3138,8 +3568,11 @@
       <c r="E41" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.5" thickBot="1">
       <c r="A42" t="s">
         <v>244</v>
       </c>
@@ -3155,8 +3588,11 @@
       <c r="E42" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.5" thickBot="1">
       <c r="A43" t="s">
         <v>245</v>
       </c>
@@ -3172,8 +3608,11 @@
       <c r="E43" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.5" thickBot="1">
       <c r="A44" t="s">
         <v>246</v>
       </c>
@@ -3189,8 +3628,11 @@
       <c r="E44" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.5" thickBot="1">
       <c r="A45" t="s">
         <v>247</v>
       </c>
@@ -3206,8 +3648,11 @@
       <c r="E45" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.5" thickBot="1">
       <c r="A46" t="s">
         <v>248</v>
       </c>
@@ -3223,8 +3668,11 @@
       <c r="E46" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.5" thickBot="1">
       <c r="A47" t="s">
         <v>249</v>
       </c>
@@ -3240,8 +3688,11 @@
       <c r="E47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.5" thickBot="1">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -3257,8 +3708,11 @@
       <c r="E48" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.5" thickBot="1">
       <c r="A49" t="s">
         <v>251</v>
       </c>
@@ -3274,8 +3728,11 @@
       <c r="E49" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.5" thickBot="1">
       <c r="A50" t="s">
         <v>252</v>
       </c>
@@ -3291,8 +3748,11 @@
       <c r="E50" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.5" thickBot="1">
       <c r="A51" t="s">
         <v>253</v>
       </c>
@@ -3308,8 +3768,11 @@
       <c r="E51" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="34.5" thickBot="1">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -3325,8 +3788,11 @@
       <c r="E52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.5" thickBot="1">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -3342,8 +3808,11 @@
       <c r="E53" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.5" thickBot="1">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -3359,8 +3828,11 @@
       <c r="E54" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.5" thickBot="1">
       <c r="A55" t="s">
         <v>257</v>
       </c>
@@ -3376,8 +3848,11 @@
       <c r="E55" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.5" thickBot="1">
       <c r="A56" t="s">
         <v>258</v>
       </c>
@@ -3393,8 +3868,11 @@
       <c r="E56" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17.5" thickBot="1">
       <c r="A57" t="s">
         <v>259</v>
       </c>
@@ -3410,8 +3888,11 @@
       <c r="E57" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.5" thickBot="1">
       <c r="A58" t="s">
         <v>260</v>
       </c>
@@ -3427,8 +3908,11 @@
       <c r="E58" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.5" thickBot="1">
       <c r="A59" t="s">
         <v>261</v>
       </c>
@@ -3444,8 +3928,11 @@
       <c r="E59" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.5" thickBot="1">
       <c r="A60" t="s">
         <v>262</v>
       </c>
@@ -3461,8 +3948,11 @@
       <c r="E60" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17.5" thickBot="1">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -3478,8 +3968,11 @@
       <c r="E61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.5" thickBot="1">
       <c r="A62" t="s">
         <v>264</v>
       </c>
@@ -3495,8 +3988,11 @@
       <c r="E62" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17.5" thickBot="1">
       <c r="A63" t="s">
         <v>265</v>
       </c>
@@ -3512,8 +4008,11 @@
       <c r="E63" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17.5" thickBot="1">
       <c r="A64" t="s">
         <v>294</v>
       </c>
@@ -3529,8 +4028,11 @@
       <c r="E64" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.5" thickBot="1">
       <c r="A65" t="s">
         <v>266</v>
       </c>
@@ -3546,8 +4048,11 @@
       <c r="E65" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17.5" thickBot="1">
       <c r="A66" t="s">
         <v>267</v>
       </c>
@@ -3563,8 +4068,11 @@
       <c r="E66" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17.5" thickBot="1">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -3580,8 +4088,11 @@
       <c r="E67" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17.5" thickBot="1">
       <c r="A68" t="s">
         <v>269</v>
       </c>
@@ -3597,8 +4108,11 @@
       <c r="E68" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17.5" thickBot="1">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -3614,8 +4128,11 @@
       <c r="E69" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17.5" thickBot="1">
       <c r="A70" t="s">
         <v>271</v>
       </c>
@@ -3631,8 +4148,11 @@
       <c r="E70" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17.5" thickBot="1">
       <c r="A71" t="s">
         <v>272</v>
       </c>
@@ -3648,8 +4168,11 @@
       <c r="E71" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.5" thickBot="1">
       <c r="A72" t="s">
         <v>273</v>
       </c>
@@ -3665,8 +4188,11 @@
       <c r="E72" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17.5" thickBot="1">
       <c r="A73" t="s">
         <v>274</v>
       </c>
@@ -3682,8 +4208,11 @@
       <c r="E73" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17.5" thickBot="1">
       <c r="A74" t="s">
         <v>275</v>
       </c>
@@ -3699,8 +4228,11 @@
       <c r="E74" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17.5" thickBot="1">
       <c r="A75" t="s">
         <v>295</v>
       </c>
@@ -3716,8 +4248,11 @@
       <c r="E75" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17.5" thickBot="1">
       <c r="A76" t="s">
         <v>276</v>
       </c>
@@ -3733,8 +4268,11 @@
       <c r="E76" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.5" thickBot="1">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -3750,8 +4288,11 @@
       <c r="E77" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17.5" thickBot="1">
       <c r="A78" t="s">
         <v>278</v>
       </c>
@@ -3767,8 +4308,11 @@
       <c r="E78" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17.5" thickBot="1">
       <c r="A79" t="s">
         <v>279</v>
       </c>
@@ -3784,8 +4328,11 @@
       <c r="E79" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17.5" thickBot="1">
       <c r="A80" t="s">
         <v>280</v>
       </c>
@@ -3801,8 +4348,11 @@
       <c r="E80" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.5" thickBot="1">
       <c r="A81" t="s">
         <v>281</v>
       </c>
@@ -3818,8 +4368,11 @@
       <c r="E81" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17.5" thickBot="1">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -3835,8 +4388,11 @@
       <c r="E82" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17.5" thickBot="1">
       <c r="A83" t="s">
         <v>283</v>
       </c>
@@ -3852,8 +4408,11 @@
       <c r="E83" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17.5" thickBot="1">
       <c r="A84" t="s">
         <v>284</v>
       </c>
@@ -3869,8 +4428,11 @@
       <c r="E84" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17.5" thickBot="1">
       <c r="A85" t="s">
         <v>285</v>
       </c>
@@ -3886,8 +4448,11 @@
       <c r="E85" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17.5" thickBot="1">
       <c r="A86" t="s">
         <v>286</v>
       </c>
@@ -3903,8 +4468,11 @@
       <c r="E86" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17.5" thickBot="1">
       <c r="A87" t="s">
         <v>287</v>
       </c>
@@ -3920,8 +4488,11 @@
       <c r="E87" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17.5" thickBot="1">
       <c r="A88" t="s">
         <v>288</v>
       </c>
@@ -3937,8 +4508,11 @@
       <c r="E88" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17.5" thickBot="1">
       <c r="A89" t="s">
         <v>289</v>
       </c>
@@ -3954,8 +4528,11 @@
       <c r="E89" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.5" thickBot="1">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -3970,10 +4547,14 @@
       </c>
       <c r="E90" t="s">
         <v>205</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02A8ABC-51FA-4924-A960-6C432D2CD2CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C13560E-7B40-4FC1-A523-AA457DFFFB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6040" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9400" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="296">
   <si>
     <t>곤색;담청색</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1987,278 +1987,13 @@
       </rPr>
       <t>⾊)</t>
     </r>
-  </si>
-  <si>
-    <t>Formular Guide 7404 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 2008 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 382 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7499 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 930 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 4017 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 714 C</t>
-  </si>
-  <si>
-    <t>Color Bridge 4002 CP</t>
-  </si>
-  <si>
-    <t>Formular Guide 715 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 722 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7751 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 2318 C</t>
-  </si>
-  <si>
-    <t>Color Bridge 122 CP</t>
-  </si>
-  <si>
-    <t>Formular Guide 487 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 2312 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7687 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 2925 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 542 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7459 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 3258 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 2101 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7683 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 2374 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 2378 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 3574 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7677 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7675 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 5275 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 4131 C</t>
-  </si>
-  <si>
-    <t>Color Bridge 7730 CP</t>
-  </si>
-  <si>
-    <t>Color Bridge 2257 CP</t>
-  </si>
-  <si>
-    <t>Extended Gamut 7739 XGC</t>
-  </si>
-  <si>
-    <t>Formular Guide 7737 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 374 C</t>
-  </si>
-  <si>
-    <t>Extended Gamut 2281 XGC</t>
-  </si>
-  <si>
-    <t>CMYK P 130-14 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 2243 C</t>
-  </si>
-  <si>
-    <t>CMYK P 142-14 C</t>
-  </si>
-  <si>
-    <t>Color Bridge 5545 CP</t>
-  </si>
-  <si>
-    <t>Color Bridge 3255 CP</t>
-  </si>
-  <si>
-    <t>Extended Gamut 318 XGC</t>
-  </si>
-  <si>
-    <t>Formular Guide 7456 C</t>
-  </si>
-  <si>
-    <t>CMYK P 126-5 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 339 C</t>
-  </si>
-  <si>
-    <t>Color Bridge 2410 CP</t>
-  </si>
-  <si>
-    <t>Formular Guide 2360 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 645 C</t>
-  </si>
-  <si>
-    <t>CMYK P 179-1 C</t>
-  </si>
-  <si>
-    <t>Formular Guide Black 6 C</t>
-  </si>
-  <si>
-    <t>Extended Gamut 7539 XGC</t>
-  </si>
-  <si>
-    <t>Formular Guide Cool Gray
-6 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 4292 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 8462 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7541 C</t>
-  </si>
-  <si>
-    <t>Pastels &amp; Neons 9142 C</t>
-  </si>
-  <si>
-    <t>CMYK P 3-1 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 468 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 683 C</t>
-  </si>
-  <si>
-    <t>CMYK P 81-15 C</t>
-  </si>
-  <si>
-    <t>Color Bridge Purple CP</t>
-  </si>
-  <si>
-    <t>Formular Guide 2082 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 5125 C</t>
-  </si>
-  <si>
-    <t>Extended Gamut 2090 XGC</t>
-  </si>
-  <si>
-    <t>Formular Guide 2114 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 4121 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 666 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7617 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 695 C</t>
-  </si>
-  <si>
-    <t>Color Bridge 7626 CP</t>
-  </si>
-  <si>
-    <t>Extended Gamut 198 XGC</t>
-  </si>
-  <si>
-    <t>Formular Guide 7608 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 499 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 4715 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7515 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7618 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7416 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 1777 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7410 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 4095 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 3527 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7423 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 2045 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 218 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 508 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 509 C</t>
-  </si>
-  <si>
-    <t>Color Bridge 2033 CP</t>
-  </si>
-  <si>
-    <t>Formular Guide 2469 C</t>
-  </si>
-  <si>
-    <t>Formular Guide 7646 C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2289,13 +2024,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2305,42 +2033,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2349,15 +2047,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2673,20 +2365,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F90"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
-    <col min="7" max="8" width="14.25" customWidth="1"/>
+    <col min="1" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" thickBot="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -2702,17 +2392,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>296</v>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.5" thickBot="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>207</v>
       </c>
@@ -2728,17 +2415,14 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>297</v>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -2754,17 +2438,14 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>298</v>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>209</v>
       </c>
@@ -2780,14 +2461,11 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -2803,14 +2481,11 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>291</v>
       </c>
@@ -2826,14 +2501,11 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -2849,14 +2521,11 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -2872,14 +2541,11 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.5" thickBot="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -2895,14 +2561,11 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.5" thickBot="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -2918,14 +2581,11 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.5" thickBot="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -2941,14 +2601,11 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.5" thickBot="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -2964,14 +2621,11 @@
       <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.5" thickBot="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -2987,14 +2641,11 @@
       <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.5" thickBot="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>218</v>
       </c>
@@ -3010,14 +2661,11 @@
       <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.5" thickBot="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -3033,14 +2681,11 @@
       <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.5" thickBot="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -3056,14 +2701,11 @@
       <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.5" thickBot="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -3079,14 +2721,11 @@
       <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.5" thickBot="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>221</v>
       </c>
@@ -3102,14 +2741,11 @@
       <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.5" thickBot="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -3125,14 +2761,11 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.5" thickBot="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -3148,11 +2781,8 @@
       <c r="E20" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -3168,11 +2798,8 @@
       <c r="E21" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -3188,11 +2815,8 @@
       <c r="E22" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -3208,11 +2832,8 @@
       <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>227</v>
       </c>
@@ -3228,11 +2849,8 @@
       <c r="E24" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>293</v>
       </c>
@@ -3248,11 +2866,8 @@
       <c r="E25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -3268,11 +2883,8 @@
       <c r="E26" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>229</v>
       </c>
@@ -3288,11 +2900,8 @@
       <c r="E27" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>230</v>
       </c>
@@ -3308,11 +2917,8 @@
       <c r="E28" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -3328,11 +2934,8 @@
       <c r="E29" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>232</v>
       </c>
@@ -3348,11 +2951,8 @@
       <c r="E30" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>233</v>
       </c>
@@ -3368,11 +2968,8 @@
       <c r="E31" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>234</v>
       </c>
@@ -3388,11 +2985,8 @@
       <c r="E32" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>235</v>
       </c>
@@ -3408,11 +3002,8 @@
       <c r="E33" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>236</v>
       </c>
@@ -3428,11 +3019,8 @@
       <c r="E34" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>237</v>
       </c>
@@ -3448,11 +3036,8 @@
       <c r="E35" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>238</v>
       </c>
@@ -3468,11 +3053,8 @@
       <c r="E36" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>239</v>
       </c>
@@ -3488,11 +3070,8 @@
       <c r="E37" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>240</v>
       </c>
@@ -3508,11 +3087,8 @@
       <c r="E38" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>241</v>
       </c>
@@ -3528,11 +3104,8 @@
       <c r="E39" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>242</v>
       </c>
@@ -3548,11 +3121,8 @@
       <c r="E40" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -3568,11 +3138,8 @@
       <c r="E41" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>244</v>
       </c>
@@ -3588,11 +3155,8 @@
       <c r="E42" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>245</v>
       </c>
@@ -3608,11 +3172,8 @@
       <c r="E43" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>246</v>
       </c>
@@ -3628,11 +3189,8 @@
       <c r="E44" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>247</v>
       </c>
@@ -3648,11 +3206,8 @@
       <c r="E45" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>248</v>
       </c>
@@ -3668,11 +3223,8 @@
       <c r="E46" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>249</v>
       </c>
@@ -3688,11 +3240,8 @@
       <c r="E47" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -3708,11 +3257,8 @@
       <c r="E48" t="s">
         <v>121</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>251</v>
       </c>
@@ -3728,11 +3274,8 @@
       <c r="E49" t="s">
         <v>123</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>252</v>
       </c>
@@ -3748,11 +3291,8 @@
       <c r="E50" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>253</v>
       </c>
@@ -3768,11 +3308,8 @@
       <c r="E51" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="34.5" thickBot="1">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -3788,11 +3325,8 @@
       <c r="E52" t="s">
         <v>129</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -3808,11 +3342,8 @@
       <c r="E53" t="s">
         <v>131</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -3828,11 +3359,8 @@
       <c r="E54" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>257</v>
       </c>
@@ -3848,11 +3376,8 @@
       <c r="E55" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>258</v>
       </c>
@@ -3868,11 +3393,8 @@
       <c r="E56" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>259</v>
       </c>
@@ -3888,11 +3410,8 @@
       <c r="E57" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>260</v>
       </c>
@@ -3908,11 +3427,8 @@
       <c r="E58" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>261</v>
       </c>
@@ -3928,11 +3444,8 @@
       <c r="E59" t="s">
         <v>143</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>262</v>
       </c>
@@ -3948,11 +3461,8 @@
       <c r="E60" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -3968,11 +3478,8 @@
       <c r="E61" t="s">
         <v>147</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>264</v>
       </c>
@@ -3988,11 +3495,8 @@
       <c r="E62" t="s">
         <v>149</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>265</v>
       </c>
@@ -4008,11 +3512,8 @@
       <c r="E63" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>294</v>
       </c>
@@ -4028,11 +3529,8 @@
       <c r="E64" t="s">
         <v>153</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>266</v>
       </c>
@@ -4048,11 +3546,8 @@
       <c r="E65" t="s">
         <v>155</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>267</v>
       </c>
@@ -4068,11 +3563,8 @@
       <c r="E66" t="s">
         <v>157</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -4088,11 +3580,8 @@
       <c r="E67" t="s">
         <v>159</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>269</v>
       </c>
@@ -4108,11 +3597,8 @@
       <c r="E68" t="s">
         <v>161</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -4128,11 +3614,8 @@
       <c r="E69" t="s">
         <v>163</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>271</v>
       </c>
@@ -4148,11 +3631,8 @@
       <c r="E70" t="s">
         <v>165</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>272</v>
       </c>
@@ -4168,11 +3648,8 @@
       <c r="E71" t="s">
         <v>167</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>273</v>
       </c>
@@ -4188,11 +3665,8 @@
       <c r="E72" t="s">
         <v>169</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>274</v>
       </c>
@@ -4208,11 +3682,8 @@
       <c r="E73" t="s">
         <v>171</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>275</v>
       </c>
@@ -4228,11 +3699,8 @@
       <c r="E74" t="s">
         <v>173</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>295</v>
       </c>
@@ -4248,11 +3716,8 @@
       <c r="E75" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>276</v>
       </c>
@@ -4268,11 +3733,8 @@
       <c r="E76" t="s">
         <v>177</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -4288,11 +3750,8 @@
       <c r="E77" t="s">
         <v>179</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>278</v>
       </c>
@@ -4308,11 +3767,8 @@
       <c r="E78" t="s">
         <v>181</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>279</v>
       </c>
@@ -4328,11 +3784,8 @@
       <c r="E79" t="s">
         <v>183</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>280</v>
       </c>
@@ -4348,11 +3801,8 @@
       <c r="E80" t="s">
         <v>185</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>281</v>
       </c>
@@ -4368,11 +3818,8 @@
       <c r="E81" t="s">
         <v>187</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -4388,11 +3835,8 @@
       <c r="E82" t="s">
         <v>189</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>283</v>
       </c>
@@ -4408,11 +3852,8 @@
       <c r="E83" t="s">
         <v>191</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>284</v>
       </c>
@@ -4428,11 +3869,8 @@
       <c r="E84" t="s">
         <v>193</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>285</v>
       </c>
@@ -4448,11 +3886,8 @@
       <c r="E85" t="s">
         <v>195</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>286</v>
       </c>
@@ -4468,11 +3903,8 @@
       <c r="E86" t="s">
         <v>197</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>287</v>
       </c>
@@ -4488,11 +3920,8 @@
       <c r="E87" t="s">
         <v>199</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>288</v>
       </c>
@@ -4508,11 +3937,8 @@
       <c r="E88" t="s">
         <v>201</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>289</v>
       </c>
@@ -4528,11 +3954,8 @@
       <c r="E89" t="s">
         <v>203</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="17.5" thickBot="1">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -4547,14 +3970,10 @@
       </c>
       <c r="E90" t="s">
         <v>205</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C13560E-7B40-4FC1-A523-AA457DFFFB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F8EA5-5EA2-4D4B-99A2-2149EA467E54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9400" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="384">
   <si>
     <t>곤색;담청색</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1987,6 +1987,271 @@
       </rPr>
       <t>⾊)</t>
     </r>
+  </si>
+  <si>
+    <t>Formular Guide 7404 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2008 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 382 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7499 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 930 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4017 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 714 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 4002 CP</t>
+  </si>
+  <si>
+    <t>Formular Guide 715 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 722 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7751 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2318 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 122 CP</t>
+  </si>
+  <si>
+    <t>Formular Guide 487 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2312 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7687 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2925 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 542 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7459 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 3258 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2101 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7683 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2374 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2378 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 3574 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7677 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7675 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 5275 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4131 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 7730 CP</t>
+  </si>
+  <si>
+    <t>Color Bridge 2257 CP</t>
+  </si>
+  <si>
+    <t>Extended Gamut 7739 XGC</t>
+  </si>
+  <si>
+    <t>Formular Guide 7737 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 374 C</t>
+  </si>
+  <si>
+    <t>Extended Gamut 2281 XGC</t>
+  </si>
+  <si>
+    <t>CMYK P 130-14 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2243 C</t>
+  </si>
+  <si>
+    <t>CMYK P 142-14 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 5545 CP</t>
+  </si>
+  <si>
+    <t>Color Bridge 3255 CP</t>
+  </si>
+  <si>
+    <t>Extended Gamut 318 XGC</t>
+  </si>
+  <si>
+    <t>Formular Guide 7456 C</t>
+  </si>
+  <si>
+    <t>CMYK P 126-5 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 339 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 2410 CP</t>
+  </si>
+  <si>
+    <t>Formular Guide 2360 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 645 C</t>
+  </si>
+  <si>
+    <t>CMYK P 179-1 C</t>
+  </si>
+  <si>
+    <t>Formular Guide Black 6 C</t>
+  </si>
+  <si>
+    <t>Extended Gamut 7539 XGC</t>
+  </si>
+  <si>
+    <t>Formular Guide Cool Gray
+6 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4292 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 8462 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7541 C</t>
+  </si>
+  <si>
+    <t>Pastels &amp; Neons 9142 C</t>
+  </si>
+  <si>
+    <t>CMYK P 3-1 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 468 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 683 C</t>
+  </si>
+  <si>
+    <t>CMYK P 81-15 C</t>
+  </si>
+  <si>
+    <t>Color Bridge Purple CP</t>
+  </si>
+  <si>
+    <t>Formular Guide 2082 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 5125 C</t>
+  </si>
+  <si>
+    <t>Extended Gamut 2090 XGC</t>
+  </si>
+  <si>
+    <t>Formular Guide 2114 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4121 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 666 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7617 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 695 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 7626 CP</t>
+  </si>
+  <si>
+    <t>Extended Gamut 198 XGC</t>
+  </si>
+  <si>
+    <t>Formular Guide 7608 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 499 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4715 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7515 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7618 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7416 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 1777 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7410 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 4095 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 3527 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7423 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 2045 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 218 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 508 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 509 C</t>
+  </si>
+  <si>
+    <t>Color Bridge 2033 CP</t>
+  </si>
+  <si>
+    <t>Formular Guide 2469 C</t>
+  </si>
+  <si>
+    <t>Formular Guide 7646 C</t>
   </si>
 </sst>
 </file>
@@ -2365,18 +2630,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="14.25" customWidth="1"/>
+    <col min="1" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -2393,13 +2660,16 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>207</v>
       </c>
@@ -2416,13 +2686,16 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -2439,13 +2712,16 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>209</v>
       </c>
@@ -2461,11 +2737,14 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -2481,11 +2760,14 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>291</v>
       </c>
@@ -2501,11 +2783,14 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -2521,11 +2806,14 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -2541,11 +2829,14 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -2561,11 +2852,14 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -2581,11 +2875,14 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -2601,11 +2898,14 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -2621,11 +2921,14 @@
       <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -2641,11 +2944,14 @@
       <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>218</v>
       </c>
@@ -2661,11 +2967,14 @@
       <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -2681,11 +2990,14 @@
       <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -2701,11 +3013,14 @@
       <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -2721,11 +3036,14 @@
       <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>221</v>
       </c>
@@ -2741,11 +3059,14 @@
       <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -2761,11 +3082,14 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -2781,8 +3105,11 @@
       <c r="E20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -2798,8 +3125,11 @@
       <c r="E21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -2815,8 +3145,11 @@
       <c r="E22" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -2832,8 +3165,11 @@
       <c r="E23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>227</v>
       </c>
@@ -2849,8 +3185,11 @@
       <c r="E24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>293</v>
       </c>
@@ -2866,8 +3205,11 @@
       <c r="E25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -2883,8 +3225,11 @@
       <c r="E26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>229</v>
       </c>
@@ -2900,8 +3245,11 @@
       <c r="E27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>230</v>
       </c>
@@ -2917,8 +3265,11 @@
       <c r="E28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -2934,8 +3285,11 @@
       <c r="E29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>232</v>
       </c>
@@ -2951,8 +3305,11 @@
       <c r="E30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>233</v>
       </c>
@@ -2968,8 +3325,11 @@
       <c r="E31" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>234</v>
       </c>
@@ -2985,8 +3345,11 @@
       <c r="E32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>235</v>
       </c>
@@ -3002,8 +3365,11 @@
       <c r="E33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>236</v>
       </c>
@@ -3019,8 +3385,11 @@
       <c r="E34" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>237</v>
       </c>
@@ -3036,8 +3405,11 @@
       <c r="E35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>238</v>
       </c>
@@ -3053,8 +3425,11 @@
       <c r="E36" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>239</v>
       </c>
@@ -3070,8 +3445,11 @@
       <c r="E37" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>240</v>
       </c>
@@ -3087,8 +3465,11 @@
       <c r="E38" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>241</v>
       </c>
@@ -3104,8 +3485,11 @@
       <c r="E39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>242</v>
       </c>
@@ -3121,8 +3505,11 @@
       <c r="E40" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -3138,8 +3525,11 @@
       <c r="E41" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>244</v>
       </c>
@@ -3155,8 +3545,11 @@
       <c r="E42" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>245</v>
       </c>
@@ -3172,8 +3565,11 @@
       <c r="E43" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>246</v>
       </c>
@@ -3189,8 +3585,11 @@
       <c r="E44" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>247</v>
       </c>
@@ -3206,8 +3605,11 @@
       <c r="E45" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>248</v>
       </c>
@@ -3223,8 +3625,11 @@
       <c r="E46" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>249</v>
       </c>
@@ -3240,8 +3645,11 @@
       <c r="E47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -3257,8 +3665,11 @@
       <c r="E48" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>251</v>
       </c>
@@ -3274,8 +3685,11 @@
       <c r="E49" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>252</v>
       </c>
@@ -3291,8 +3705,11 @@
       <c r="E50" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>253</v>
       </c>
@@ -3308,8 +3725,11 @@
       <c r="E51" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -3325,8 +3745,11 @@
       <c r="E52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -3342,8 +3765,11 @@
       <c r="E53" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -3359,8 +3785,11 @@
       <c r="E54" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>257</v>
       </c>
@@ -3376,8 +3805,11 @@
       <c r="E55" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>258</v>
       </c>
@@ -3393,8 +3825,11 @@
       <c r="E56" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>259</v>
       </c>
@@ -3410,8 +3845,11 @@
       <c r="E57" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>260</v>
       </c>
@@ -3427,8 +3865,11 @@
       <c r="E58" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>261</v>
       </c>
@@ -3444,8 +3885,11 @@
       <c r="E59" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>262</v>
       </c>
@@ -3461,8 +3905,11 @@
       <c r="E60" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -3478,8 +3925,11 @@
       <c r="E61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>264</v>
       </c>
@@ -3495,8 +3945,11 @@
       <c r="E62" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>265</v>
       </c>
@@ -3512,8 +3965,11 @@
       <c r="E63" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>294</v>
       </c>
@@ -3529,8 +3985,11 @@
       <c r="E64" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>266</v>
       </c>
@@ -3546,8 +4005,11 @@
       <c r="E65" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>267</v>
       </c>
@@ -3563,8 +4025,11 @@
       <c r="E66" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -3580,8 +4045,11 @@
       <c r="E67" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>269</v>
       </c>
@@ -3597,8 +4065,11 @@
       <c r="E68" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -3614,8 +4085,11 @@
       <c r="E69" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>271</v>
       </c>
@@ -3631,8 +4105,11 @@
       <c r="E70" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>272</v>
       </c>
@@ -3648,8 +4125,11 @@
       <c r="E71" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>273</v>
       </c>
@@ -3665,8 +4145,11 @@
       <c r="E72" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>274</v>
       </c>
@@ -3682,8 +4165,11 @@
       <c r="E73" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>275</v>
       </c>
@@ -3699,8 +4185,11 @@
       <c r="E74" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>295</v>
       </c>
@@ -3716,8 +4205,11 @@
       <c r="E75" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>276</v>
       </c>
@@ -3733,8 +4225,11 @@
       <c r="E76" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -3750,8 +4245,11 @@
       <c r="E77" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>278</v>
       </c>
@@ -3767,8 +4265,11 @@
       <c r="E78" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>279</v>
       </c>
@@ -3784,8 +4285,11 @@
       <c r="E79" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>280</v>
       </c>
@@ -3801,8 +4305,11 @@
       <c r="E80" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>281</v>
       </c>
@@ -3818,8 +4325,11 @@
       <c r="E81" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -3835,8 +4345,11 @@
       <c r="E82" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>283</v>
       </c>
@@ -3852,8 +4365,11 @@
       <c r="E83" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>284</v>
       </c>
@@ -3869,8 +4385,11 @@
       <c r="E84" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>285</v>
       </c>
@@ -3886,8 +4405,11 @@
       <c r="E85" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>286</v>
       </c>
@@ -3903,8 +4425,11 @@
       <c r="E86" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>287</v>
       </c>
@@ -3920,8 +4445,11 @@
       <c r="E87" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>288</v>
       </c>
@@ -3937,8 +4465,11 @@
       <c r="E88" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>289</v>
       </c>
@@ -3954,8 +4485,11 @@
       <c r="E89" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -3970,10 +4504,14 @@
       </c>
       <c r="E90" t="s">
         <v>205</v>
+      </c>
+      <c r="F90" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F8EA5-5EA2-4D4B-99A2-2149EA467E54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545473CF-A48A-4C8E-ACA3-D18B74EAD0F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="384">
-  <si>
-    <t>곤색;담청색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="466">
   <si>
     <t>신하의 색이다.</t>
   </si>
@@ -40,15 +36,9 @@
     <t>236; 212; 55</t>
   </si>
   <si>
-    <t>초록색</t>
-  </si>
-  <si>
     <t>녹황색</t>
   </si>
   <si>
-    <t>누런색</t>
-  </si>
-  <si>
     <t>으악</t>
   </si>
   <si>
@@ -59,9 +49,6 @@
   </si>
   <si>
     <t>남색</t>
-  </si>
-  <si>
-    <t>녹색</t>
   </si>
   <si>
     <t>#ccdb00</t>
@@ -128,10 +115,6 @@
     <t>252; 147; 57</t>
   </si>
   <si>
-    <t>자황색
-(赭⿈⾊</t>
-  </si>
-  <si>
     <t>#bf8142</t>
   </si>
   <si>
@@ -211,10 +194,6 @@
     <t>46; 146; 213</t>
   </si>
   <si>
-    <t>자황색
-(紫⿈⾊)</t>
-  </si>
-  <si>
     <t>#73b2d9</t>
   </si>
   <si>
@@ -1755,240 +1734,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">자황색
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>赭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⿈⾊</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">자황색
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>紫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⿈⾊)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>감색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>紺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⾊)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">청자색
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(⾭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>紫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⾊)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">호박색
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>琥珀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⾊)</t>
-    </r>
-  </si>
-  <si>
     <t>Formular Guide 7404 C</t>
   </si>
   <si>
@@ -2139,10 +1884,6 @@
     <t>Extended Gamut 7539 XGC</t>
   </si>
   <si>
-    <t>Formular Guide Cool Gray
-6 C</t>
-  </si>
-  <si>
     <t>Formular Guide 4292 C</t>
   </si>
   <si>
@@ -2252,6 +1993,375 @@
   </si>
   <si>
     <t>Formular Guide 7646 C</t>
+  </si>
+  <si>
+    <t>빨강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 빨강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 빨강; 다홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁한 적갈색; 벽돌색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진한 노랑 주황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연한 갈색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진한 노랑 분홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선명한 빨강 주황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 주황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 주황; 당근색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 자주; 꽃분홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 빨강; 연지색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자줏빛 분홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진한 분홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연한 분홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐린 자주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁한 빨강; 팥색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분홍; 로즈 핑크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 갈색; 적갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연한 노랑 주황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랑; 개나리색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰 노랑; 상아색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐린 노란 연두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐린 노랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진한 노랑; 노른자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랑; 바나나색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐린 노랑; 겨자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연한 노랑 분홍; 살구색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 황갈색; 황토색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란 갈색; 황갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란 분홍; 세먼 핑크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁한 노랑 주황; 가죽색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랑; 밝은 남색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선명한 파랑; 시안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연한 파랑; 하늘색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 파랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 파랑; 인디고 블루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁한 보라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁한 보라; 포도색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선명한 파랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 회청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐린 파랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 파랑; 시안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연한 청록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 보라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선명한 초록; 에메랄드그린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹연두; 연두색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진한 연두; 잔디색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">연한 연두 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진한 초록; 상록수색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 초록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐린 초록; 옥색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁한 초록; 피콕 그린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 초록; 에메랄드 그린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁한 초록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진한 보라; 진보라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선명한 보라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연한 보라; 샐비어 블루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐린 보라; 라일락색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐린 보라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑갈색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁한 분홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하양; 흰색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하양; 흰눈색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란 하양; 우유색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 회황색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 회색; 비둘기색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회보라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 회색; 쥐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자황색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자황색(赭⿈⾊</t>
+  </si>
+  <si>
+    <t>자황색(紫⿈⾊)</t>
+  </si>
+  <si>
+    <t>Formular Guide Cool Gray6 C</t>
+  </si>
+  <si>
+    <t>황색; 유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청색; 벽색; 천청색; 담청색; 취람색; 양람색; 벽청색; 청현색; 감색; 남색; 연람색; 벽람색; 숙람색; 군청색; 녹색; 명록색; 유록색; 유청색; 연두색; 춘유록색; 청록색; 진초록색; 초록색; 흑록색; 비색; 옥색; 삼청색; 뇌록색; 양록색; 하엽색; 흑청색; 청벽색</t>
+  </si>
+  <si>
+    <t>백색; 흑색; 회색; 구색; 치색; 연지회색; 설백색; 유백색; 지백색; 소색</t>
+  </si>
+  <si>
+    <t>자색; 자주색; 보라색; 홍람색; 포도색; 청자색; 벽자색; 회보라색; 담자색; 다자색; 적자색</t>
+  </si>
+  <si>
+    <t>적색; 홍색; 적토색; 휴색; 갈색; 호박색; 추향색; 육색; 주색; 주홍색; 담주색; 진홍색; 선홍색; 연지색; 훈색; 진분홍색; 분홍색; 연분홍색; 장단색; 석간주색; 흑홍색</t>
   </si>
 </sst>
 </file>
@@ -2632,1881 +2742,2143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="28.75" customWidth="1"/>
-    <col min="7" max="8" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="52.875" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>461</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>288</v>
+      </c>
+      <c r="G4" t="s">
+        <v>461</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>289</v>
+      </c>
+      <c r="G5" t="s">
+        <v>461</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
+        <v>290</v>
+      </c>
+      <c r="G6" t="s">
+        <v>461</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>291</v>
+      </c>
+      <c r="G7" t="s">
+        <v>461</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>398</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>292</v>
+      </c>
+      <c r="G8" t="s">
+        <v>461</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>403</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>293</v>
+      </c>
+      <c r="G9" t="s">
+        <v>461</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>294</v>
+      </c>
+      <c r="G10" t="s">
+        <v>461</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>295</v>
+      </c>
+      <c r="G11" t="s">
+        <v>461</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>405</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>296</v>
+      </c>
+      <c r="G12" t="s">
+        <v>461</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>399</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>297</v>
+      </c>
+      <c r="G13" t="s">
+        <v>461</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>406</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>298</v>
+      </c>
+      <c r="G14" t="s">
+        <v>461</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>454</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>310</v>
+        <v>299</v>
+      </c>
+      <c r="G15" t="s">
+        <v>461</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>408</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>461</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>409</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>311</v>
+        <v>300</v>
+      </c>
+      <c r="G17" t="s">
+        <v>462</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>410</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>312</v>
+        <v>301</v>
+      </c>
+      <c r="G18" t="s">
+        <v>462</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>411</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>313</v>
+        <v>302</v>
+      </c>
+      <c r="G19" t="s">
+        <v>462</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>314</v>
+        <v>303</v>
+      </c>
+      <c r="G20" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>421</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="G21" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>422</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>316</v>
+        <v>305</v>
+      </c>
+      <c r="G22" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>412</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>306</v>
+      </c>
+      <c r="G23" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>413</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>307</v>
+      </c>
+      <c r="G24" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>293</v>
+        <v>455</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>414</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>308</v>
+      </c>
+      <c r="G25" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>414</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>320</v>
+        <v>309</v>
+      </c>
+      <c r="G26" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>321</v>
+        <v>310</v>
+      </c>
+      <c r="G27" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>415</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>322</v>
+        <v>311</v>
+      </c>
+      <c r="G28" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>323</v>
+        <v>312</v>
+      </c>
+      <c r="G29" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>414</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>324</v>
+        <v>313</v>
+      </c>
+      <c r="G30" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>423</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>325</v>
+        <v>314</v>
+      </c>
+      <c r="G31" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" t="s">
+        <v>424</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
+        <v>427</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
+        <v>428</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>234</v>
       </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="B38" t="s">
+        <v>430</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" t="s">
+        <v>423</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" t="s">
+        <v>431</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>324</v>
+      </c>
+      <c r="G41" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" t="s">
+        <v>432</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" t="s">
+        <v>417</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G43" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" t="s">
+        <v>433</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>236</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G45" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" t="s">
+        <v>435</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G46" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G47" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" t="s">
+        <v>419</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G48" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" t="s">
+        <v>445</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" t="s">
+        <v>453</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" t="s">
+        <v>450</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>243</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>449</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" t="s">
+        <v>460</v>
+      </c>
+      <c r="G52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" t="s">
+        <v>452</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" t="s">
+        <v>451</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>245</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" t="s">
+        <v>446</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>246</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" t="s">
+        <v>447</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s">
+        <v>447</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>248</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>448</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>436</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
+        <v>436</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>251</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>437</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>252</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G61" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" t="s">
+        <v>438</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="G62" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" t="s">
+        <v>415</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G63" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>456</v>
+      </c>
+      <c r="B64" t="s">
+        <v>439</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>255</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" t="s">
+        <v>440</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>256</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G65" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" t="s">
+        <v>441</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>257</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="G66" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" t="s">
+        <v>442</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" t="s">
-        <v>137</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G67" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" t="s">
+        <v>443</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>259</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="G68" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" t="s">
+        <v>444</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" t="s">
+        <v>157</v>
+      </c>
+      <c r="F69" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="G69" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" t="s">
+        <v>372</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="G70" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" t="s">
-        <v>145</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="G71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" t="s">
+        <v>375</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>263</v>
-      </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>146</v>
-      </c>
-      <c r="E61" t="s">
-        <v>147</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G72" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>264</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="G73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" t="s">
+        <v>377</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" t="s">
-        <v>151</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="G74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>457</v>
+      </c>
+      <c r="B75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>294</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>152</v>
-      </c>
-      <c r="E64" t="s">
-        <v>153</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="G76" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" t="s">
+        <v>380</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>266</v>
-      </c>
-      <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" t="s">
-        <v>155</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="G77" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>272</v>
+      </c>
+      <c r="B78" t="s">
+        <v>381</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" t="s">
+        <v>175</v>
+      </c>
+      <c r="F78" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>267</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
-        <v>156</v>
-      </c>
-      <c r="E66" t="s">
-        <v>157</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G78" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>273</v>
+      </c>
+      <c r="B79" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>268</v>
-      </c>
-      <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" t="s">
-        <v>159</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="G79" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>274</v>
+      </c>
+      <c r="B80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>269</v>
-      </c>
-      <c r="B68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" t="s">
-        <v>160</v>
-      </c>
-      <c r="E68" t="s">
-        <v>161</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="G80" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" t="s">
+        <v>181</v>
+      </c>
+      <c r="F81" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>270</v>
-      </c>
-      <c r="B69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" t="s">
-        <v>163</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="G81" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>271</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" t="s">
-        <v>165</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="G82" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" t="s">
+        <v>185</v>
+      </c>
+      <c r="F83" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>272</v>
-      </c>
-      <c r="B71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" t="s">
-        <v>167</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G83" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>278</v>
+      </c>
+      <c r="B84" t="s">
+        <v>386</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>273</v>
-      </c>
-      <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" t="s">
-        <v>169</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G84" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" t="s">
+        <v>387</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" t="s">
+        <v>189</v>
+      </c>
+      <c r="F85" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>274</v>
-      </c>
-      <c r="B73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E73" t="s">
-        <v>171</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="G85" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" t="s">
+        <v>391</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>190</v>
+      </c>
+      <c r="E86" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>275</v>
-      </c>
-      <c r="B74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" t="s">
-        <v>172</v>
-      </c>
-      <c r="E74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G86" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>281</v>
+      </c>
+      <c r="B87" t="s">
+        <v>388</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" t="s">
+        <v>193</v>
+      </c>
+      <c r="F87" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>295</v>
-      </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" t="s">
-        <v>174</v>
-      </c>
-      <c r="E75" t="s">
-        <v>175</v>
-      </c>
-      <c r="F75" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>276</v>
-      </c>
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" t="s">
-        <v>176</v>
-      </c>
-      <c r="E76" t="s">
-        <v>177</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="G87" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>282</v>
+      </c>
+      <c r="B88" t="s">
+        <v>374</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>277</v>
-      </c>
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" t="s">
-        <v>178</v>
-      </c>
-      <c r="E77" t="s">
-        <v>179</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="G88" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>283</v>
+      </c>
+      <c r="B89" t="s">
+        <v>392</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" t="s">
+        <v>197</v>
+      </c>
+      <c r="F89" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>278</v>
-      </c>
-      <c r="B78" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" t="s">
-        <v>180</v>
-      </c>
-      <c r="E78" t="s">
-        <v>181</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G89" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" t="s">
+        <v>390</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>279</v>
-      </c>
-      <c r="B79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" t="s">
-        <v>182</v>
-      </c>
-      <c r="E79" t="s">
-        <v>183</v>
-      </c>
-      <c r="F79" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>280</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" t="s">
-        <v>185</v>
-      </c>
-      <c r="F80" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>281</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" t="s">
-        <v>186</v>
-      </c>
-      <c r="E81" t="s">
-        <v>187</v>
-      </c>
-      <c r="F81" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>282</v>
-      </c>
-      <c r="B82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" t="s">
-        <v>188</v>
-      </c>
-      <c r="E82" t="s">
-        <v>189</v>
-      </c>
-      <c r="F82" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>283</v>
-      </c>
-      <c r="B83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" t="s">
-        <v>190</v>
-      </c>
-      <c r="E83" t="s">
-        <v>191</v>
-      </c>
-      <c r="F83" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>284</v>
-      </c>
-      <c r="B84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>192</v>
-      </c>
-      <c r="E84" t="s">
-        <v>193</v>
-      </c>
-      <c r="F84" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>285</v>
-      </c>
-      <c r="B85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" t="s">
-        <v>194</v>
-      </c>
-      <c r="E85" t="s">
-        <v>195</v>
-      </c>
-      <c r="F85" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>286</v>
-      </c>
-      <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" t="s">
-        <v>196</v>
-      </c>
-      <c r="E86" t="s">
-        <v>197</v>
-      </c>
-      <c r="F86" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>287</v>
-      </c>
-      <c r="B87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>198</v>
-      </c>
-      <c r="E87" t="s">
-        <v>199</v>
-      </c>
-      <c r="F87" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>288</v>
-      </c>
-      <c r="B88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" t="s">
-        <v>200</v>
-      </c>
-      <c r="E88" t="s">
-        <v>201</v>
-      </c>
-      <c r="F88" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>289</v>
-      </c>
-      <c r="B89" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" t="s">
-        <v>202</v>
-      </c>
-      <c r="E89" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>290</v>
-      </c>
-      <c r="B90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" t="s">
-        <v>204</v>
-      </c>
-      <c r="E90" t="s">
-        <v>205</v>
-      </c>
-      <c r="F90" t="s">
-        <v>383</v>
+      <c r="G90" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545473CF-A48A-4C8E-ACA3-D18B74EAD0F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252BFA52-0BAF-41AD-9090-788D7DFACA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="448">
   <si>
     <t>신하의 색이다.</t>
   </si>
@@ -36,9 +36,6 @@
     <t>236; 212; 55</t>
   </si>
   <si>
-    <t>녹황색</t>
-  </si>
-  <si>
     <t>으악</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>229; 186; 105</t>
-  </si>
-  <si>
-    <t>남색</t>
   </si>
   <si>
     <t>#ccdb00</t>
@@ -67,9 +61,6 @@
     <t>242; 234; 178</t>
   </si>
   <si>
-    <t>황색</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -79,36 +70,24 @@
     <t>228; 234; 125</t>
   </si>
   <si>
-    <t>유황색</t>
-  </si>
-  <si>
     <t>#e4c043</t>
   </si>
   <si>
     <t>228; 192; 67</t>
   </si>
   <si>
-    <t>명황색</t>
-  </si>
-  <si>
     <t>#f7a65d</t>
   </si>
   <si>
     <t>247; 166; 93</t>
   </si>
   <si>
-    <t>담황색</t>
-  </si>
-  <si>
     <t>#d9c78a</t>
   </si>
   <si>
     <t>217; 199; 138</t>
   </si>
   <si>
-    <t>송화색</t>
-  </si>
-  <si>
     <t>#fc9339</t>
   </si>
   <si>
@@ -121,52 +100,34 @@
     <t>191; 129; 66</t>
   </si>
   <si>
-    <t>행황색</t>
-  </si>
-  <si>
     <t>#d7b858</t>
   </si>
   <si>
     <t>215; 184; 88</t>
   </si>
   <si>
-    <t>두록색</t>
-  </si>
-  <si>
     <t>#a37a46</t>
   </si>
   <si>
     <t>163; 122; 70</t>
   </si>
   <si>
-    <t>적황색</t>
-  </si>
-  <si>
     <t>#e9cc56</t>
   </si>
   <si>
     <t>233; 204; 86</t>
   </si>
   <si>
-    <t>토황색</t>
-  </si>
-  <si>
     <t>#de9e91</t>
   </si>
   <si>
     <t>222; 158; 145</t>
   </si>
   <si>
-    <t>지황색</t>
-  </si>
-  <si>
     <t>#b6987e</t>
   </si>
   <si>
     <t>182; 152; 126</t>
-  </si>
-  <si>
-    <t>토색</t>
   </si>
   <si>
     <t>#000000</t>
@@ -176,18 +137,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>치자색</t>
-  </si>
-  <si>
     <t>#354a8d</t>
   </si>
   <si>
     <t>53; 74; 141</t>
   </si>
   <si>
-    <t>홍황색</t>
-  </si>
-  <si>
     <t>#2e92d5</t>
   </si>
   <si>
@@ -198,9 +153,6 @@
   </si>
   <si>
     <t>115; 178; 217</t>
-  </si>
-  <si>
-    <t>금색</t>
   </si>
   <si>
     <t>#3d8fb5</t>
@@ -2337,12 +2289,6 @@
   <si>
     <t>호박색</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자황색(赭⿈⾊</t>
-  </si>
-  <si>
-    <t>자황색(紫⿈⾊)</t>
   </si>
   <si>
     <t>Formular Guide Cool Gray6 C</t>
@@ -2740,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2754,12 +2700,12 @@
     <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2771,2114 +2717,2057 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
         <v>285</v>
       </c>
-      <c r="G1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>201</v>
       </c>
-      <c r="B2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G2" t="s">
-        <v>461</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>287</v>
+      </c>
+      <c r="G20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>202</v>
       </c>
-      <c r="B3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>203</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B22" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" t="s">
         <v>396</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>290</v>
+      </c>
+      <c r="G23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" t="s">
         <v>397</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" t="s">
-        <v>461</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>439</v>
+      </c>
+      <c r="B25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>297</v>
+      </c>
+      <c r="G30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" t="s">
         <v>407</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" t="s">
-        <v>461</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G9" t="s">
-        <v>461</v>
-      </c>
-      <c r="H9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" t="s">
-        <v>461</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>295</v>
-      </c>
-      <c r="G11" t="s">
-        <v>461</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>405</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>296</v>
-      </c>
-      <c r="G12" t="s">
-        <v>461</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G13" t="s">
-        <v>461</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>212</v>
       </c>
-      <c r="B14" t="s">
-        <v>406</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" t="s">
-        <v>461</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>454</v>
-      </c>
-      <c r="B15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B32" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
         <v>299</v>
       </c>
-      <c r="G15" t="s">
-        <v>461</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>461</v>
-      </c>
-      <c r="H16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" t="s">
-        <v>409</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" t="s">
-        <v>462</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>410</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>301</v>
-      </c>
-      <c r="G18" t="s">
-        <v>462</v>
-      </c>
-      <c r="H18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>411</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" t="s">
-        <v>462</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>421</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G21" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" t="s">
-        <v>422</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" t="s">
-        <v>306</v>
-      </c>
-      <c r="G23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" t="s">
-        <v>413</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" t="s">
-        <v>307</v>
-      </c>
-      <c r="G24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>455</v>
-      </c>
-      <c r="B25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" t="s">
-        <v>308</v>
-      </c>
-      <c r="G25" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" t="s">
-        <v>414</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>309</v>
-      </c>
-      <c r="G26" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27" t="s">
-        <v>415</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" t="s">
-        <v>310</v>
-      </c>
-      <c r="G27" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" t="s">
-        <v>415</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" t="s">
-        <v>311</v>
-      </c>
-      <c r="G28" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>312</v>
-      </c>
-      <c r="G29" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" t="s">
-        <v>414</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>313</v>
-      </c>
-      <c r="G30" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>227</v>
-      </c>
-      <c r="B31" t="s">
-        <v>423</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" t="s">
-        <v>314</v>
-      </c>
-      <c r="G31" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B32" t="s">
-        <v>424</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" t="s">
-        <v>315</v>
-      </c>
       <c r="G32" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B33" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="G36" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="G37" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="G38" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B39" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="G40" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B41" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B42" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="G42" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="G43" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="G44" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="G46" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G47" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B48" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="G48" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s">
+        <v>429</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" t="s">
         <v>445</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" t="s">
-        <v>332</v>
-      </c>
-      <c r="G49" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F50" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="G50" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G51" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B52" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="G52" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G53" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="G54" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="G55" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="G56" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F57" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="G57" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F58" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="G58" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F59" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="G59" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="G60" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="G61" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F62" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="G62" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G63" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="G64" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F65" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="G65" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F66" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G66" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F67" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="G67" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F68" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="G68" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B69" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F69" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="G69" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B70" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E70" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F70" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="G70" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B71" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F71" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="G71" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B72" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F72" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G72" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B73" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F73" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="G73" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B74" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F74" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="G74" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F75" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G75" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B76" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F76" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="G76" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F77" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="G77" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F78" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="G78" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="G79" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="G80" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B81" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F81" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="G81" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B82" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F82" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="G82" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F83" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="G83" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B84" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E84" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F84" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="G84" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F85" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="G85" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B86" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E86" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F86" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G86" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B87" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E87" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F87" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G87" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E88" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F88" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G88" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B89" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E89" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F89" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="G89" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B90" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E90" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F90" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="G90" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252BFA52-0BAF-41AD-9090-788D7DFACA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8BF23F-62D4-4B72-850C-A7F64C192E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="453">
   <si>
     <t>신하의 색이다.</t>
   </si>
@@ -2308,6 +2308,26 @@
   </si>
   <si>
     <t>적색; 홍색; 적토색; 휴색; 갈색; 호박색; 추향색; 육색; 주색; 주홍색; 담주색; 진홍색; 선홍색; 연지색; 훈색; 진분홍색; 분홍색; 연분홍색; 장단색; 석간주색; 흑홍색</t>
+  </si>
+  <si>
+    <t>유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽색; 천청색; 담청색; 취람색; 양람색; 벽청색; 청현색; 감색; 남색; 연람색; 벽람색; 숙람색; 군청색; 녹색; 명록색; 유록색; 유청색; 연두색; 춘유록색; 청록색; 진초록색; 초록색; 흑록색; 비색; 옥색; 삼청색; 뇌록색; 양록색; 하엽색; 흑청색; 청벽색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑색; 회색; 구색; 치색; 연지회색; 설백색; 유백색; 지백색; 소색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주색; 보라색; 홍람색; 포도색; 청자색; 벽자색; 회보라색; 담자색; 다자색; 적자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍색; 적토색; 휴색; 갈색; 호박색; 추향색; 육색; 주색; 주홍색; 담주색; 진홍색; 선홍색; 연지색; 훈색; 진분홍색; 분홍색; 연분홍색; 장단색; 석간주색; 흑홍색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2689,7 +2709,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H19"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2720,7 +2740,7 @@
         <v>269</v>
       </c>
       <c r="G1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3088,7 +3108,7 @@
         <v>284</v>
       </c>
       <c r="G17" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3824,7 +3844,7 @@
         <v>316</v>
       </c>
       <c r="G49" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -4054,7 +4074,7 @@
         <v>325</v>
       </c>
       <c r="G59" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -4307,7 +4327,7 @@
         <v>336</v>
       </c>
       <c r="G70" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8BF23F-62D4-4B72-850C-A7F64C192E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACEEC66-01EE-46FF-8BCD-BED6694DC79B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="454">
   <si>
     <t>신하의 색이다.</t>
   </si>
@@ -2294,40 +2294,39 @@
     <t>Formular Guide Cool Gray6 C</t>
   </si>
   <si>
-    <t>황색; 유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청색; 벽색; 천청색; 담청색; 취람색; 양람색; 벽청색; 청현색; 감색; 남색; 연람색; 벽람색; 숙람색; 군청색; 녹색; 명록색; 유록색; 유청색; 연두색; 춘유록색; 청록색; 진초록색; 초록색; 흑록색; 비색; 옥색; 삼청색; 뇌록색; 양록색; 하엽색; 흑청색; 청벽색</t>
-  </si>
-  <si>
-    <t>백색; 흑색; 회색; 구색; 치색; 연지회색; 설백색; 유백색; 지백색; 소색</t>
-  </si>
-  <si>
-    <t>자색; 자주색; 보라색; 홍람색; 포도색; 청자색; 벽자색; 회보라색; 담자색; 다자색; 적자색</t>
-  </si>
-  <si>
-    <t>적색; 홍색; 적토색; 휴색; 갈색; 호박색; 추향색; 육색; 주색; 주홍색; 담주색; 진홍색; 선홍색; 연지색; 훈색; 진분홍색; 분홍색; 연분홍색; 장단색; 석간주색; 흑홍색</t>
-  </si>
-  <si>
     <t>유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벽색; 천청색; 담청색; 취람색; 양람색; 벽청색; 청현색; 감색; 남색; 연람색; 벽람색; 숙람색; 군청색; 녹색; 명록색; 유록색; 유청색; 연두색; 춘유록색; 청록색; 진초록색; 초록색; 흑록색; 비색; 옥색; 삼청색; 뇌록색; 양록색; 하엽색; 흑청색; 청벽색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑색; 회색; 구색; 치색; 연지회색; 설백색; 유백색; 지백색; 소색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주색; 보라색; 홍람색; 포도색; 청자색; 벽자색; 회보라색; 담자색; 다자색; 적자색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍색; 적토색; 휴색; 갈색; 호박색; 추향색; 육색; 주색; 주홍색; 담주색; 진홍색; 선홍색; 연지색; 훈색; 진분홍색; 분홍색; 연분홍색; 장단색; 석간주색; 흑홍색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽색;천청색;담청색;취람색;양람색;벽청색;청현색;감색;남색;연람색;벽람색;숙람색;군청색;녹색;명록색;유록색;유청색;연두색;춘유록색;청록색;진초록색;초록색;흑록색;비색;옥색;삼청색;뇌록색;양록색;하엽색;흑청색;청벽색</t>
+  </si>
+  <si>
+    <t>청색;벽색;천청색;담청색;취람색;양람색;벽청색;청현색;감색;남색;연람색;벽람색;숙람색;군청색;녹색;명록색;유록색;유청색;연두색;춘유록색;청록색;진초록색;초록색;흑록색;비색;옥색;삼청색;뇌록색;양록색;하엽색;흑청색;청벽색</t>
+  </si>
+  <si>
+    <t>흑색;회색;구색;치색;연지회색;설백색;유백색;지백색;소색</t>
+  </si>
+  <si>
+    <t>백색;흑색;회색;구색;치색;연지회색;설백색;유백색;지백색;소색</t>
+  </si>
+  <si>
+    <t>자주색;보라색;홍람색;포도색;청자색;벽자색;회보라색;담자색;다자색;적자색</t>
+  </si>
+  <si>
+    <t>자색;자주색;보라색;홍람색;포도색;청자색;벽자색;회보라색;담자색;다자색;적자색</t>
+  </si>
+  <si>
+    <t>홍색;적토색;휴색;갈색;호박색;추향색;육색;주색;주홍색;담주색;진홍색;선홍색;연지색;훈색;진분홍색;분홍색;연분홍색;장단색;석간주색;흑홍색</t>
+  </si>
+  <si>
+    <t>적색;홍색;적토색;휴색;갈색;호박색;추향색;육색;주색;주홍색;담주색;진홍색;선홍색;연지색;훈색;진분홍색;분홍색;연분홍색;장단색;석간주색;흑홍색</t>
   </si>
 </sst>
 </file>
@@ -2709,7 +2708,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2740,7 +2739,7 @@
         <v>269</v>
       </c>
       <c r="G1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2763,7 +2762,7 @@
         <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2786,7 +2785,7 @@
         <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2809,7 +2808,7 @@
         <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2832,7 +2831,7 @@
         <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2855,7 +2854,7 @@
         <v>274</v>
       </c>
       <c r="G6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2878,7 +2877,7 @@
         <v>275</v>
       </c>
       <c r="G7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2901,7 +2900,7 @@
         <v>276</v>
       </c>
       <c r="G8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2924,7 +2923,7 @@
         <v>277</v>
       </c>
       <c r="G9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2947,7 +2946,7 @@
         <v>278</v>
       </c>
       <c r="G10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2970,7 +2969,7 @@
         <v>279</v>
       </c>
       <c r="G11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2993,7 +2992,7 @@
         <v>280</v>
       </c>
       <c r="G12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3016,7 +3015,7 @@
         <v>281</v>
       </c>
       <c r="G13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3039,7 +3038,7 @@
         <v>282</v>
       </c>
       <c r="G14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3062,7 +3061,7 @@
         <v>283</v>
       </c>
       <c r="G15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3085,7 +3084,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3108,7 +3107,7 @@
         <v>284</v>
       </c>
       <c r="G17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3131,7 +3130,7 @@
         <v>285</v>
       </c>
       <c r="G18" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3154,7 +3153,7 @@
         <v>286</v>
       </c>
       <c r="G19" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3177,7 +3176,7 @@
         <v>287</v>
       </c>
       <c r="G20" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3200,7 +3199,7 @@
         <v>288</v>
       </c>
       <c r="G21" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3223,7 +3222,7 @@
         <v>289</v>
       </c>
       <c r="G22" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3246,7 +3245,7 @@
         <v>290</v>
       </c>
       <c r="G23" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3269,7 +3268,7 @@
         <v>291</v>
       </c>
       <c r="G24" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3292,7 +3291,7 @@
         <v>292</v>
       </c>
       <c r="G25" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3315,7 +3314,7 @@
         <v>293</v>
       </c>
       <c r="G26" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3338,7 +3337,7 @@
         <v>294</v>
       </c>
       <c r="G27" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3361,7 +3360,7 @@
         <v>295</v>
       </c>
       <c r="G28" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3384,7 +3383,7 @@
         <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3407,7 +3406,7 @@
         <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -3430,7 +3429,7 @@
         <v>298</v>
       </c>
       <c r="G31" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -3453,7 +3452,7 @@
         <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3476,7 +3475,7 @@
         <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3499,7 +3498,7 @@
         <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3522,7 +3521,7 @@
         <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -3545,7 +3544,7 @@
         <v>303</v>
       </c>
       <c r="G36" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3568,7 +3567,7 @@
         <v>304</v>
       </c>
       <c r="G37" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3591,7 +3590,7 @@
         <v>305</v>
       </c>
       <c r="G38" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3614,7 +3613,7 @@
         <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3637,7 +3636,7 @@
         <v>307</v>
       </c>
       <c r="G40" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3660,7 +3659,7 @@
         <v>308</v>
       </c>
       <c r="G41" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3683,7 +3682,7 @@
         <v>309</v>
       </c>
       <c r="G42" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3706,7 +3705,7 @@
         <v>310</v>
       </c>
       <c r="G43" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -3729,7 +3728,7 @@
         <v>311</v>
       </c>
       <c r="G44" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3752,7 +3751,7 @@
         <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3775,7 +3774,7 @@
         <v>313</v>
       </c>
       <c r="G46" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3798,7 +3797,7 @@
         <v>314</v>
       </c>
       <c r="G47" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3821,7 +3820,7 @@
         <v>315</v>
       </c>
       <c r="G48" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -3844,7 +3843,7 @@
         <v>316</v>
       </c>
       <c r="G49" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -3867,7 +3866,7 @@
         <v>317</v>
       </c>
       <c r="G50" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3890,7 +3889,7 @@
         <v>318</v>
       </c>
       <c r="G51" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -3913,7 +3912,7 @@
         <v>442</v>
       </c>
       <c r="G52" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -3936,7 +3935,7 @@
         <v>319</v>
       </c>
       <c r="G53" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -3959,7 +3958,7 @@
         <v>320</v>
       </c>
       <c r="G54" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -3982,7 +3981,7 @@
         <v>321</v>
       </c>
       <c r="G55" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -4005,7 +4004,7 @@
         <v>322</v>
       </c>
       <c r="G56" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -4028,7 +4027,7 @@
         <v>323</v>
       </c>
       <c r="G57" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -4051,7 +4050,7 @@
         <v>324</v>
       </c>
       <c r="G58" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -4074,7 +4073,7 @@
         <v>325</v>
       </c>
       <c r="G59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -4097,7 +4096,7 @@
         <v>326</v>
       </c>
       <c r="G60" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -4120,7 +4119,7 @@
         <v>327</v>
       </c>
       <c r="G61" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -4143,7 +4142,7 @@
         <v>328</v>
       </c>
       <c r="G62" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -4166,7 +4165,7 @@
         <v>329</v>
       </c>
       <c r="G63" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -4189,7 +4188,7 @@
         <v>330</v>
       </c>
       <c r="G64" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4212,7 +4211,7 @@
         <v>331</v>
       </c>
       <c r="G65" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4235,7 +4234,7 @@
         <v>332</v>
       </c>
       <c r="G66" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4258,7 +4257,7 @@
         <v>333</v>
       </c>
       <c r="G67" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4281,7 +4280,7 @@
         <v>334</v>
       </c>
       <c r="G68" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -4304,7 +4303,7 @@
         <v>335</v>
       </c>
       <c r="G69" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -4350,7 +4349,7 @@
         <v>337</v>
       </c>
       <c r="G71" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -4373,7 +4372,7 @@
         <v>338</v>
       </c>
       <c r="G72" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -4396,7 +4395,7 @@
         <v>339</v>
       </c>
       <c r="G73" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -4419,7 +4418,7 @@
         <v>340</v>
       </c>
       <c r="G74" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -4442,7 +4441,7 @@
         <v>278</v>
       </c>
       <c r="G75" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -4465,7 +4464,7 @@
         <v>341</v>
       </c>
       <c r="G76" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -4488,7 +4487,7 @@
         <v>342</v>
       </c>
       <c r="G77" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4511,7 +4510,7 @@
         <v>343</v>
       </c>
       <c r="G78" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -4534,7 +4533,7 @@
         <v>344</v>
       </c>
       <c r="G79" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -4557,7 +4556,7 @@
         <v>345</v>
       </c>
       <c r="G80" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -4580,7 +4579,7 @@
         <v>346</v>
       </c>
       <c r="G81" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4603,7 +4602,7 @@
         <v>347</v>
       </c>
       <c r="G82" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4626,7 +4625,7 @@
         <v>348</v>
       </c>
       <c r="G83" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -4649,7 +4648,7 @@
         <v>349</v>
       </c>
       <c r="G84" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4672,7 +4671,7 @@
         <v>350</v>
       </c>
       <c r="G85" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4695,7 +4694,7 @@
         <v>351</v>
       </c>
       <c r="G86" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -4718,7 +4717,7 @@
         <v>352</v>
       </c>
       <c r="G87" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4741,7 +4740,7 @@
         <v>353</v>
       </c>
       <c r="G88" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -4764,7 +4763,7 @@
         <v>354</v>
       </c>
       <c r="G89" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4787,7 +4786,7 @@
         <v>355</v>
       </c>
       <c r="G90" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACEEC66-01EE-46FF-8BCD-BED6694DC79B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C49468-288B-444B-8985-85A4175841AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="465">
   <si>
     <t>신하의 색이다.</t>
   </si>
@@ -2301,10 +2301,6 @@
     <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
   </si>
   <si>
-    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>벽색;천청색;담청색;취람색;양람색;벽청색;청현색;감색;남색;연람색;벽람색;숙람색;군청색;녹색;명록색;유록색;유청색;연두색;춘유록색;청록색;진초록색;초록색;흑록색;비색;옥색;삼청색;뇌록색;양록색;하엽색;흑청색;청벽색</t>
   </si>
   <si>
@@ -2327,6 +2323,54 @@
   </si>
   <si>
     <t>적색;홍색;적토색;휴색;갈색;호박색;추향색;육색;주색;주홍색;담주색;진홍색;선홍색;연지색;훈색;진분홍색;분홍색;연분홍색;장단색;석간주색;흑홍색</t>
+  </si>
+  <si>
+    <t>황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;담황색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;담황색;송화색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;담황색;송화색;자황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2387,9 +2431,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2719,2074 +2766,2074 @@
     <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>438</v>
-      </c>
-      <c r="B6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" t="s">
-        <v>389</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>280</v>
-      </c>
-      <c r="G12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>281</v>
-      </c>
-      <c r="G13" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>282</v>
-      </c>
-      <c r="G14" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>438</v>
-      </c>
-      <c r="B15" t="s">
-        <v>384</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" t="s">
-        <v>392</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" t="s">
-        <v>393</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" t="s">
-        <v>394</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" t="s">
-        <v>395</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>286</v>
-      </c>
-      <c r="G19" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" t="s">
-        <v>404</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" t="s">
-        <v>287</v>
-      </c>
-      <c r="G20" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" t="s">
-        <v>405</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>288</v>
-      </c>
-      <c r="G21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" t="s">
-        <v>406</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" t="s">
-        <v>396</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" t="s">
-        <v>290</v>
-      </c>
-      <c r="G23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" t="s">
-        <v>397</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G24" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>439</v>
-      </c>
-      <c r="B25" t="s">
-        <v>398</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" t="s">
-        <v>292</v>
-      </c>
-      <c r="G25" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" t="s">
-        <v>398</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" t="s">
-        <v>399</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" t="s">
-        <v>294</v>
-      </c>
-      <c r="G27" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" t="s">
-        <v>399</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" t="s">
-        <v>295</v>
-      </c>
-      <c r="G28" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" t="s">
-        <v>400</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" t="s">
-        <v>296</v>
-      </c>
-      <c r="G29" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B30" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" t="s">
-        <v>297</v>
-      </c>
-      <c r="G30" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" t="s">
-        <v>407</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" t="s">
-        <v>298</v>
-      </c>
-      <c r="G31" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>212</v>
-      </c>
-      <c r="B32" t="s">
-        <v>408</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" t="s">
-        <v>299</v>
-      </c>
-      <c r="G32" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" t="s">
-        <v>409</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" t="s">
-        <v>300</v>
-      </c>
-      <c r="G33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" t="s">
-        <v>410</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" t="s">
-        <v>301</v>
-      </c>
-      <c r="G34" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B35" t="s">
-        <v>411</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" t="s">
-        <v>302</v>
-      </c>
-      <c r="G35" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" t="s">
-        <v>412</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" t="s">
-        <v>303</v>
-      </c>
-      <c r="G36" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" t="s">
-        <v>413</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" t="s">
-        <v>304</v>
-      </c>
-      <c r="G37" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" t="s">
-        <v>414</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" t="s">
-        <v>305</v>
-      </c>
-      <c r="G38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" t="s">
-        <v>407</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" t="s">
-        <v>306</v>
-      </c>
-      <c r="G39" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>220</v>
-      </c>
-      <c r="B40" t="s">
-        <v>415</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" t="s">
-        <v>307</v>
-      </c>
-      <c r="G40" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41" t="s">
-        <v>405</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" t="s">
-        <v>308</v>
-      </c>
-      <c r="G41" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" t="s">
-        <v>416</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" t="s">
-        <v>309</v>
-      </c>
-      <c r="G42" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" t="s">
-        <v>401</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" t="s">
-        <v>310</v>
-      </c>
-      <c r="G43" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" t="s">
-        <v>417</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" t="s">
-        <v>311</v>
-      </c>
-      <c r="G44" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" t="s">
-        <v>418</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" t="s">
-        <v>312</v>
-      </c>
-      <c r="G45" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" t="s">
-        <v>419</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" t="s">
-        <v>313</v>
-      </c>
-      <c r="G46" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" t="s">
-        <v>402</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" t="s">
-        <v>314</v>
-      </c>
-      <c r="G47" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" t="s">
-        <v>403</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" t="s">
-        <v>315</v>
-      </c>
-      <c r="G48" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>229</v>
-      </c>
-      <c r="B49" t="s">
-        <v>429</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" t="s">
-        <v>316</v>
-      </c>
-      <c r="G49" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B50" t="s">
-        <v>437</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" t="s">
-        <v>317</v>
-      </c>
-      <c r="G50" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B51" t="s">
-        <v>434</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" t="s">
-        <v>318</v>
-      </c>
-      <c r="G51" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" t="s">
-        <v>433</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" t="s">
-        <v>442</v>
-      </c>
-      <c r="G52" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" t="s">
-        <v>436</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" t="s">
-        <v>319</v>
-      </c>
-      <c r="G53" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>234</v>
-      </c>
-      <c r="B54" t="s">
-        <v>435</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" t="s">
-        <v>320</v>
-      </c>
-      <c r="G54" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>235</v>
-      </c>
-      <c r="B55" t="s">
-        <v>430</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" t="s">
-        <v>321</v>
-      </c>
-      <c r="G55" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>236</v>
-      </c>
-      <c r="B56" t="s">
-        <v>431</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" t="s">
-        <v>322</v>
-      </c>
-      <c r="G56" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>237</v>
-      </c>
-      <c r="B57" t="s">
-        <v>431</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" t="s">
-        <v>117</v>
-      </c>
-      <c r="F57" t="s">
-        <v>323</v>
-      </c>
-      <c r="G57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>238</v>
-      </c>
-      <c r="B58" t="s">
-        <v>432</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" t="s">
-        <v>324</v>
-      </c>
-      <c r="G58" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" t="s">
-        <v>420</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" t="s">
-        <v>325</v>
-      </c>
-      <c r="G59" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>240</v>
-      </c>
-      <c r="B60" t="s">
-        <v>420</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" t="s">
-        <v>326</v>
-      </c>
-      <c r="G60" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" t="s">
-        <v>421</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" t="s">
-        <v>327</v>
-      </c>
-      <c r="G61" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>242</v>
-      </c>
-      <c r="B62" t="s">
-        <v>422</v>
-      </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" t="s">
-        <v>328</v>
-      </c>
-      <c r="G62" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>243</v>
-      </c>
-      <c r="B63" t="s">
-        <v>399</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" t="s">
-        <v>329</v>
-      </c>
-      <c r="G63" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>440</v>
-      </c>
-      <c r="B64" t="s">
-        <v>423</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64" t="s">
-        <v>330</v>
-      </c>
-      <c r="G64" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>244</v>
-      </c>
-      <c r="B65" t="s">
-        <v>424</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" t="s">
-        <v>331</v>
-      </c>
-      <c r="G65" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>245</v>
-      </c>
-      <c r="B66" t="s">
-        <v>425</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" t="s">
-        <v>332</v>
-      </c>
-      <c r="G66" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" t="s">
-        <v>426</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" t="s">
-        <v>137</v>
-      </c>
-      <c r="F67" t="s">
-        <v>333</v>
-      </c>
-      <c r="G67" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>247</v>
-      </c>
-      <c r="B68" t="s">
-        <v>427</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>138</v>
-      </c>
-      <c r="E68" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" t="s">
-        <v>334</v>
-      </c>
-      <c r="G68" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>248</v>
-      </c>
-      <c r="B69" t="s">
-        <v>428</v>
-      </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" t="s">
-        <v>141</v>
-      </c>
-      <c r="F69" t="s">
-        <v>335</v>
-      </c>
-      <c r="G69" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>249</v>
-      </c>
-      <c r="B70" t="s">
-        <v>356</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70" t="s">
-        <v>143</v>
-      </c>
-      <c r="F70" t="s">
-        <v>336</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="G75" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>250</v>
-      </c>
-      <c r="B71" t="s">
-        <v>357</v>
-      </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" t="s">
-        <v>337</v>
-      </c>
-      <c r="G71" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>251</v>
-      </c>
-      <c r="B72" t="s">
-        <v>359</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>146</v>
-      </c>
-      <c r="E72" t="s">
-        <v>147</v>
-      </c>
-      <c r="F72" t="s">
-        <v>338</v>
-      </c>
-      <c r="G72" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>252</v>
-      </c>
-      <c r="B73" t="s">
-        <v>360</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" t="s">
-        <v>149</v>
-      </c>
-      <c r="F73" t="s">
-        <v>339</v>
-      </c>
-      <c r="G73" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>253</v>
-      </c>
-      <c r="B74" t="s">
-        <v>361</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s">
-        <v>150</v>
-      </c>
-      <c r="E74" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74" t="s">
-        <v>340</v>
-      </c>
-      <c r="G74" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>441</v>
-      </c>
-      <c r="B75" t="s">
-        <v>362</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" t="s">
-        <v>153</v>
-      </c>
-      <c r="F75" t="s">
-        <v>278</v>
-      </c>
-      <c r="G75" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G76" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="G76" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G77" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="G77" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G78" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="G78" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="G79" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="G79" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G80" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="G80" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G81" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="G81" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G82" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="G82" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G83" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="G83" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G84" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="G84" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G85" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="G85" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G86" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="G86" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G87" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="G87" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G88" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="G88" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G89" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="G89" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G90" t="s">
-        <v>453</v>
+      <c r="G90" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C49468-288B-444B-8985-85A4175841AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8964E7B6-9F79-42B0-945A-09731F721CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="448">
   <si>
     <t>신하의 색이다.</t>
   </si>
@@ -2294,82 +2294,23 @@
     <t>Formular Guide Cool Gray6 C</t>
   </si>
   <si>
-    <t>유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-  </si>
-  <si>
-    <t>벽색;천청색;담청색;취람색;양람색;벽청색;청현색;감색;남색;연람색;벽람색;숙람색;군청색;녹색;명록색;유록색;유청색;연두색;춘유록색;청록색;진초록색;초록색;흑록색;비색;옥색;삼청색;뇌록색;양록색;하엽색;흑청색;청벽색</t>
-  </si>
-  <si>
-    <t>청색;벽색;천청색;담청색;취람색;양람색;벽청색;청현색;감색;남색;연람색;벽람색;숙람색;군청색;녹색;명록색;유록색;유청색;연두색;춘유록색;청록색;진초록색;초록색;흑록색;비색;옥색;삼청색;뇌록색;양록색;하엽색;흑청색;청벽색</t>
-  </si>
-  <si>
-    <t>흑색;회색;구색;치색;연지회색;설백색;유백색;지백색;소색</t>
-  </si>
-  <si>
-    <t>백색;흑색;회색;구색;치색;연지회색;설백색;유백색;지백색;소색</t>
-  </si>
-  <si>
-    <t>자주색;보라색;홍람색;포도색;청자색;벽자색;회보라색;담자색;다자색;적자색</t>
-  </si>
-  <si>
-    <t>자색;자주색;보라색;홍람색;포도색;청자색;벽자색;회보라색;담자색;다자색;적자색</t>
-  </si>
-  <si>
-    <t>홍색;적토색;휴색;갈색;호박색;추향색;육색;주색;주홍색;담주색;진홍색;선홍색;연지색;훈색;진분홍색;분홍색;연분홍색;장단색;석간주색;흑홍색</t>
-  </si>
-  <si>
-    <t>적색;홍색;적토색;휴색;갈색;호박색;추향색;육색;주색;주홍색;담주색;진홍색;선홍색;연지색;훈색;진분홍색;분홍색;연분홍색;장단색;석간주색;흑홍색</t>
-  </si>
-  <si>
-    <t>황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;담황색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;담황색;송화색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;담황색;송화색;자황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;홍황색;자황색;금색</t>
+    <t>황-유황계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청-벽-녹계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백-흑계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적-홍계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2754,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2766,7 +2707,7 @@
     <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>184</v>
       </c>
@@ -2789,7 +2730,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>185</v>
       </c>
@@ -2809,10 +2750,10 @@
         <v>270</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>186</v>
       </c>
@@ -2832,10 +2773,10 @@
         <v>271</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>187</v>
       </c>
@@ -2855,10 +2796,10 @@
         <v>272</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>188</v>
       </c>
@@ -2878,7 +2819,7 @@
         <v>273</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2901,7 +2842,7 @@
         <v>274</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2924,10 +2865,10 @@
         <v>275</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
@@ -2947,10 +2888,10 @@
         <v>276</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>191</v>
       </c>
@@ -2970,7 +2911,7 @@
         <v>277</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2993,7 +2934,7 @@
         <v>278</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3016,10 +2957,10 @@
         <v>279</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>194</v>
       </c>
@@ -3039,7 +2980,7 @@
         <v>280</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3062,7 +3003,7 @@
         <v>281</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3085,10 +3026,10 @@
         <v>282</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>438</v>
       </c>
@@ -3108,10 +3049,10 @@
         <v>283</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>197</v>
       </c>
@@ -3131,10 +3072,10 @@
         <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>198</v>
       </c>
@@ -3154,10 +3095,10 @@
         <v>284</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>199</v>
       </c>
@@ -3177,10 +3118,10 @@
         <v>285</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>200</v>
       </c>
@@ -3200,10 +3141,10 @@
         <v>286</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>201</v>
       </c>
@@ -3223,10 +3164,10 @@
         <v>287</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>202</v>
       </c>
@@ -3246,10 +3187,10 @@
         <v>288</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>203</v>
       </c>
@@ -3269,10 +3210,10 @@
         <v>289</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>204</v>
       </c>
@@ -3292,10 +3233,10 @@
         <v>290</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>205</v>
       </c>
@@ -3315,10 +3256,10 @@
         <v>291</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>439</v>
       </c>
@@ -3338,10 +3279,10 @@
         <v>292</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>206</v>
       </c>
@@ -3361,10 +3302,10 @@
         <v>293</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>207</v>
       </c>
@@ -3384,10 +3325,10 @@
         <v>294</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>208</v>
       </c>
@@ -3407,10 +3348,10 @@
         <v>295</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>209</v>
       </c>
@@ -3430,10 +3371,10 @@
         <v>296</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>210</v>
       </c>
@@ -3453,10 +3394,10 @@
         <v>297</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>211</v>
       </c>
@@ -3476,10 +3417,10 @@
         <v>298</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
@@ -3499,10 +3440,10 @@
         <v>299</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>213</v>
       </c>
@@ -3522,10 +3463,10 @@
         <v>300</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>214</v>
       </c>
@@ -3545,10 +3486,10 @@
         <v>301</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>215</v>
       </c>
@@ -3568,10 +3509,10 @@
         <v>302</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>216</v>
       </c>
@@ -3591,10 +3532,10 @@
         <v>303</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>217</v>
       </c>
@@ -3614,10 +3555,10 @@
         <v>304</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>218</v>
       </c>
@@ -3637,10 +3578,10 @@
         <v>305</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>219</v>
       </c>
@@ -3660,10 +3601,10 @@
         <v>306</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>220</v>
       </c>
@@ -3683,10 +3624,10 @@
         <v>307</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>221</v>
       </c>
@@ -3706,10 +3647,10 @@
         <v>308</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>222</v>
       </c>
@@ -3729,10 +3670,10 @@
         <v>309</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>223</v>
       </c>
@@ -3752,10 +3693,10 @@
         <v>310</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>224</v>
       </c>
@@ -3775,10 +3716,10 @@
         <v>311</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>225</v>
       </c>
@@ -3798,10 +3739,10 @@
         <v>312</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>226</v>
       </c>
@@ -3821,10 +3762,10 @@
         <v>313</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>227</v>
       </c>
@@ -3844,10 +3785,10 @@
         <v>314</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>228</v>
       </c>
@@ -3867,7 +3808,7 @@
         <v>315</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -3890,7 +3831,7 @@
         <v>316</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -3913,7 +3854,7 @@
         <v>317</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3936,7 +3877,7 @@
         <v>318</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3959,7 +3900,7 @@
         <v>442</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3982,7 +3923,7 @@
         <v>319</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -4005,7 +3946,7 @@
         <v>320</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -4028,7 +3969,7 @@
         <v>321</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4051,7 +3992,7 @@
         <v>322</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4074,7 +4015,7 @@
         <v>323</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -4097,10 +4038,10 @@
         <v>324</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>239</v>
       </c>
@@ -4120,10 +4061,10 @@
         <v>325</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>240</v>
       </c>
@@ -4143,10 +4084,10 @@
         <v>326</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>241</v>
       </c>
@@ -4166,7 +4107,7 @@
         <v>327</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4189,10 +4130,10 @@
         <v>328</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>243</v>
       </c>
@@ -4212,10 +4153,10 @@
         <v>329</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>440</v>
       </c>
@@ -4235,7 +4176,7 @@
         <v>330</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4258,7 +4199,7 @@
         <v>331</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4281,10 +4222,10 @@
         <v>332</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>246</v>
       </c>
@@ -4304,10 +4245,10 @@
         <v>333</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>247</v>
       </c>
@@ -4327,10 +4268,10 @@
         <v>334</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>248</v>
       </c>
@@ -4350,10 +4291,10 @@
         <v>335</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>249</v>
       </c>
@@ -4373,10 +4314,10 @@
         <v>336</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>250</v>
       </c>
@@ -4396,10 +4337,10 @@
         <v>337</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>251</v>
       </c>
@@ -4419,10 +4360,10 @@
         <v>338</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>252</v>
       </c>
@@ -4442,10 +4383,10 @@
         <v>339</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>253</v>
       </c>
@@ -4465,10 +4406,10 @@
         <v>340</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>441</v>
       </c>
@@ -4488,10 +4429,10 @@
         <v>278</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>254</v>
       </c>
@@ -4511,10 +4452,10 @@
         <v>341</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>255</v>
       </c>
@@ -4534,10 +4475,10 @@
         <v>342</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>256</v>
       </c>
@@ -4557,10 +4498,10 @@
         <v>343</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>257</v>
       </c>
@@ -4580,10 +4521,10 @@
         <v>344</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>258</v>
       </c>
@@ -4603,10 +4544,10 @@
         <v>345</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>259</v>
       </c>
@@ -4626,10 +4567,10 @@
         <v>346</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>260</v>
       </c>
@@ -4649,10 +4590,10 @@
         <v>347</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>261</v>
       </c>
@@ -4672,10 +4613,10 @@
         <v>348</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>262</v>
       </c>
@@ -4695,10 +4636,10 @@
         <v>349</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -4718,10 +4659,10 @@
         <v>350</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>264</v>
       </c>
@@ -4741,10 +4682,10 @@
         <v>351</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4764,10 +4705,10 @@
         <v>352</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -4787,10 +4728,10 @@
         <v>353</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>267</v>
       </c>
@@ -4810,10 +4751,10 @@
         <v>354</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>268</v>
       </c>
@@ -4833,7 +4774,7 @@
         <v>355</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8964E7B6-9F79-42B0-945A-09731F721CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545473CF-A48A-4C8E-ACA3-D18B74EAD0F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="466">
   <si>
     <t>신하의 색이다.</t>
   </si>
@@ -36,6 +36,9 @@
     <t>236; 212; 55</t>
   </si>
   <si>
+    <t>녹황색</t>
+  </si>
+  <si>
     <t>으악</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
   </si>
   <si>
     <t>229; 186; 105</t>
+  </si>
+  <si>
+    <t>남색</t>
   </si>
   <si>
     <t>#ccdb00</t>
@@ -61,6 +67,9 @@
     <t>242; 234; 178</t>
   </si>
   <si>
+    <t>황색</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
@@ -70,24 +79,36 @@
     <t>228; 234; 125</t>
   </si>
   <si>
+    <t>유황색</t>
+  </si>
+  <si>
     <t>#e4c043</t>
   </si>
   <si>
     <t>228; 192; 67</t>
   </si>
   <si>
+    <t>명황색</t>
+  </si>
+  <si>
     <t>#f7a65d</t>
   </si>
   <si>
     <t>247; 166; 93</t>
   </si>
   <si>
+    <t>담황색</t>
+  </si>
+  <si>
     <t>#d9c78a</t>
   </si>
   <si>
     <t>217; 199; 138</t>
   </si>
   <si>
+    <t>송화색</t>
+  </si>
+  <si>
     <t>#fc9339</t>
   </si>
   <si>
@@ -100,34 +121,52 @@
     <t>191; 129; 66</t>
   </si>
   <si>
+    <t>행황색</t>
+  </si>
+  <si>
     <t>#d7b858</t>
   </si>
   <si>
     <t>215; 184; 88</t>
   </si>
   <si>
+    <t>두록색</t>
+  </si>
+  <si>
     <t>#a37a46</t>
   </si>
   <si>
     <t>163; 122; 70</t>
   </si>
   <si>
+    <t>적황색</t>
+  </si>
+  <si>
     <t>#e9cc56</t>
   </si>
   <si>
     <t>233; 204; 86</t>
   </si>
   <si>
+    <t>토황색</t>
+  </si>
+  <si>
     <t>#de9e91</t>
   </si>
   <si>
     <t>222; 158; 145</t>
   </si>
   <si>
+    <t>지황색</t>
+  </si>
+  <si>
     <t>#b6987e</t>
   </si>
   <si>
     <t>182; 152; 126</t>
+  </si>
+  <si>
+    <t>토색</t>
   </si>
   <si>
     <t>#000000</t>
@@ -137,12 +176,18 @@
     <t>-</t>
   </si>
   <si>
+    <t>치자색</t>
+  </si>
+  <si>
     <t>#354a8d</t>
   </si>
   <si>
     <t>53; 74; 141</t>
   </si>
   <si>
+    <t>홍황색</t>
+  </si>
+  <si>
     <t>#2e92d5</t>
   </si>
   <si>
@@ -153,6 +198,9 @@
   </si>
   <si>
     <t>115; 178; 217</t>
+  </si>
+  <si>
+    <t>금색</t>
   </si>
   <si>
     <t>#3d8fb5</t>
@@ -2291,27 +2339,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>자황색(赭⿈⾊</t>
+  </si>
+  <si>
+    <t>자황색(紫⿈⾊)</t>
+  </si>
+  <si>
     <t>Formular Guide Cool Gray6 C</t>
   </si>
   <si>
-    <t>황-유황계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청-벽-녹계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백-흑계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적-홍계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>황색; 유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청색; 벽색; 천청색; 담청색; 취람색; 양람색; 벽청색; 청현색; 감색; 남색; 연람색; 벽람색; 숙람색; 군청색; 녹색; 명록색; 유록색; 유청색; 연두색; 춘유록색; 청록색; 진초록색; 초록색; 흑록색; 비색; 옥색; 삼청색; 뇌록색; 양록색; 하엽색; 흑청색; 청벽색</t>
+  </si>
+  <si>
+    <t>백색; 흑색; 회색; 구색; 치색; 연지회색; 설백색; 유백색; 지백색; 소색</t>
+  </si>
+  <si>
+    <t>자색; 자주색; 보라색; 홍람색; 포도색; 청자색; 벽자색; 회보라색; 담자색; 다자색; 적자색</t>
+  </si>
+  <si>
+    <t>적색; 홍색; 적토색; 휴색; 갈색; 호박색; 추향색; 육색; 주색; 주홍색; 담주색; 진홍색; 선홍색; 연지색; 훈색; 진분홍색; 분홍색; 연분홍색; 장단색; 석간주색; 흑홍색</t>
   </si>
 </sst>
 </file>
@@ -2372,12 +2422,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2693,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2707,2074 +2754,2131 @@
     <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" t="s">
+        <v>461</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" t="s">
+        <v>461</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" t="s">
+        <v>461</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G11" t="s">
+        <v>461</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" t="s">
+        <v>461</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G13" t="s">
+        <v>461</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" t="s">
+        <v>461</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" t="s">
+        <v>461</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>461</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G17" t="s">
+        <v>462</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>301</v>
+      </c>
+      <c r="G18" t="s">
+        <v>462</v>
+      </c>
+      <c r="H18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" t="s">
+        <v>462</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>305</v>
+      </c>
+      <c r="G22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B25" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>313</v>
+      </c>
+      <c r="G30" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" t="s">
+        <v>423</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>314</v>
+      </c>
+      <c r="G31" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" t="s">
+        <v>424</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
+        <v>427</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
+        <v>428</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" t="s">
+        <v>430</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" t="s">
+        <v>423</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" t="s">
+        <v>431</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>324</v>
+      </c>
+      <c r="G41" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" t="s">
+        <v>432</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" t="s">
+        <v>417</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" t="s">
+        <v>433</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" t="s">
+        <v>435</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" t="s">
+        <v>419</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" t="s">
+        <v>445</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" t="s">
+        <v>453</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" t="s">
+        <v>333</v>
+      </c>
+      <c r="G50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" t="s">
+        <v>450</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" t="s">
+        <v>334</v>
+      </c>
+      <c r="G51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>449</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" t="s">
+        <v>460</v>
+      </c>
+      <c r="G52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" t="s">
+        <v>452</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" t="s">
+        <v>335</v>
+      </c>
+      <c r="G53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" t="s">
+        <v>451</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
+        <v>336</v>
+      </c>
+      <c r="G54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" t="s">
+        <v>446</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" t="s">
+        <v>447</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>338</v>
+      </c>
+      <c r="G56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s">
+        <v>447</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" t="s">
+        <v>339</v>
+      </c>
+      <c r="G57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>448</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" t="s">
+        <v>340</v>
+      </c>
+      <c r="G58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>436</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" t="s">
+        <v>341</v>
+      </c>
+      <c r="G59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
+        <v>436</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" t="s">
+        <v>342</v>
+      </c>
+      <c r="G60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>437</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" t="s">
+        <v>343</v>
+      </c>
+      <c r="G61" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" t="s">
+        <v>438</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" t="s">
+        <v>344</v>
+      </c>
+      <c r="G62" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" t="s">
+        <v>415</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" t="s">
+        <v>345</v>
+      </c>
+      <c r="G63" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>456</v>
+      </c>
+      <c r="B64" t="s">
+        <v>439</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" t="s">
+        <v>346</v>
+      </c>
+      <c r="G64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" t="s">
+        <v>440</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" t="s">
+        <v>347</v>
+      </c>
+      <c r="G65" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" t="s">
+        <v>441</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" t="s">
+        <v>348</v>
+      </c>
+      <c r="G66" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" t="s">
+        <v>442</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" t="s">
+        <v>349</v>
+      </c>
+      <c r="G67" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" t="s">
+        <v>443</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" t="s">
+        <v>350</v>
+      </c>
+      <c r="G68" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" t="s">
+        <v>444</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" t="s">
+        <v>157</v>
+      </c>
+      <c r="F69" t="s">
+        <v>351</v>
+      </c>
+      <c r="G69" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" t="s">
+        <v>372</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" t="s">
+        <v>352</v>
+      </c>
+      <c r="G70" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" t="s">
+        <v>353</v>
+      </c>
+      <c r="G71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" t="s">
+        <v>375</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" t="s">
+        <v>354</v>
+      </c>
+      <c r="G72" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" t="s">
+        <v>355</v>
+      </c>
+      <c r="G73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" t="s">
+        <v>377</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74" t="s">
+        <v>356</v>
+      </c>
+      <c r="G74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>457</v>
+      </c>
+      <c r="B75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" t="s">
+        <v>357</v>
+      </c>
+      <c r="G76" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" t="s">
+        <v>380</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" t="s">
+        <v>358</v>
+      </c>
+      <c r="G77" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>272</v>
+      </c>
+      <c r="B78" t="s">
+        <v>381</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" t="s">
+        <v>175</v>
+      </c>
+      <c r="F78" t="s">
+        <v>359</v>
+      </c>
+      <c r="G78" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>273</v>
+      </c>
+      <c r="B79" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" t="s">
+        <v>360</v>
+      </c>
+      <c r="G79" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>274</v>
+      </c>
+      <c r="B80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" t="s">
+        <v>361</v>
+      </c>
+      <c r="G80" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" t="s">
+        <v>181</v>
+      </c>
+      <c r="F81" t="s">
+        <v>362</v>
+      </c>
+      <c r="G81" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" t="s">
+        <v>363</v>
+      </c>
+      <c r="G82" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E83" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="F83" t="s">
+        <v>364</v>
+      </c>
+      <c r="G83" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>278</v>
+      </c>
+      <c r="B84" t="s">
+        <v>386</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="E84" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="F84" t="s">
+        <v>365</v>
+      </c>
+      <c r="G84" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" t="s">
+        <v>387</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E85" t="s">
+        <v>189</v>
+      </c>
+      <c r="F85" t="s">
+        <v>366</v>
+      </c>
+      <c r="G85" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" t="s">
         <v>391</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="E86" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="F86" t="s">
+        <v>367</v>
+      </c>
+      <c r="G86" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>281</v>
+      </c>
+      <c r="B87" t="s">
+        <v>388</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="E87" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="F87" t="s">
+        <v>368</v>
+      </c>
+      <c r="G87" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>282</v>
+      </c>
+      <c r="B88" t="s">
+        <v>374</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="E88" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="F88" t="s">
+        <v>369</v>
+      </c>
+      <c r="G88" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>283</v>
+      </c>
+      <c r="B89" t="s">
+        <v>392</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E89" t="s">
+        <v>197</v>
+      </c>
+      <c r="F89" t="s">
+        <v>370</v>
+      </c>
+      <c r="G89" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" t="s">
         <v>390</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="E90" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="F90" t="s">
         <v>371</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>447</v>
+      <c r="G90" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545473CF-A48A-4C8E-ACA3-D18B74EAD0F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CF4619-0152-40A4-AD8C-AF689EACD0C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="489">
   <si>
     <t>신하의 색이다.</t>
   </si>
@@ -36,9 +36,6 @@
     <t>236; 212; 55</t>
   </si>
   <si>
-    <t>녹황색</t>
-  </si>
-  <si>
     <t>으악</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>229; 186; 105</t>
-  </si>
-  <si>
-    <t>남색</t>
   </si>
   <si>
     <t>#ccdb00</t>
@@ -169,10 +163,6 @@
     <t>토색</t>
   </si>
   <si>
-    <t>#000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -2348,20 +2338,122 @@
     <t>Formular Guide Cool Gray6 C</t>
   </si>
   <si>
-    <t>황색; 유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청색; 벽색; 천청색; 담청색; 취람색; 양람색; 벽청색; 청현색; 감색; 남색; 연람색; 벽람색; 숙람색; 군청색; 녹색; 명록색; 유록색; 유청색; 연두색; 춘유록색; 청록색; 진초록색; 초록색; 흑록색; 비색; 옥색; 삼청색; 뇌록색; 양록색; 하엽색; 흑청색; 청벽색</t>
-  </si>
-  <si>
-    <t>백색; 흑색; 회색; 구색; 치색; 연지회색; 설백색; 유백색; 지백색; 소색</t>
-  </si>
-  <si>
-    <t>자색; 자주색; 보라색; 홍람색; 포도색; 청자색; 벽자색; 회보라색; 담자색; 다자색; 적자색</t>
-  </si>
-  <si>
-    <t>적색; 홍색; 적토색; 휴색; 갈색; 호박색; 추향색; 육색; 주색; 주홍색; 담주색; 진홍색; 선홍색; 연지색; 훈색; 진분홍색; 분홍색; 연분홍색; 장단색; 석간주색; 흑홍색</t>
+    <t>황색;유황색;명황색;담황색;송화색;자황색;행황색;두록색;적황색;토황색;지황색;토색;치자색;홍황색;자황색;금색</t>
+  </si>
+  <si>
+    <t>청색;벽색;천청색;담청색;취람색;양람색;벽청색;청현색;감색;남색;연람색;벽람색;숙람색;군청색;녹색;명록색;유록색;유청색;연두색;춘유록색;청록색;진초록색;초록색;흑록색;비색;옥색;삼청색;뇌록색;양록색;하엽색;흑청색;청벽색</t>
+  </si>
+  <si>
+    <t>백색;흑색;회색;구색;치색;연지회색;설백색;유백색;지백색;소색</t>
+  </si>
+  <si>
+    <t>자색;자주색;보라색;홍람색;포도색;청자색;벽자색;회보라색;담자색;다자색;적자색</t>
+  </si>
+  <si>
+    <t>적색;홍색;적토색;휴색;갈색;호박색;추향색;육색;주색;주홍색;담주색;진홍색;선홍색;연지색;훈색;진분홍색;분홍색;연분홍색;장단색;석간주색;흑홍색</t>
+  </si>
+  <si>
+    <t>청색;녹색;유황색;훈색;연두색;백색;다자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두색;연분홍색;춘유록색;청색;백색;행황색;녹색;흑색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담주색;적색;분홍색;초록색;담황색;양람색;훈색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담황색;지황색;유황색;자색;흑색;연분홍색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;토색;지황색;자색;구색;흑색;소색;설백색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;주색;자황색;적색;회색;자색;담자색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지백색;적자색;분홍색;자색;포도색;백색;연두색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;선홍색;훈색;청자색;적색;흑색;지황색;보라색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">훈색;다자색;유백색;회보라색;소색;회색;토색 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;다자색;담황색;황색;훈색;담주색;홍람색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행황색;적황색;훈색;양록색;황색;적색;유황색;담자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행황색;적색;백색;담주색;담황색;진분홍색;회보라색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소색;회보라색;훈색;주색;담황색;연두색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;천색;훈색;녹색;적색;적황색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;적색;연두색;벽청색;자황색;회보라색;벽람색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두색;적색;담황색;천청색;회보라색;벽람색;비색;청자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;청색;훈색;보라색;담주색;청자색;연분홍색;홍람색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담황색;회보라색;보라색;춘유록색;진분홍색;담주색;홍색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;훈색;담황색;옥색;회보라색;행황색;진분홍색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑홍색;적색;백색;담자색;벽자색;자황색;다자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유황색;흑색;연분홍색;연지회색;백색;회보라색;자황색;자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적색;청색;훈색;보라색;흑색;백색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청색;자색;포도색;흑색;적색;보라색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선홍색;담주색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255; 181; 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffb500</t>
   </si>
 </sst>
 </file>
@@ -2422,9 +2514,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2742,2143 +2837,2258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="28.75" customWidth="1"/>
-    <col min="7" max="7" width="52.875" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="1" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="4" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="69.25" customWidth="1"/>
+    <col min="8" max="8" width="67.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B75" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" t="s">
-        <v>461</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G9" t="s">
-        <v>461</v>
-      </c>
-      <c r="H9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" t="s">
-        <v>461</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>295</v>
-      </c>
-      <c r="G11" t="s">
-        <v>461</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>405</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>296</v>
-      </c>
-      <c r="G12" t="s">
-        <v>461</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G13" t="s">
-        <v>461</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>406</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" t="s">
-        <v>461</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>454</v>
-      </c>
-      <c r="B15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" t="s">
-        <v>461</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>461</v>
-      </c>
-      <c r="H16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" t="s">
-        <v>409</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G75" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>410</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>301</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H75" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>411</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H76" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H77" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>421</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H78" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" t="s">
-        <v>422</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H79" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" t="s">
-        <v>306</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H80" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" t="s">
-        <v>413</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" t="s">
-        <v>307</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H81" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>455</v>
-      </c>
-      <c r="B25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" t="s">
-        <v>308</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H82" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" t="s">
-        <v>414</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>309</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H83" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27" t="s">
-        <v>415</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" t="s">
-        <v>310</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H84" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" t="s">
-        <v>415</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" t="s">
-        <v>311</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H85" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>312</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H86" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" t="s">
-        <v>414</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>313</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H87" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>227</v>
-      </c>
-      <c r="B31" t="s">
-        <v>423</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" t="s">
-        <v>314</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H88" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B32" t="s">
-        <v>424</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" t="s">
-        <v>315</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H89" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B33" t="s">
-        <v>425</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" t="s">
-        <v>316</v>
-      </c>
-      <c r="G33" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B34" t="s">
-        <v>426</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" t="s">
-        <v>317</v>
-      </c>
-      <c r="G34" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>231</v>
-      </c>
-      <c r="B35" t="s">
-        <v>427</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" t="s">
-        <v>318</v>
-      </c>
-      <c r="G35" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>232</v>
-      </c>
-      <c r="B36" t="s">
-        <v>428</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" t="s">
-        <v>319</v>
-      </c>
-      <c r="G36" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>233</v>
-      </c>
-      <c r="B37" t="s">
-        <v>429</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" t="s">
-        <v>320</v>
-      </c>
-      <c r="G37" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B38" t="s">
-        <v>430</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" t="s">
-        <v>321</v>
-      </c>
-      <c r="G38" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" t="s">
-        <v>423</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" t="s">
-        <v>322</v>
-      </c>
-      <c r="G39" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40" t="s">
-        <v>431</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" t="s">
-        <v>323</v>
-      </c>
-      <c r="G40" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>237</v>
-      </c>
-      <c r="B41" t="s">
-        <v>421</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" t="s">
-        <v>324</v>
-      </c>
-      <c r="G41" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>238</v>
-      </c>
-      <c r="B42" t="s">
-        <v>432</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" t="s">
-        <v>325</v>
-      </c>
-      <c r="G42" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>239</v>
-      </c>
-      <c r="B43" t="s">
-        <v>417</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" t="s">
-        <v>326</v>
-      </c>
-      <c r="G43" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>240</v>
-      </c>
-      <c r="B44" t="s">
-        <v>433</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" t="s">
-        <v>327</v>
-      </c>
-      <c r="G44" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" t="s">
-        <v>434</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" t="s">
-        <v>328</v>
-      </c>
-      <c r="G45" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>242</v>
-      </c>
-      <c r="B46" t="s">
-        <v>435</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" t="s">
-        <v>329</v>
-      </c>
-      <c r="G46" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>243</v>
-      </c>
-      <c r="B47" t="s">
-        <v>418</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" t="s">
-        <v>330</v>
-      </c>
-      <c r="G47" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B48" t="s">
-        <v>419</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" t="s">
-        <v>331</v>
-      </c>
-      <c r="G48" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>245</v>
-      </c>
-      <c r="B49" t="s">
-        <v>445</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" t="s">
-        <v>332</v>
-      </c>
-      <c r="G49" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>246</v>
-      </c>
-      <c r="B50" t="s">
-        <v>453</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" t="s">
-        <v>333</v>
-      </c>
-      <c r="G50" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>247</v>
-      </c>
-      <c r="B51" t="s">
-        <v>450</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" t="s">
-        <v>334</v>
-      </c>
-      <c r="G51" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>248</v>
-      </c>
-      <c r="B52" t="s">
-        <v>449</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" t="s">
-        <v>460</v>
-      </c>
-      <c r="G52" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>249</v>
-      </c>
-      <c r="B53" t="s">
-        <v>452</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" t="s">
-        <v>335</v>
-      </c>
-      <c r="G53" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>250</v>
-      </c>
-      <c r="B54" t="s">
-        <v>451</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" t="s">
-        <v>336</v>
-      </c>
-      <c r="G54" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>251</v>
-      </c>
-      <c r="B55" t="s">
-        <v>446</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" t="s">
-        <v>337</v>
-      </c>
-      <c r="G55" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>252</v>
-      </c>
-      <c r="B56" t="s">
-        <v>447</v>
-      </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56" t="s">
-        <v>338</v>
-      </c>
-      <c r="G56" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>253</v>
-      </c>
-      <c r="B57" t="s">
-        <v>447</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" t="s">
-        <v>133</v>
-      </c>
-      <c r="F57" t="s">
-        <v>339</v>
-      </c>
-      <c r="G57" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>254</v>
-      </c>
-      <c r="B58" t="s">
-        <v>448</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" t="s">
-        <v>135</v>
-      </c>
-      <c r="F58" t="s">
-        <v>340</v>
-      </c>
-      <c r="G58" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>255</v>
-      </c>
-      <c r="B59" t="s">
-        <v>436</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59" t="s">
-        <v>341</v>
-      </c>
-      <c r="G59" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>256</v>
-      </c>
-      <c r="B60" t="s">
-        <v>436</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" t="s">
-        <v>342</v>
-      </c>
-      <c r="G60" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>257</v>
-      </c>
-      <c r="B61" t="s">
-        <v>437</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" t="s">
-        <v>343</v>
-      </c>
-      <c r="G61" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>258</v>
-      </c>
-      <c r="B62" t="s">
-        <v>438</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" t="s">
-        <v>344</v>
-      </c>
-      <c r="G62" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>259</v>
-      </c>
-      <c r="B63" t="s">
-        <v>415</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>144</v>
-      </c>
-      <c r="E63" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" t="s">
-        <v>345</v>
-      </c>
-      <c r="G63" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>456</v>
-      </c>
-      <c r="B64" t="s">
-        <v>439</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" t="s">
-        <v>147</v>
-      </c>
-      <c r="F64" t="s">
-        <v>346</v>
-      </c>
-      <c r="G64" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>260</v>
-      </c>
-      <c r="B65" t="s">
-        <v>440</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" t="s">
-        <v>347</v>
-      </c>
-      <c r="G65" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>261</v>
-      </c>
-      <c r="B66" t="s">
-        <v>441</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" t="s">
-        <v>151</v>
-      </c>
-      <c r="F66" t="s">
-        <v>348</v>
-      </c>
-      <c r="G66" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>262</v>
-      </c>
-      <c r="B67" t="s">
-        <v>442</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" t="s">
-        <v>349</v>
-      </c>
-      <c r="G67" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>263</v>
-      </c>
-      <c r="B68" t="s">
-        <v>443</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" t="s">
-        <v>155</v>
-      </c>
-      <c r="F68" t="s">
-        <v>350</v>
-      </c>
-      <c r="G68" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>264</v>
-      </c>
-      <c r="B69" t="s">
-        <v>444</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" t="s">
-        <v>157</v>
-      </c>
-      <c r="F69" t="s">
-        <v>351</v>
-      </c>
-      <c r="G69" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>265</v>
-      </c>
-      <c r="B70" t="s">
-        <v>372</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" t="s">
-        <v>158</v>
-      </c>
-      <c r="E70" t="s">
-        <v>159</v>
-      </c>
-      <c r="F70" t="s">
-        <v>352</v>
-      </c>
-      <c r="G70" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>266</v>
-      </c>
-      <c r="B71" t="s">
-        <v>373</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>160</v>
-      </c>
-      <c r="E71" t="s">
-        <v>161</v>
-      </c>
-      <c r="F71" t="s">
-        <v>353</v>
-      </c>
-      <c r="G71" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>267</v>
-      </c>
-      <c r="B72" t="s">
-        <v>375</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s">
-        <v>162</v>
-      </c>
-      <c r="E72" t="s">
-        <v>163</v>
-      </c>
-      <c r="F72" t="s">
-        <v>354</v>
-      </c>
-      <c r="G72" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>268</v>
-      </c>
-      <c r="B73" t="s">
-        <v>376</v>
-      </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" t="s">
-        <v>165</v>
-      </c>
-      <c r="F73" t="s">
-        <v>355</v>
-      </c>
-      <c r="G73" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>269</v>
-      </c>
-      <c r="B74" t="s">
-        <v>377</v>
-      </c>
-      <c r="C74" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" t="s">
-        <v>167</v>
-      </c>
-      <c r="F74" t="s">
-        <v>356</v>
-      </c>
-      <c r="G74" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>457</v>
-      </c>
-      <c r="B75" t="s">
-        <v>378</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" t="s">
-        <v>168</v>
-      </c>
-      <c r="E75" t="s">
-        <v>169</v>
-      </c>
-      <c r="F75" t="s">
-        <v>294</v>
-      </c>
-      <c r="G75" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>270</v>
-      </c>
-      <c r="B76" t="s">
-        <v>379</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>170</v>
-      </c>
-      <c r="E76" t="s">
-        <v>171</v>
-      </c>
-      <c r="F76" t="s">
-        <v>357</v>
-      </c>
-      <c r="G76" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>271</v>
-      </c>
-      <c r="B77" t="s">
-        <v>380</v>
-      </c>
-      <c r="C77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" t="s">
-        <v>173</v>
-      </c>
-      <c r="F77" t="s">
-        <v>358</v>
-      </c>
-      <c r="G77" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>272</v>
-      </c>
-      <c r="B78" t="s">
-        <v>381</v>
-      </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>174</v>
-      </c>
-      <c r="E78" t="s">
-        <v>175</v>
-      </c>
-      <c r="F78" t="s">
-        <v>359</v>
-      </c>
-      <c r="G78" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>273</v>
-      </c>
-      <c r="B79" t="s">
-        <v>382</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>176</v>
-      </c>
-      <c r="E79" t="s">
-        <v>177</v>
-      </c>
-      <c r="F79" t="s">
-        <v>360</v>
-      </c>
-      <c r="G79" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>274</v>
-      </c>
-      <c r="B80" t="s">
-        <v>383</v>
-      </c>
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" t="s">
-        <v>179</v>
-      </c>
-      <c r="F80" t="s">
-        <v>361</v>
-      </c>
-      <c r="G80" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>275</v>
-      </c>
-      <c r="B81" t="s">
-        <v>389</v>
-      </c>
-      <c r="C81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" t="s">
-        <v>180</v>
-      </c>
-      <c r="E81" t="s">
-        <v>181</v>
-      </c>
-      <c r="F81" t="s">
-        <v>362</v>
-      </c>
-      <c r="G81" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>276</v>
-      </c>
-      <c r="B82" t="s">
-        <v>384</v>
-      </c>
-      <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>182</v>
-      </c>
-      <c r="E82" t="s">
-        <v>183</v>
-      </c>
-      <c r="F82" t="s">
-        <v>363</v>
-      </c>
-      <c r="G82" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>277</v>
-      </c>
-      <c r="B83" t="s">
-        <v>385</v>
-      </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" t="s">
-        <v>185</v>
-      </c>
-      <c r="F83" t="s">
-        <v>364</v>
-      </c>
-      <c r="G83" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>278</v>
-      </c>
-      <c r="B84" t="s">
-        <v>386</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>186</v>
-      </c>
-      <c r="E84" t="s">
-        <v>187</v>
-      </c>
-      <c r="F84" t="s">
-        <v>365</v>
-      </c>
-      <c r="G84" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>279</v>
-      </c>
-      <c r="B85" t="s">
-        <v>387</v>
-      </c>
-      <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" t="s">
-        <v>188</v>
-      </c>
-      <c r="E85" t="s">
-        <v>189</v>
-      </c>
-      <c r="F85" t="s">
-        <v>366</v>
-      </c>
-      <c r="G85" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>280</v>
-      </c>
-      <c r="B86" t="s">
-        <v>391</v>
-      </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" t="s">
-        <v>190</v>
-      </c>
-      <c r="E86" t="s">
-        <v>191</v>
-      </c>
-      <c r="F86" t="s">
-        <v>367</v>
-      </c>
-      <c r="G86" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>281</v>
-      </c>
-      <c r="B87" t="s">
-        <v>388</v>
-      </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" t="s">
-        <v>192</v>
-      </c>
-      <c r="E87" t="s">
-        <v>193</v>
-      </c>
-      <c r="F87" t="s">
-        <v>368</v>
-      </c>
-      <c r="G87" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>282</v>
-      </c>
-      <c r="B88" t="s">
-        <v>374</v>
-      </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" t="s">
-        <v>195</v>
-      </c>
-      <c r="F88" t="s">
-        <v>369</v>
-      </c>
-      <c r="G88" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>283</v>
-      </c>
-      <c r="B89" t="s">
-        <v>392</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
-        <v>196</v>
-      </c>
-      <c r="E89" t="s">
-        <v>197</v>
-      </c>
-      <c r="F89" t="s">
-        <v>370</v>
-      </c>
-      <c r="G89" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>284</v>
-      </c>
-      <c r="B90" t="s">
-        <v>390</v>
-      </c>
-      <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" t="s">
-        <v>199</v>
-      </c>
-      <c r="F90" t="s">
-        <v>371</v>
-      </c>
-      <c r="G90" t="s">
-        <v>465</v>
+      <c r="H90" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CF4619-0152-40A4-AD8C-AF689EACD0C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6173F7A-19C7-4B4E-B1E6-BCB987C8B962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="489">
-  <si>
-    <t>신하의 색이다.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="582">
   <si>
     <t>#ecd437</t>
   </si>
@@ -36,9 +33,6 @@
     <t>236; 212; 55</t>
   </si>
   <si>
-    <t>으악</t>
-  </si>
-  <si>
     <t>#e5ba69</t>
   </si>
   <si>
@@ -51,58 +45,36 @@
     <t>204; 219; 0</t>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#f2eab2</t>
   </si>
   <si>
     <t>242; 234; 178</t>
   </si>
   <si>
-    <t>황색</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>#e4ea7d</t>
   </si>
   <si>
     <t>228; 234; 125</t>
   </si>
   <si>
-    <t>유황색</t>
-  </si>
-  <si>
     <t>#e4c043</t>
   </si>
   <si>
     <t>228; 192; 67</t>
   </si>
   <si>
-    <t>명황색</t>
-  </si>
-  <si>
     <t>#f7a65d</t>
   </si>
   <si>
     <t>247; 166; 93</t>
   </si>
   <si>
-    <t>담황색</t>
-  </si>
-  <si>
     <t>#d9c78a</t>
   </si>
   <si>
     <t>217; 199; 138</t>
   </si>
   <si>
-    <t>송화색</t>
-  </si>
-  <si>
     <t>#fc9339</t>
   </si>
   <si>
@@ -115,69 +87,45 @@
     <t>191; 129; 66</t>
   </si>
   <si>
-    <t>행황색</t>
-  </si>
-  <si>
     <t>#d7b858</t>
   </si>
   <si>
     <t>215; 184; 88</t>
   </si>
   <si>
-    <t>두록색</t>
-  </si>
-  <si>
     <t>#a37a46</t>
   </si>
   <si>
     <t>163; 122; 70</t>
   </si>
   <si>
-    <t>적황색</t>
-  </si>
-  <si>
     <t>#e9cc56</t>
   </si>
   <si>
     <t>233; 204; 86</t>
   </si>
   <si>
-    <t>토황색</t>
-  </si>
-  <si>
     <t>#de9e91</t>
   </si>
   <si>
     <t>222; 158; 145</t>
   </si>
   <si>
-    <t>지황색</t>
-  </si>
-  <si>
     <t>#b6987e</t>
   </si>
   <si>
     <t>182; 152; 126</t>
   </si>
   <si>
-    <t>토색</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>치자색</t>
-  </si>
-  <si>
     <t>#354a8d</t>
   </si>
   <si>
     <t>53; 74; 141</t>
   </si>
   <si>
-    <t>홍황색</t>
-  </si>
-  <si>
     <t>#2e92d5</t>
   </si>
   <si>
@@ -188,9 +136,6 @@
   </si>
   <si>
     <t>115; 178; 217</t>
-  </si>
-  <si>
-    <t>금색</t>
   </si>
   <si>
     <t>#3d8fb5</t>
@@ -2329,12 +2274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자황색(赭⿈⾊</t>
-  </si>
-  <si>
-    <t>자황색(紫⿈⾊)</t>
-  </si>
-  <si>
     <t>Formular Guide Cool Gray6 C</t>
   </si>
   <si>
@@ -2445,15 +2384,378 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선홍색;담주색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>255; 181; 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#ffb500</t>
+  </si>
+  <si>
+    <t>黃色</t>
+  </si>
+  <si>
+    <t>유黃色</t>
+  </si>
+  <si>
+    <t>明黃色</t>
+  </si>
+  <si>
+    <t>淡黃色</t>
+  </si>
+  <si>
+    <t>松花色</t>
+  </si>
+  <si>
+    <t>杏黃色</t>
+  </si>
+  <si>
+    <t>豆綠色</t>
+  </si>
+  <si>
+    <t>赤黃色</t>
+  </si>
+  <si>
+    <t>土黃色</t>
+  </si>
+  <si>
+    <t>芝黃色</t>
+  </si>
+  <si>
+    <t>土色</t>
+  </si>
+  <si>
+    <t>梔子色</t>
+  </si>
+  <si>
+    <t>紅黃色</t>
+  </si>
+  <si>
+    <t>紫黃色</t>
+  </si>
+  <si>
+    <t>金色</t>
+  </si>
+  <si>
+    <t>靑色</t>
+  </si>
+  <si>
+    <t>碧色</t>
+  </si>
+  <si>
+    <t>天靑色</t>
+  </si>
+  <si>
+    <t>淡靑色</t>
+  </si>
+  <si>
+    <t>翠藍色</t>
+  </si>
+  <si>
+    <t>洋藍色</t>
+  </si>
+  <si>
+    <t>碧靑色</t>
+  </si>
+  <si>
+    <t>靑玄色</t>
+  </si>
+  <si>
+    <t>紺色</t>
+  </si>
+  <si>
+    <t>藍色</t>
+  </si>
+  <si>
+    <t>軟藍色</t>
+  </si>
+  <si>
+    <t>碧藍色</t>
+  </si>
+  <si>
+    <t>熟藍色</t>
+  </si>
+  <si>
+    <t>群靑色</t>
+  </si>
+  <si>
+    <t>綠色</t>
+  </si>
+  <si>
+    <t>明綠色</t>
+  </si>
+  <si>
+    <t>柳綠色</t>
+  </si>
+  <si>
+    <t>柳靑色</t>
+  </si>
+  <si>
+    <t>軟豆色</t>
+  </si>
+  <si>
+    <t>春柳綠色</t>
+  </si>
+  <si>
+    <t>靑綠色</t>
+  </si>
+  <si>
+    <t>眞草綠色</t>
+  </si>
+  <si>
+    <t>草綠色</t>
+  </si>
+  <si>
+    <t>黑綠色</t>
+  </si>
+  <si>
+    <t>翡色</t>
+  </si>
+  <si>
+    <t>玉色</t>
+  </si>
+  <si>
+    <t>三靑色</t>
+  </si>
+  <si>
+    <t>磊綠色</t>
+  </si>
+  <si>
+    <t>洋綠色</t>
+  </si>
+  <si>
+    <t>荷葉色</t>
+  </si>
+  <si>
+    <t>黑靑色</t>
+  </si>
+  <si>
+    <t>靑碧色</t>
+  </si>
+  <si>
+    <t>白色N</t>
+  </si>
+  <si>
+    <t>黑色N</t>
+  </si>
+  <si>
+    <t>灰色</t>
+  </si>
+  <si>
+    <t>鳩色</t>
+  </si>
+  <si>
+    <t>緇色</t>
+  </si>
+  <si>
+    <t>嚥脂灰色</t>
+  </si>
+  <si>
+    <t>雪白色</t>
+  </si>
+  <si>
+    <t>乳白色</t>
+  </si>
+  <si>
+    <t>紙白色</t>
+  </si>
+  <si>
+    <t>素色</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>紫朱色</t>
+  </si>
+  <si>
+    <t>甫羅色</t>
+  </si>
+  <si>
+    <t>紅藍色</t>
+  </si>
+  <si>
+    <t>葡萄色</t>
+  </si>
+  <si>
+    <t>靑磁色</t>
+  </si>
+  <si>
+    <t>碧紫色</t>
+  </si>
+  <si>
+    <t>灰甫羅色</t>
+  </si>
+  <si>
+    <t>淡紫色</t>
+  </si>
+  <si>
+    <t>茶紫色</t>
+  </si>
+  <si>
+    <t>赤紫色</t>
+  </si>
+  <si>
+    <t>赤色</t>
+  </si>
+  <si>
+    <t>紅色</t>
+  </si>
+  <si>
+    <t>赤土色</t>
+  </si>
+  <si>
+    <t>휴色</t>
+  </si>
+  <si>
+    <t>褐色</t>
+  </si>
+  <si>
+    <t>琥珀色</t>
+  </si>
+  <si>
+    <t>秋香色</t>
+  </si>
+  <si>
+    <t>肉色</t>
+  </si>
+  <si>
+    <t>朱色</t>
+  </si>
+  <si>
+    <t>朱紅色</t>
+  </si>
+  <si>
+    <t>淡朱色</t>
+  </si>
+  <si>
+    <t>眞紅色</t>
+  </si>
+  <si>
+    <t>鮮紅色</t>
+  </si>
+  <si>
+    <t>嚥脂色</t>
+  </si>
+  <si>
+    <t>훈色</t>
+  </si>
+  <si>
+    <t>眞粉紅色</t>
+  </si>
+  <si>
+    <t>粉紅色</t>
+  </si>
+  <si>
+    <t>軟粉紅色</t>
+  </si>
+  <si>
+    <t>長丹色</t>
+  </si>
+  <si>
+    <t>石間주色</t>
+  </si>
+  <si>
+    <t>黑紅色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">선홍색;적황색;지황색;장단색;옥색;분홍색;담주색                                                                   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명황색;초록색;구색;연지회색;자황색;연두색;연분홍색;천청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적황색;적색;회보라색;주홍색;연분홍색;천청색;자황색;옥색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;적황색;분홍색;초록색;유황색;청색;송화색;옥색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회보라색;적황색;분홍색;초록색;구색;연지회색;주홍색;옥색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금색;적색;홍황색;주홍색;적색;청색;백색;연두색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색;적색;자색;청색;청자색;자주색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍색;청색;연두색;진분홍색;옥색;자색;담황색;유청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;적색;담주색;옥색;청색;흑색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석간주색;휴색;연분홍색;유황색;구색;연지회색;연두색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토황색;갈색;구색;흑청색;홍황색;회색;다자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자황색;적색;청색;백색;연분홍색;벽자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색;다자색;홍황색;구색;담자색;치색;홍람색;자주색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;적황색;적색;보라색;흑색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;적색;연두색;분홍색;진분홍색;치자색;벽색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;황색;담황색;옥색;설백색;청색;벽자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;황색;설백색;비색;청색;지백색;벽색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담황색;옥색;구색;흑색;천청색;청색;백색;회보라색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설백색;천청색;백색;취람색;청색;회색;뇌록색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청벽색;회보라색;백색;담자색;치색;구색;흑청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토색;초록색;갈색;치색;회색;다자색;흑색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소색;초록색;연두색;적색;토색;녹색;흑청색;흑색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소색;적색;진분홍색;연두색;청색;연분홍색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담황색;진초록색;연분홍색;옥색;연두색;적황색;소색;벽자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;연람색;담자색;자색;회보라색;포도색;구색;다자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2837,2258 +3139,2233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="5.625" customWidth="1"/>
     <col min="4" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="69.25" customWidth="1"/>
-    <col min="8" max="8" width="67.375" customWidth="1"/>
+    <col min="7" max="7" width="94.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H10" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" t="s">
+        <v>481</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16" t="s">
+        <v>467</v>
+      </c>
+      <c r="E16" t="s">
+        <v>466</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" t="s">
+        <v>483</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H17" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H18" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" t="s">
+        <v>485</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H19" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" t="s">
+        <v>486</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" t="s">
+        <v>487</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" t="s">
+        <v>489</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" t="s">
+        <v>490</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>286</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" t="s">
+        <v>491</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H25" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" t="s">
+        <v>492</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H26" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" t="s">
+        <v>493</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>289</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H27" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>290</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H28" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>395</v>
+      </c>
+      <c r="C29" t="s">
+        <v>495</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H29" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" t="s">
+        <v>496</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H30" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C31" t="s">
+        <v>497</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" t="s">
+        <v>403</v>
+      </c>
+      <c r="C32" t="s">
+        <v>498</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
+        <v>404</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C34" t="s">
+        <v>500</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" t="s">
+        <v>406</v>
+      </c>
+      <c r="C35" t="s">
+        <v>501</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" t="s">
+        <v>502</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" t="s">
+        <v>408</v>
+      </c>
+      <c r="C37" t="s">
+        <v>503</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C38" t="s">
+        <v>504</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s">
+        <v>402</v>
+      </c>
+      <c r="C39" t="s">
+        <v>505</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
+        <v>410</v>
+      </c>
+      <c r="C40" t="s">
+        <v>506</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" t="s">
+        <v>507</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" t="s">
+        <v>508</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" t="s">
+        <v>509</v>
+      </c>
+      <c r="D43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" t="s">
+        <v>412</v>
+      </c>
+      <c r="C44" t="s">
+        <v>510</v>
+      </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" t="s">
+        <v>511</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" t="s">
+        <v>414</v>
+      </c>
+      <c r="C46" t="s">
+        <v>512</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" t="s">
+        <v>397</v>
+      </c>
+      <c r="C47" t="s">
+        <v>513</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" t="s">
+        <v>398</v>
+      </c>
+      <c r="C48" t="s">
+        <v>514</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>424</v>
+      </c>
+      <c r="C49" t="s">
+        <v>515</v>
+      </c>
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>311</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" t="s">
+        <v>432</v>
+      </c>
+      <c r="C50" t="s">
+        <v>516</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>312</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" t="s">
+        <v>429</v>
+      </c>
+      <c r="C51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
+        <v>313</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" t="s">
+        <v>428</v>
+      </c>
+      <c r="C52" t="s">
+        <v>518</v>
+      </c>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" t="s">
+        <v>431</v>
+      </c>
+      <c r="C53" t="s">
+        <v>519</v>
+      </c>
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
+        <v>314</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" t="s">
+        <v>430</v>
+      </c>
+      <c r="C54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
+        <v>315</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" t="s">
+        <v>425</v>
+      </c>
+      <c r="C55" t="s">
+        <v>521</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
+        <v>316</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C56" t="s">
+        <v>522</v>
+      </c>
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
+        <v>317</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" t="s">
+        <v>426</v>
+      </c>
+      <c r="C57" t="s">
+        <v>523</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
+        <v>318</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" t="s">
+        <v>427</v>
+      </c>
+      <c r="C58" t="s">
+        <v>524</v>
+      </c>
+      <c r="D58" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
+        <v>319</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" t="s">
+        <v>415</v>
+      </c>
+      <c r="C59" t="s">
+        <v>525</v>
+      </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" t="s">
+        <v>415</v>
+      </c>
+      <c r="C60" t="s">
+        <v>526</v>
+      </c>
+      <c r="D60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
+        <v>321</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" t="s">
+        <v>416</v>
+      </c>
+      <c r="C61" t="s">
+        <v>527</v>
+      </c>
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
+        <v>322</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" t="s">
+        <v>417</v>
+      </c>
+      <c r="C62" t="s">
+        <v>528</v>
+      </c>
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
+        <v>323</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" t="s">
+        <v>394</v>
+      </c>
+      <c r="C63" t="s">
+        <v>529</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
+        <v>324</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>435</v>
+      </c>
+      <c r="B64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C64" t="s">
+        <v>530</v>
+      </c>
+      <c r="D64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
+        <v>325</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" t="s">
+        <v>419</v>
+      </c>
+      <c r="C65" t="s">
+        <v>531</v>
+      </c>
+      <c r="D65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" t="s">
+        <v>420</v>
+      </c>
+      <c r="C66" t="s">
+        <v>532</v>
+      </c>
+      <c r="D66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
+        <v>327</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" t="s">
+        <v>421</v>
+      </c>
+      <c r="C67" t="s">
+        <v>533</v>
+      </c>
+      <c r="D67" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
+        <v>328</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" t="s">
+        <v>422</v>
+      </c>
+      <c r="C68" t="s">
+        <v>534</v>
+      </c>
+      <c r="D68" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
+        <v>329</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" t="s">
+        <v>423</v>
+      </c>
+      <c r="C69" t="s">
+        <v>535</v>
+      </c>
+      <c r="D69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
+        <v>330</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" t="s">
+        <v>351</v>
+      </c>
+      <c r="C70" t="s">
+        <v>536</v>
+      </c>
+      <c r="D70" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
+        <v>331</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H70" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C71" t="s">
+        <v>537</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
+        <v>332</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H71" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" t="s">
+        <v>538</v>
+      </c>
+      <c r="D72" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
+        <v>333</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H72" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" t="s">
+        <v>539</v>
+      </c>
+      <c r="D73" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
+        <v>334</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H73" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" t="s">
+        <v>356</v>
+      </c>
+      <c r="C74" t="s">
+        <v>540</v>
+      </c>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
+        <v>335</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H74" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>436</v>
+      </c>
+      <c r="B75" t="s">
+        <v>357</v>
+      </c>
+      <c r="C75" t="s">
+        <v>541</v>
+      </c>
+      <c r="D75" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H75" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" t="s">
+        <v>542</v>
+      </c>
+      <c r="D76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
+        <v>336</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H76" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B77" t="s">
+        <v>359</v>
+      </c>
+      <c r="C77" t="s">
+        <v>543</v>
+      </c>
+      <c r="D77" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
+        <v>337</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H77" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" t="s">
+        <v>544</v>
+      </c>
+      <c r="D78" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
+        <v>338</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H78" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" t="s">
+        <v>545</v>
+      </c>
+      <c r="D79" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
+        <v>339</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H79" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>253</v>
+      </c>
+      <c r="B80" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" t="s">
+        <v>546</v>
+      </c>
+      <c r="D80" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
+        <v>340</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H80" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" t="s">
+        <v>368</v>
+      </c>
+      <c r="C81" t="s">
+        <v>547</v>
+      </c>
+      <c r="D81" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
+        <v>341</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H81" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" t="s">
+        <v>363</v>
+      </c>
+      <c r="C82" t="s">
+        <v>548</v>
+      </c>
+      <c r="D82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
+        <v>342</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H82" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" t="s">
+        <v>364</v>
+      </c>
+      <c r="C83" t="s">
+        <v>549</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
+        <v>343</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H83" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" t="s">
+        <v>365</v>
+      </c>
+      <c r="C84" t="s">
+        <v>550</v>
+      </c>
+      <c r="D84" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
+        <v>344</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H84" t="s">
         <v>458</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="1" t="s">
+    </row>
+    <row r="85" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" t="s">
+        <v>366</v>
+      </c>
+      <c r="C85" t="s">
+        <v>551</v>
+      </c>
+      <c r="D85" t="s">
+        <v>167</v>
+      </c>
+      <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
+        <v>345</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H85" t="s">
         <v>459</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="86" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" t="s">
+        <v>370</v>
+      </c>
+      <c r="C86" t="s">
+        <v>552</v>
+      </c>
+      <c r="D86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
+        <v>346</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="H86" t="s">
         <v>460</v>
       </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="87" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>260</v>
+      </c>
+      <c r="B87" t="s">
+        <v>367</v>
+      </c>
+      <c r="C87" t="s">
+        <v>553</v>
+      </c>
+      <c r="D87" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
+        <v>347</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H87" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" t="s">
+        <v>353</v>
+      </c>
+      <c r="C88" t="s">
+        <v>554</v>
+      </c>
+      <c r="D88" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
+        <v>348</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H88" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" t="s">
+        <v>371</v>
+      </c>
+      <c r="C89" t="s">
+        <v>555</v>
+      </c>
+      <c r="D89" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
+        <v>349</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H89" t="s">
         <v>447</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="90" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" t="s">
         <v>369</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H70" s="1" t="s">
+      <c r="C90" t="s">
+        <v>556</v>
+      </c>
+      <c r="D90" t="s">
+        <v>177</v>
+      </c>
+      <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
+        <v>350</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H90" t="s">
         <v>463</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6173F7A-19C7-4B4E-B1E6-BCB987C8B962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4490E5F-BC18-412A-90D6-6FAA0A85DAC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="606">
   <si>
     <t>#ecd437</t>
   </si>
@@ -2755,6 +2755,102 @@
   </si>
   <si>
     <t>백색;연람색;담자색;자색;회보라색;포도색;구색;다자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;감색;청색;행황색;적색;두록색;흑청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구색;담자색;설백색;치색;자황색;백색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구색;담자색;백색;흑색;천청색;치색;회보라색;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;초록색;구색;흑색;담황색;옥색;천청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;홍황색;담황색;연두색;자황색;백색;뇌록색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담황색;연분홍색;백색;청벽색;회보라색;회색;비색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;적색;청색;유황색;보라색;연두색;뇌록색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;연두색;담황색;청색;백색;천청색;구색;흑록색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담황색;옥색;진분홍색;청색;분홍색;적색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥색;비색;진초록색;연두색;흑록색;백색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담황색;자색;백색;흑색;분홍색;자황색;보라색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;적황색;소색;자황색;벽자색;청록색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설백색;적색;백색;초록색;벽자색;소색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적색;청색;소색;구색;지황색;자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;적색;자주색;청색;춘유록색;연두색;담황색;보라색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;자색;벽자색;흑색;회색;청색;적색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적색;청색;적황색;담황색;자황색;황색;진분홍색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;천청색;비색;흑색;구색;청색;연두색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;흑색;자황색;양록색;적색;회보라색;벽청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구색;흑색;분홍색;청색;백색;자황색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;흑색;토황색;석간주색;회색;홍람색;구색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담황색;연두색;분홍색;진분홍색;지황색;흑색;구색;청자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회보라색;남색;두록색;흑색;지황색;다자색;홍황색;양람색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;벽청색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3139,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3670,6 +3766,9 @@
       <c r="G20" s="1" t="s">
         <v>439</v>
       </c>
+      <c r="H20" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -3693,6 +3792,9 @@
       <c r="G21" s="1" t="s">
         <v>439</v>
       </c>
+      <c r="H21" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -3716,6 +3818,9 @@
       <c r="G22" s="1" t="s">
         <v>439</v>
       </c>
+      <c r="H22" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -3947,6 +4052,9 @@
       <c r="G31" s="1" t="s">
         <v>439</v>
       </c>
+      <c r="H31" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -3970,8 +4078,11 @@
       <c r="G32" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -3993,8 +4104,11 @@
       <c r="G33" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -4016,8 +4130,11 @@
       <c r="G34" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>210</v>
       </c>
@@ -4039,8 +4156,11 @@
       <c r="G35" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>211</v>
       </c>
@@ -4062,8 +4182,11 @@
       <c r="G36" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>212</v>
       </c>
@@ -4085,8 +4208,11 @@
       <c r="G37" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>213</v>
       </c>
@@ -4108,8 +4234,11 @@
       <c r="G38" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>214</v>
       </c>
@@ -4131,8 +4260,11 @@
       <c r="G39" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>215</v>
       </c>
@@ -4154,8 +4286,11 @@
       <c r="G40" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>216</v>
       </c>
@@ -4177,8 +4312,11 @@
       <c r="G41" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -4200,8 +4338,11 @@
       <c r="G42" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>218</v>
       </c>
@@ -4223,8 +4364,11 @@
       <c r="G43" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>219</v>
       </c>
@@ -4246,8 +4390,11 @@
       <c r="G44" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>220</v>
       </c>
@@ -4269,8 +4416,11 @@
       <c r="G45" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -4292,8 +4442,11 @@
       <c r="G46" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>222</v>
       </c>
@@ -4315,8 +4468,11 @@
       <c r="G47" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -4338,8 +4494,11 @@
       <c r="G48" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>224</v>
       </c>
@@ -4362,7 +4521,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>225</v>
       </c>
@@ -4385,7 +4544,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>226</v>
       </c>
@@ -4408,7 +4567,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>227</v>
       </c>
@@ -4431,7 +4590,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>228</v>
       </c>
@@ -4454,7 +4613,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>229</v>
       </c>
@@ -4477,7 +4636,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>230</v>
       </c>
@@ -4500,7 +4659,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -4523,7 +4682,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>232</v>
       </c>
@@ -4546,7 +4705,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>233</v>
       </c>
@@ -4569,7 +4728,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>234</v>
       </c>
@@ -4591,8 +4750,11 @@
       <c r="G59" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -4614,8 +4776,11 @@
       <c r="G60" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>236</v>
       </c>
@@ -4637,8 +4802,11 @@
       <c r="G61" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>237</v>
       </c>
@@ -4661,7 +4829,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>238</v>
       </c>
@@ -4684,7 +4852,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>435</v>
       </c>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4490E5F-BC18-412A-90D6-6FAA0A85DAC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C81B52-ECE7-4D40-9BDD-4CFDC6ECAA35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="607">
   <si>
     <t>#ecd437</t>
   </si>
@@ -2394,9 +2394,6 @@
     <t>黃色</t>
   </si>
   <si>
-    <t>유黃色</t>
-  </si>
-  <si>
     <t>明黃色</t>
   </si>
   <si>
@@ -2851,6 +2848,14 @@
   </si>
   <si>
     <t>황색;벽청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃色 천하를 통치하는 황제, 오행 중 토행이고 비옥하다. &lt;세종실록&gt; "임금이 영을 내려 황색에 가까운 복색과 서민의 단령의를 금하였다"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유黃色 &lt;청장관전서&gt; 유황색의 물감을 만들 때 분에 삼록표와 등황을 넣어 조제하였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3235,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3258,7 +3263,7 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
-        <v>468</v>
+        <v>605</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3284,7 +3289,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>606</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3310,7 +3315,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -3325,7 +3330,7 @@
         <v>438</v>
       </c>
       <c r="H3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -3336,7 +3341,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3351,7 +3356,7 @@
         <v>438</v>
       </c>
       <c r="H4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3362,7 +3367,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -3377,7 +3382,7 @@
         <v>438</v>
       </c>
       <c r="H5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3403,7 +3408,7 @@
         <v>438</v>
       </c>
       <c r="H6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3414,7 +3419,7 @@
         <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -3429,7 +3434,7 @@
         <v>438</v>
       </c>
       <c r="H7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3440,7 +3445,7 @@
         <v>377</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -3455,7 +3460,7 @@
         <v>438</v>
       </c>
       <c r="H8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3466,7 +3471,7 @@
         <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -3481,7 +3486,7 @@
         <v>438</v>
       </c>
       <c r="H9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3492,7 +3497,7 @@
         <v>383</v>
       </c>
       <c r="C10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -3507,7 +3512,7 @@
         <v>438</v>
       </c>
       <c r="H10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3518,7 +3523,7 @@
         <v>380</v>
       </c>
       <c r="C11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -3533,7 +3538,7 @@
         <v>438</v>
       </c>
       <c r="H11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3544,7 +3549,7 @@
         <v>384</v>
       </c>
       <c r="C12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -3559,7 +3564,7 @@
         <v>438</v>
       </c>
       <c r="H12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3570,7 +3575,7 @@
         <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -3585,7 +3590,7 @@
         <v>438</v>
       </c>
       <c r="H13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3596,7 +3601,7 @@
         <v>385</v>
       </c>
       <c r="C14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -3611,7 +3616,7 @@
         <v>438</v>
       </c>
       <c r="H14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3622,7 +3627,7 @@
         <v>386</v>
       </c>
       <c r="C15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -3637,7 +3642,7 @@
         <v>438</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3648,7 +3653,7 @@
         <v>387</v>
       </c>
       <c r="C16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D16" t="s">
         <v>467</v>
@@ -3663,7 +3668,7 @@
         <v>438</v>
       </c>
       <c r="H16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3674,7 +3679,7 @@
         <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -3689,7 +3694,7 @@
         <v>439</v>
       </c>
       <c r="H17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3700,7 +3705,7 @@
         <v>389</v>
       </c>
       <c r="C18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -3715,7 +3720,7 @@
         <v>439</v>
       </c>
       <c r="H18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3726,7 +3731,7 @@
         <v>390</v>
       </c>
       <c r="C19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -3741,7 +3746,7 @@
         <v>439</v>
       </c>
       <c r="H19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3752,7 +3757,7 @@
         <v>399</v>
       </c>
       <c r="C20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
@@ -3767,7 +3772,7 @@
         <v>439</v>
       </c>
       <c r="H20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3778,7 +3783,7 @@
         <v>400</v>
       </c>
       <c r="C21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -3793,7 +3798,7 @@
         <v>439</v>
       </c>
       <c r="H21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3804,7 +3809,7 @@
         <v>401</v>
       </c>
       <c r="C22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
@@ -3819,7 +3824,7 @@
         <v>439</v>
       </c>
       <c r="H22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3830,7 +3835,7 @@
         <v>391</v>
       </c>
       <c r="C23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
@@ -3845,7 +3850,7 @@
         <v>439</v>
       </c>
       <c r="H23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3856,7 +3861,7 @@
         <v>392</v>
       </c>
       <c r="C24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
@@ -3871,7 +3876,7 @@
         <v>439</v>
       </c>
       <c r="H24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3882,7 +3887,7 @@
         <v>393</v>
       </c>
       <c r="C25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
@@ -3897,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="H25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3908,7 +3913,7 @@
         <v>393</v>
       </c>
       <c r="C26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D26" t="s">
         <v>49</v>
@@ -3923,7 +3928,7 @@
         <v>439</v>
       </c>
       <c r="H26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3934,7 +3939,7 @@
         <v>394</v>
       </c>
       <c r="C27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
@@ -3949,7 +3954,7 @@
         <v>439</v>
       </c>
       <c r="H27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3960,7 +3965,7 @@
         <v>394</v>
       </c>
       <c r="C28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
@@ -3975,7 +3980,7 @@
         <v>439</v>
       </c>
       <c r="H28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3986,7 +3991,7 @@
         <v>395</v>
       </c>
       <c r="C29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
@@ -4001,7 +4006,7 @@
         <v>439</v>
       </c>
       <c r="H29" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4012,7 +4017,7 @@
         <v>393</v>
       </c>
       <c r="C30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D30" t="s">
         <v>57</v>
@@ -4027,7 +4032,7 @@
         <v>439</v>
       </c>
       <c r="H30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4038,7 +4043,7 @@
         <v>402</v>
       </c>
       <c r="C31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
@@ -4053,7 +4058,7 @@
         <v>439</v>
       </c>
       <c r="H31" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4064,7 +4069,7 @@
         <v>403</v>
       </c>
       <c r="C32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D32" t="s">
         <v>61</v>
@@ -4079,7 +4084,7 @@
         <v>439</v>
       </c>
       <c r="H32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4090,7 +4095,7 @@
         <v>404</v>
       </c>
       <c r="C33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
@@ -4105,7 +4110,7 @@
         <v>439</v>
       </c>
       <c r="H33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4116,7 +4121,7 @@
         <v>405</v>
       </c>
       <c r="C34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D34" t="s">
         <v>65</v>
@@ -4131,7 +4136,7 @@
         <v>439</v>
       </c>
       <c r="H34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4142,7 +4147,7 @@
         <v>406</v>
       </c>
       <c r="C35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D35" t="s">
         <v>67</v>
@@ -4157,7 +4162,7 @@
         <v>439</v>
       </c>
       <c r="H35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4168,7 +4173,7 @@
         <v>407</v>
       </c>
       <c r="C36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -4183,7 +4188,7 @@
         <v>439</v>
       </c>
       <c r="H36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4194,7 +4199,7 @@
         <v>408</v>
       </c>
       <c r="C37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D37" t="s">
         <v>71</v>
@@ -4209,7 +4214,7 @@
         <v>439</v>
       </c>
       <c r="H37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4220,7 +4225,7 @@
         <v>409</v>
       </c>
       <c r="C38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
@@ -4235,7 +4240,7 @@
         <v>439</v>
       </c>
       <c r="H38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4246,7 +4251,7 @@
         <v>402</v>
       </c>
       <c r="C39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D39" t="s">
         <v>75</v>
@@ -4261,7 +4266,7 @@
         <v>439</v>
       </c>
       <c r="H39" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4272,7 +4277,7 @@
         <v>410</v>
       </c>
       <c r="C40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D40" t="s">
         <v>77</v>
@@ -4287,7 +4292,7 @@
         <v>439</v>
       </c>
       <c r="H40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4298,7 +4303,7 @@
         <v>400</v>
       </c>
       <c r="C41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D41" t="s">
         <v>79</v>
@@ -4313,7 +4318,7 @@
         <v>439</v>
       </c>
       <c r="H41" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4324,7 +4329,7 @@
         <v>411</v>
       </c>
       <c r="C42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D42" t="s">
         <v>81</v>
@@ -4339,7 +4344,7 @@
         <v>439</v>
       </c>
       <c r="H42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4350,7 +4355,7 @@
         <v>396</v>
       </c>
       <c r="C43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D43" t="s">
         <v>83</v>
@@ -4365,7 +4370,7 @@
         <v>439</v>
       </c>
       <c r="H43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4376,7 +4381,7 @@
         <v>412</v>
       </c>
       <c r="C44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D44" t="s">
         <v>85</v>
@@ -4391,7 +4396,7 @@
         <v>439</v>
       </c>
       <c r="H44" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4402,7 +4407,7 @@
         <v>413</v>
       </c>
       <c r="C45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D45" t="s">
         <v>87</v>
@@ -4417,7 +4422,7 @@
         <v>439</v>
       </c>
       <c r="H45" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4428,7 +4433,7 @@
         <v>414</v>
       </c>
       <c r="C46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D46" t="s">
         <v>89</v>
@@ -4443,7 +4448,7 @@
         <v>439</v>
       </c>
       <c r="H46" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4454,7 +4459,7 @@
         <v>397</v>
       </c>
       <c r="C47" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D47" t="s">
         <v>91</v>
@@ -4469,7 +4474,7 @@
         <v>439</v>
       </c>
       <c r="H47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4480,7 +4485,7 @@
         <v>398</v>
       </c>
       <c r="C48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D48" t="s">
         <v>93</v>
@@ -4495,7 +4500,7 @@
         <v>439</v>
       </c>
       <c r="H48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -4506,7 +4511,7 @@
         <v>424</v>
       </c>
       <c r="C49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D49" t="s">
         <v>95</v>
@@ -4529,7 +4534,7 @@
         <v>432</v>
       </c>
       <c r="C50" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D50" t="s">
         <v>97</v>
@@ -4552,7 +4557,7 @@
         <v>429</v>
       </c>
       <c r="C51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D51" t="s">
         <v>99</v>
@@ -4575,7 +4580,7 @@
         <v>428</v>
       </c>
       <c r="C52" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D52" t="s">
         <v>101</v>
@@ -4598,7 +4603,7 @@
         <v>431</v>
       </c>
       <c r="C53" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D53" t="s">
         <v>103</v>
@@ -4621,7 +4626,7 @@
         <v>430</v>
       </c>
       <c r="C54" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D54" t="s">
         <v>105</v>
@@ -4644,7 +4649,7 @@
         <v>425</v>
       </c>
       <c r="C55" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D55" t="s">
         <v>107</v>
@@ -4667,7 +4672,7 @@
         <v>426</v>
       </c>
       <c r="C56" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D56" t="s">
         <v>109</v>
@@ -4690,7 +4695,7 @@
         <v>426</v>
       </c>
       <c r="C57" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -4713,7 +4718,7 @@
         <v>427</v>
       </c>
       <c r="C58" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D58" t="s">
         <v>113</v>
@@ -4736,7 +4741,7 @@
         <v>415</v>
       </c>
       <c r="C59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D59" t="s">
         <v>115</v>
@@ -4751,7 +4756,7 @@
         <v>441</v>
       </c>
       <c r="H59" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4762,7 +4767,7 @@
         <v>415</v>
       </c>
       <c r="C60" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D60" t="s">
         <v>117</v>
@@ -4777,7 +4782,7 @@
         <v>441</v>
       </c>
       <c r="H60" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -4788,7 +4793,7 @@
         <v>416</v>
       </c>
       <c r="C61" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D61" t="s">
         <v>119</v>
@@ -4803,7 +4808,7 @@
         <v>441</v>
       </c>
       <c r="H61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -4814,7 +4819,7 @@
         <v>417</v>
       </c>
       <c r="C62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D62" t="s">
         <v>121</v>
@@ -4837,7 +4842,7 @@
         <v>394</v>
       </c>
       <c r="C63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D63" t="s">
         <v>123</v>
@@ -4860,7 +4865,7 @@
         <v>418</v>
       </c>
       <c r="C64" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D64" t="s">
         <v>125</v>
@@ -4883,7 +4888,7 @@
         <v>419</v>
       </c>
       <c r="C65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D65" t="s">
         <v>127</v>
@@ -4906,7 +4911,7 @@
         <v>420</v>
       </c>
       <c r="C66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D66" t="s">
         <v>129</v>
@@ -4929,7 +4934,7 @@
         <v>421</v>
       </c>
       <c r="C67" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D67" t="s">
         <v>131</v>
@@ -4952,7 +4957,7 @@
         <v>422</v>
       </c>
       <c r="C68" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D68" t="s">
         <v>133</v>
@@ -4975,7 +4980,7 @@
         <v>423</v>
       </c>
       <c r="C69" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D69" t="s">
         <v>135</v>
@@ -4998,7 +5003,7 @@
         <v>351</v>
       </c>
       <c r="C70" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D70" t="s">
         <v>137</v>
@@ -5024,7 +5029,7 @@
         <v>352</v>
       </c>
       <c r="C71" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D71" t="s">
         <v>139</v>
@@ -5050,7 +5055,7 @@
         <v>354</v>
       </c>
       <c r="C72" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D72" t="s">
         <v>141</v>
@@ -5076,7 +5081,7 @@
         <v>355</v>
       </c>
       <c r="C73" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D73" t="s">
         <v>143</v>
@@ -5102,7 +5107,7 @@
         <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D74" t="s">
         <v>145</v>
@@ -5128,7 +5133,7 @@
         <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D75" t="s">
         <v>147</v>
@@ -5154,7 +5159,7 @@
         <v>358</v>
       </c>
       <c r="C76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D76" t="s">
         <v>149</v>
@@ -5180,7 +5185,7 @@
         <v>359</v>
       </c>
       <c r="C77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D77" t="s">
         <v>151</v>
@@ -5206,7 +5211,7 @@
         <v>360</v>
       </c>
       <c r="C78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D78" t="s">
         <v>153</v>
@@ -5232,7 +5237,7 @@
         <v>361</v>
       </c>
       <c r="C79" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D79" t="s">
         <v>155</v>
@@ -5258,7 +5263,7 @@
         <v>362</v>
       </c>
       <c r="C80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D80" t="s">
         <v>157</v>
@@ -5284,7 +5289,7 @@
         <v>368</v>
       </c>
       <c r="C81" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D81" t="s">
         <v>159</v>
@@ -5310,7 +5315,7 @@
         <v>363</v>
       </c>
       <c r="C82" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D82" t="s">
         <v>161</v>
@@ -5336,7 +5341,7 @@
         <v>364</v>
       </c>
       <c r="C83" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D83" t="s">
         <v>163</v>
@@ -5362,7 +5367,7 @@
         <v>365</v>
       </c>
       <c r="C84" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D84" t="s">
         <v>165</v>
@@ -5388,7 +5393,7 @@
         <v>366</v>
       </c>
       <c r="C85" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D85" t="s">
         <v>167</v>
@@ -5414,7 +5419,7 @@
         <v>370</v>
       </c>
       <c r="C86" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D86" t="s">
         <v>169</v>
@@ -5440,7 +5445,7 @@
         <v>367</v>
       </c>
       <c r="C87" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D87" t="s">
         <v>171</v>
@@ -5466,7 +5471,7 @@
         <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D88" t="s">
         <v>173</v>
@@ -5492,7 +5497,7 @@
         <v>371</v>
       </c>
       <c r="C89" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D89" t="s">
         <v>175</v>
@@ -5518,7 +5523,7 @@
         <v>369</v>
       </c>
       <c r="C90" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D90" t="s">
         <v>177</v>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C81B52-ECE7-4D40-9BDD-4CFDC6ECAA35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11647908-ED9B-4506-8A18-D4359CE08326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="619">
   <si>
     <t>#ecd437</t>
   </si>
@@ -2856,6 +2856,54 @@
   </si>
   <si>
     <t>유黃色 &lt;청장관전서&gt; 유황색의 물감을 만들 때 분에 삼록표와 등황을 넣어 조제하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;보라색;연분홍색;담자색;벽자색;감색;천청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회보라색;청자색;황색;자주색;토색;흑록색;회색;군청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;적색;적황색;회보라색;보라색;천청색;벽자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담황색;연분홍색;연지회색;남색;비색;회색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;주색;황색;회보라색;치색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담주색;적색;황색;석간주색;백색;자색;회색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행황색;적색;황색;석간주색;백색;자색;회색;청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담황색;연두색;백색;황색;회보라색;벽자색;담자색;자주색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구색;연두색;천청색;적색;청색;회색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소색;구색;옥색;천청색;청색;연분홍색;청벽색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;소색;지황색;연지회색;천청색;연분홍색;담자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3240,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4525,6 +4573,9 @@
       <c r="G49" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="H49" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -4663,6 +4714,9 @@
       <c r="G55" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="H55" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -4686,6 +4740,9 @@
       <c r="G56" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="H56" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -4709,6 +4766,9 @@
       <c r="G57" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="H57" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -4833,6 +4893,9 @@
       <c r="G62" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="H62" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -4856,6 +4919,9 @@
       <c r="G63" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="H63" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -4879,6 +4945,9 @@
       <c r="G64" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="H64" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -4902,6 +4971,9 @@
       <c r="G65" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="H65" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -4925,6 +4997,9 @@
       <c r="G66" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="H66" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -4948,6 +5023,9 @@
       <c r="G67" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="H67" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -4971,6 +5049,9 @@
       <c r="G68" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="H68" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -4993,6 +5074,9 @@
       </c>
       <c r="G69" s="1" t="s">
         <v>441</v>
+      </c>
+      <c r="H69" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.3">

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11647908-ED9B-4506-8A18-D4359CE08326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102919FF-5AC1-4471-9054-814E5C742BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="625">
   <si>
     <t>#ecd437</t>
   </si>
@@ -2847,10 +2847,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>황색;벽청색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黃色 천하를 통치하는 황제, 오행 중 토행이고 비옥하다. &lt;세종실록&gt; "임금이 영을 내려 황색에 가까운 복색과 서민의 단령의를 금하였다"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2903,7 +2899,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백색;</t>
+    <t>백색;자황색;소색;홍황색;구색;연지회색;자황색;연두색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지백색;자황색;갈색;백색;연지회색;유황색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황색;벽청색;비색;청색;유록색;청자색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소색;치색;백색;청벽색;벽청색;흑색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색;치색;벽자색;청색;군청색;명황색;적색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소색;다자색;회색;담자색;적색;구색;흑색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구색;흑색;백색;연지회색;청색;소색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두록색;회색;백색;자황색;적색;청색;흑청색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3288,8 +3312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3311,7 +3335,7 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3337,7 +3361,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4574,7 +4598,7 @@
         <v>440</v>
       </c>
       <c r="H49" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -4599,6 +4623,9 @@
       <c r="G50" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="H50" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -4622,6 +4649,9 @@
       <c r="G51" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="H51" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -4645,6 +4675,9 @@
       <c r="G52" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="H52" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -4668,6 +4701,9 @@
       <c r="G53" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="H53" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -4691,6 +4727,9 @@
       <c r="G54" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="H54" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -4715,7 +4754,7 @@
         <v>440</v>
       </c>
       <c r="H55" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4741,7 +4780,7 @@
         <v>440</v>
       </c>
       <c r="H56" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4767,7 +4806,7 @@
         <v>440</v>
       </c>
       <c r="H57" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4792,6 +4831,9 @@
       <c r="G58" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="H58" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -4868,7 +4910,7 @@
         <v>441</v>
       </c>
       <c r="H61" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -4894,7 +4936,7 @@
         <v>441</v>
       </c>
       <c r="H62" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4920,7 +4962,7 @@
         <v>441</v>
       </c>
       <c r="H63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -4946,7 +4988,7 @@
         <v>441</v>
       </c>
       <c r="H64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4972,7 +5014,7 @@
         <v>441</v>
       </c>
       <c r="H65" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4998,7 +5040,7 @@
         <v>441</v>
       </c>
       <c r="H66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -5024,7 +5066,7 @@
         <v>441</v>
       </c>
       <c r="H67" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -5050,7 +5092,7 @@
         <v>441</v>
       </c>
       <c r="H68" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -5076,7 +5118,7 @@
         <v>441</v>
       </c>
       <c r="H69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.3">

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102919FF-5AC1-4471-9054-814E5C742BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F46802-5CAA-4FFB-85A8-2807BBFD1069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="702">
   <si>
     <t>#ecd437</t>
   </si>
@@ -2930,12 +2930,243 @@
     <t>두록색;회색;백색;자황색;적색;청색;흑청색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>light yellow</t>
+  </si>
+  <si>
+    <t>bright yellow</t>
+  </si>
+  <si>
+    <t>pale yellow</t>
+  </si>
+  <si>
+    <t>dull yellow</t>
+  </si>
+  <si>
+    <t>apricot</t>
+  </si>
+  <si>
+    <t>pea green</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>ocher</t>
+  </si>
+  <si>
+    <t>mustard</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>egg yolk</t>
+  </si>
+  <si>
+    <t>yellow-pink</t>
+  </si>
+  <si>
+    <t>amber</t>
+  </si>
+  <si>
+    <t>golden</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>sky blue</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>turquoise</t>
+  </si>
+  <si>
+    <t>ultramarine</t>
+  </si>
+  <si>
+    <t>bright blue</t>
+  </si>
+  <si>
+    <t>dark blue</t>
+  </si>
+  <si>
+    <t>navy blue</t>
+  </si>
+  <si>
+    <t>indigo</t>
+  </si>
+  <si>
+    <t>soft purple</t>
+  </si>
+  <si>
+    <t>dull purple</t>
+  </si>
+  <si>
+    <t>grape</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>bright green</t>
+  </si>
+  <si>
+    <t>willow green</t>
+  </si>
+  <si>
+    <t>grass green</t>
+  </si>
+  <si>
+    <t>light green</t>
+  </si>
+  <si>
+    <t>spring green</t>
+  </si>
+  <si>
+    <t>blue-green</t>
+  </si>
+  <si>
+    <t>deep green</t>
+  </si>
+  <si>
+    <t>dark green</t>
+  </si>
+  <si>
+    <t>jade green</t>
+  </si>
+  <si>
+    <t>peacock green</t>
+  </si>
+  <si>
+    <t>emerald green</t>
+  </si>
+  <si>
+    <t>lotus leaf</t>
+  </si>
+  <si>
+    <t>dark blue-gray</t>
+  </si>
+  <si>
+    <t>dull blue</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>dove gray</t>
+  </si>
+  <si>
+    <t>mouse gray</t>
+  </si>
+  <si>
+    <t>grayish purple</t>
+  </si>
+  <si>
+    <t>snow white</t>
+  </si>
+  <si>
+    <t>milky white</t>
+  </si>
+  <si>
+    <t>paper white</t>
+  </si>
+  <si>
+    <t>light grayish yellow</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>deep purple</t>
+  </si>
+  <si>
+    <t>bright purple</t>
+  </si>
+  <si>
+    <t>lavender</t>
+  </si>
+  <si>
+    <t>lilac</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
+    <t>dark brown</t>
+  </si>
+  <si>
+    <t>reddish purple</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>bright red</t>
+  </si>
+  <si>
+    <t>deep pink</t>
+  </si>
+  <si>
+    <t>brick red</t>
+  </si>
+  <si>
+    <t>light brown</t>
+  </si>
+  <si>
+    <t>flesh color</t>
+  </si>
+  <si>
+    <t>vermilion</t>
+  </si>
+  <si>
+    <t>scarlet</t>
+  </si>
+  <si>
+    <t>light orange</t>
+  </si>
+  <si>
+    <t>bright pink</t>
+  </si>
+  <si>
+    <t>rouge</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>light pink</t>
+  </si>
+  <si>
+    <t>reddish brown</t>
+  </si>
+  <si>
+    <t>dark red</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2966,6 +3197,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2975,12 +3212,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2989,12 +3241,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3310,10 +3565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3327,7 +3582,7 @@
     <col min="8" max="8" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>179</v>
       </c>
@@ -3346,14 +3601,17 @@
       <c r="F1" t="s">
         <v>264</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>438</v>
       </c>
       <c r="H1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -3372,14 +3630,17 @@
       <c r="F2" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>438</v>
       </c>
       <c r="H2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -3398,14 +3659,17 @@
       <c r="F3" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>438</v>
       </c>
       <c r="H3" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -3424,14 +3688,17 @@
       <c r="F4" t="s">
         <v>267</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>438</v>
       </c>
       <c r="H4" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -3450,14 +3717,17 @@
       <c r="F5" t="s">
         <v>268</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>438</v>
       </c>
       <c r="H5" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>433</v>
       </c>
@@ -3476,14 +3746,17 @@
       <c r="F6" t="s">
         <v>269</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>438</v>
       </c>
       <c r="H6" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -3502,14 +3775,17 @@
       <c r="F7" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>438</v>
       </c>
       <c r="H7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -3528,14 +3804,17 @@
       <c r="F8" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>438</v>
       </c>
       <c r="H8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -3554,14 +3833,17 @@
       <c r="F9" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>438</v>
       </c>
       <c r="H9" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -3580,14 +3862,17 @@
       <c r="F10" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>438</v>
       </c>
       <c r="H10" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -3606,14 +3891,17 @@
       <c r="F11" t="s">
         <v>274</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>438</v>
       </c>
       <c r="H11" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -3632,14 +3920,17 @@
       <c r="F12" t="s">
         <v>275</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>438</v>
       </c>
       <c r="H12" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -3658,14 +3949,17 @@
       <c r="F13" t="s">
         <v>276</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>438</v>
       </c>
       <c r="H13" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -3684,14 +3978,17 @@
       <c r="F14" t="s">
         <v>277</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>438</v>
       </c>
       <c r="H14" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>433</v>
       </c>
@@ -3710,14 +4007,17 @@
       <c r="F15" t="s">
         <v>278</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>438</v>
       </c>
       <c r="H15" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -3736,14 +4036,17 @@
       <c r="F16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>438</v>
       </c>
       <c r="H16" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -3762,14 +4065,17 @@
       <c r="F17" t="s">
         <v>279</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>439</v>
       </c>
       <c r="H17" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -3788,14 +4094,17 @@
       <c r="F18" t="s">
         <v>280</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>439</v>
       </c>
       <c r="H18" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>195</v>
       </c>
@@ -3814,14 +4123,17 @@
       <c r="F19" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>439</v>
       </c>
       <c r="H19" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>196</v>
       </c>
@@ -3840,14 +4152,17 @@
       <c r="F20" t="s">
         <v>282</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>439</v>
       </c>
       <c r="H20" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>197</v>
       </c>
@@ -3866,14 +4181,17 @@
       <c r="F21" t="s">
         <v>283</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>439</v>
       </c>
       <c r="H21" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>198</v>
       </c>
@@ -3892,14 +4210,17 @@
       <c r="F22" t="s">
         <v>284</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>439</v>
       </c>
       <c r="H22" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -3918,14 +4239,17 @@
       <c r="F23" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>439</v>
       </c>
       <c r="H23" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -3944,14 +4268,17 @@
       <c r="F24" t="s">
         <v>286</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>439</v>
       </c>
       <c r="H24" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>434</v>
       </c>
@@ -3970,14 +4297,17 @@
       <c r="F25" t="s">
         <v>287</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>439</v>
       </c>
       <c r="H25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -3996,14 +4326,17 @@
       <c r="F26" t="s">
         <v>288</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>439</v>
       </c>
       <c r="H26" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -4022,14 +4355,17 @@
       <c r="F27" t="s">
         <v>289</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>439</v>
       </c>
       <c r="H27" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>203</v>
       </c>
@@ -4048,14 +4384,17 @@
       <c r="F28" t="s">
         <v>290</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>439</v>
       </c>
       <c r="H28" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -4074,14 +4413,17 @@
       <c r="F29" t="s">
         <v>291</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>439</v>
       </c>
       <c r="H29" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -4100,14 +4442,17 @@
       <c r="F30" t="s">
         <v>292</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>439</v>
       </c>
       <c r="H30" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -4126,14 +4471,17 @@
       <c r="F31" t="s">
         <v>293</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>439</v>
       </c>
       <c r="H31" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -4152,14 +4500,17 @@
       <c r="F32" t="s">
         <v>294</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>439</v>
       </c>
       <c r="H32" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -4178,14 +4529,17 @@
       <c r="F33" t="s">
         <v>295</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>439</v>
       </c>
       <c r="H33" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -4204,14 +4558,17 @@
       <c r="F34" t="s">
         <v>296</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>439</v>
       </c>
       <c r="H34" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>210</v>
       </c>
@@ -4230,14 +4587,17 @@
       <c r="F35" t="s">
         <v>297</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>439</v>
       </c>
       <c r="H35" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>211</v>
       </c>
@@ -4256,14 +4616,17 @@
       <c r="F36" t="s">
         <v>298</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>439</v>
       </c>
       <c r="H36" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>212</v>
       </c>
@@ -4282,14 +4645,17 @@
       <c r="F37" t="s">
         <v>299</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>439</v>
       </c>
       <c r="H37" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>213</v>
       </c>
@@ -4308,14 +4674,17 @@
       <c r="F38" t="s">
         <v>300</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>439</v>
       </c>
       <c r="H38" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>214</v>
       </c>
@@ -4334,14 +4703,17 @@
       <c r="F39" t="s">
         <v>301</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>439</v>
       </c>
       <c r="H39" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>215</v>
       </c>
@@ -4360,14 +4732,17 @@
       <c r="F40" t="s">
         <v>302</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>439</v>
       </c>
       <c r="H40" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>216</v>
       </c>
@@ -4386,14 +4761,17 @@
       <c r="F41" t="s">
         <v>303</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>439</v>
       </c>
       <c r="H41" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -4412,14 +4790,17 @@
       <c r="F42" t="s">
         <v>304</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>439</v>
       </c>
       <c r="H42" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>218</v>
       </c>
@@ -4438,14 +4819,17 @@
       <c r="F43" t="s">
         <v>305</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>439</v>
       </c>
       <c r="H43" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>219</v>
       </c>
@@ -4464,14 +4848,17 @@
       <c r="F44" t="s">
         <v>306</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>439</v>
       </c>
       <c r="H44" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>220</v>
       </c>
@@ -4490,14 +4877,17 @@
       <c r="F45" t="s">
         <v>307</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>439</v>
       </c>
       <c r="H45" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -4516,14 +4906,17 @@
       <c r="F46" t="s">
         <v>308</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>439</v>
       </c>
       <c r="H46" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>222</v>
       </c>
@@ -4542,14 +4935,17 @@
       <c r="F47" t="s">
         <v>309</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>439</v>
       </c>
       <c r="H47" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -4568,14 +4964,17 @@
       <c r="F48" t="s">
         <v>310</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>439</v>
       </c>
       <c r="H48" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>224</v>
       </c>
@@ -4594,14 +4993,17 @@
       <c r="F49" t="s">
         <v>311</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>440</v>
       </c>
       <c r="H49" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>225</v>
       </c>
@@ -4620,14 +5022,17 @@
       <c r="F50" t="s">
         <v>312</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>440</v>
       </c>
       <c r="H50" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>226</v>
       </c>
@@ -4646,14 +5051,17 @@
       <c r="F51" t="s">
         <v>313</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>440</v>
       </c>
       <c r="H51" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>227</v>
       </c>
@@ -4672,14 +5080,17 @@
       <c r="F52" t="s">
         <v>437</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>440</v>
       </c>
       <c r="H52" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>228</v>
       </c>
@@ -4698,14 +5109,17 @@
       <c r="F53" t="s">
         <v>314</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>440</v>
       </c>
       <c r="H53" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>229</v>
       </c>
@@ -4724,14 +5138,17 @@
       <c r="F54" t="s">
         <v>315</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
         <v>440</v>
       </c>
       <c r="H54" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>230</v>
       </c>
@@ -4750,14 +5167,17 @@
       <c r="F55" t="s">
         <v>316</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>440</v>
       </c>
       <c r="H55" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -4776,14 +5196,17 @@
       <c r="F56" t="s">
         <v>317</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>440</v>
       </c>
       <c r="H56" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>232</v>
       </c>
@@ -4802,14 +5225,17 @@
       <c r="F57" t="s">
         <v>318</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>440</v>
       </c>
       <c r="H57" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>233</v>
       </c>
@@ -4828,14 +5254,17 @@
       <c r="F58" t="s">
         <v>319</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>440</v>
       </c>
       <c r="H58" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>234</v>
       </c>
@@ -4854,14 +5283,17 @@
       <c r="F59" t="s">
         <v>320</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>441</v>
       </c>
       <c r="H59" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -4880,14 +5312,17 @@
       <c r="F60" t="s">
         <v>321</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>441</v>
       </c>
       <c r="H60" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>236</v>
       </c>
@@ -4906,14 +5341,17 @@
       <c r="F61" t="s">
         <v>322</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>441</v>
       </c>
       <c r="H61" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>237</v>
       </c>
@@ -4932,14 +5370,17 @@
       <c r="F62" t="s">
         <v>323</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>441</v>
       </c>
       <c r="H62" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>238</v>
       </c>
@@ -4958,14 +5399,17 @@
       <c r="F63" t="s">
         <v>324</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>441</v>
       </c>
       <c r="H63" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>435</v>
       </c>
@@ -4984,14 +5428,17 @@
       <c r="F64" t="s">
         <v>325</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" t="s">
         <v>441</v>
       </c>
       <c r="H64" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>239</v>
       </c>
@@ -5010,14 +5457,17 @@
       <c r="F65" t="s">
         <v>326</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>441</v>
       </c>
       <c r="H65" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>240</v>
       </c>
@@ -5036,14 +5486,17 @@
       <c r="F66" t="s">
         <v>327</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" t="s">
         <v>441</v>
       </c>
       <c r="H66" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>241</v>
       </c>
@@ -5062,14 +5515,17 @@
       <c r="F67" t="s">
         <v>328</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" t="s">
         <v>441</v>
       </c>
       <c r="H67" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>242</v>
       </c>
@@ -5088,14 +5544,17 @@
       <c r="F68" t="s">
         <v>329</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>441</v>
       </c>
       <c r="H68" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>243</v>
       </c>
@@ -5114,14 +5573,17 @@
       <c r="F69" t="s">
         <v>330</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" t="s">
         <v>441</v>
       </c>
       <c r="H69" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>244</v>
       </c>
@@ -5140,14 +5602,17 @@
       <c r="F70" t="s">
         <v>331</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" t="s">
         <v>442</v>
       </c>
       <c r="H70" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>245</v>
       </c>
@@ -5166,14 +5631,17 @@
       <c r="F71" t="s">
         <v>332</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" t="s">
         <v>442</v>
       </c>
       <c r="H71" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>246</v>
       </c>
@@ -5192,14 +5660,17 @@
       <c r="F72" t="s">
         <v>333</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>442</v>
       </c>
       <c r="H72" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>247</v>
       </c>
@@ -5218,14 +5689,17 @@
       <c r="F73" t="s">
         <v>334</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" t="s">
         <v>442</v>
       </c>
       <c r="H73" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>248</v>
       </c>
@@ -5244,14 +5718,17 @@
       <c r="F74" t="s">
         <v>335</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" t="s">
         <v>442</v>
       </c>
       <c r="H74" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>436</v>
       </c>
@@ -5270,14 +5747,17 @@
       <c r="F75" t="s">
         <v>273</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" t="s">
         <v>442</v>
       </c>
       <c r="H75" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>249</v>
       </c>
@@ -5296,14 +5776,17 @@
       <c r="F76" t="s">
         <v>336</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" t="s">
         <v>442</v>
       </c>
       <c r="H76" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>250</v>
       </c>
@@ -5322,14 +5805,17 @@
       <c r="F77" t="s">
         <v>337</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" t="s">
         <v>442</v>
       </c>
       <c r="H77" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I77" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>251</v>
       </c>
@@ -5348,14 +5834,17 @@
       <c r="F78" t="s">
         <v>338</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" t="s">
         <v>442</v>
       </c>
       <c r="H78" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>252</v>
       </c>
@@ -5374,14 +5863,17 @@
       <c r="F79" t="s">
         <v>339</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" t="s">
         <v>442</v>
       </c>
       <c r="H79" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>253</v>
       </c>
@@ -5400,14 +5892,17 @@
       <c r="F80" t="s">
         <v>340</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" t="s">
         <v>442</v>
       </c>
       <c r="H80" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>254</v>
       </c>
@@ -5426,14 +5921,17 @@
       <c r="F81" t="s">
         <v>341</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" t="s">
         <v>442</v>
       </c>
       <c r="H81" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>255</v>
       </c>
@@ -5452,14 +5950,17 @@
       <c r="F82" t="s">
         <v>342</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" t="s">
         <v>442</v>
       </c>
       <c r="H82" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>256</v>
       </c>
@@ -5478,14 +5979,17 @@
       <c r="F83" t="s">
         <v>343</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" t="s">
         <v>442</v>
       </c>
       <c r="H83" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -5504,14 +6008,17 @@
       <c r="F84" t="s">
         <v>344</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" t="s">
         <v>442</v>
       </c>
       <c r="H84" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>258</v>
       </c>
@@ -5530,14 +6037,17 @@
       <c r="F85" t="s">
         <v>345</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" t="s">
         <v>442</v>
       </c>
       <c r="H85" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>259</v>
       </c>
@@ -5556,14 +6066,17 @@
       <c r="F86" t="s">
         <v>346</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" t="s">
         <v>442</v>
       </c>
       <c r="H86" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>260</v>
       </c>
@@ -5582,14 +6095,17 @@
       <c r="F87" t="s">
         <v>347</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" t="s">
         <v>442</v>
       </c>
       <c r="H87" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>261</v>
       </c>
@@ -5608,14 +6124,17 @@
       <c r="F88" t="s">
         <v>348</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" t="s">
         <v>442</v>
       </c>
       <c r="H88" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -5634,14 +6153,17 @@
       <c r="F89" t="s">
         <v>349</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" t="s">
         <v>442</v>
       </c>
       <c r="H89" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>263</v>
       </c>
@@ -5660,12 +6182,2745 @@
       <c r="F90" t="s">
         <v>350</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" t="s">
         <v>442</v>
       </c>
       <c r="H90" t="s">
         <v>463</v>
       </c>
+      <c r="I90" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I193" s="2"/>
+    </row>
+    <row r="194" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I194" s="2"/>
+    </row>
+    <row r="195" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I195" s="2"/>
+    </row>
+    <row r="196" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I196" s="2"/>
+    </row>
+    <row r="197" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I197" s="2"/>
+    </row>
+    <row r="198" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I198" s="2"/>
+    </row>
+    <row r="199" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I199" s="2"/>
+    </row>
+    <row r="200" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I200" s="2"/>
+    </row>
+    <row r="201" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I201" s="2"/>
+    </row>
+    <row r="202" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I202" s="2"/>
+    </row>
+    <row r="203" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I203" s="2"/>
+    </row>
+    <row r="204" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I204" s="2"/>
+    </row>
+    <row r="205" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I205" s="2"/>
+    </row>
+    <row r="206" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I206" s="2"/>
+    </row>
+    <row r="207" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I207" s="2"/>
+    </row>
+    <row r="208" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I208" s="2"/>
+    </row>
+    <row r="209" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I209" s="2"/>
+    </row>
+    <row r="210" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I210" s="2"/>
+    </row>
+    <row r="211" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I211" s="2"/>
+    </row>
+    <row r="212" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I212" s="2"/>
+    </row>
+    <row r="213" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I213" s="2"/>
+    </row>
+    <row r="214" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I214" s="2"/>
+    </row>
+    <row r="215" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I215" s="2"/>
+    </row>
+    <row r="216" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I216" s="2"/>
+    </row>
+    <row r="217" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I217" s="2"/>
+    </row>
+    <row r="218" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I218" s="2"/>
+    </row>
+    <row r="219" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I219" s="2"/>
+    </row>
+    <row r="220" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I220" s="2"/>
+    </row>
+    <row r="221" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I221" s="2"/>
+    </row>
+    <row r="222" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I222" s="2"/>
+    </row>
+    <row r="223" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I223" s="2"/>
+    </row>
+    <row r="224" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I224" s="2"/>
+    </row>
+    <row r="225" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I225" s="2"/>
+    </row>
+    <row r="226" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I226" s="2"/>
+    </row>
+    <row r="227" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I227" s="2"/>
+    </row>
+    <row r="228" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I228" s="2"/>
+    </row>
+    <row r="229" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I229" s="2"/>
+    </row>
+    <row r="230" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I230" s="2"/>
+    </row>
+    <row r="231" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I231" s="2"/>
+    </row>
+    <row r="232" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I232" s="2"/>
+    </row>
+    <row r="233" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I233" s="2"/>
+    </row>
+    <row r="234" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I234" s="2"/>
+    </row>
+    <row r="235" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I235" s="2"/>
+    </row>
+    <row r="236" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I236" s="2"/>
+    </row>
+    <row r="237" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I237" s="2"/>
+    </row>
+    <row r="238" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I238" s="2"/>
+    </row>
+    <row r="239" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I239" s="2"/>
+    </row>
+    <row r="240" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I240" s="2"/>
+    </row>
+    <row r="241" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I241" s="2"/>
+    </row>
+    <row r="242" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I242" s="2"/>
+    </row>
+    <row r="243" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I243" s="2"/>
+    </row>
+    <row r="244" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I244" s="2"/>
+    </row>
+    <row r="245" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I245" s="2"/>
+    </row>
+    <row r="246" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I246" s="2"/>
+    </row>
+    <row r="247" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I247" s="2"/>
+    </row>
+    <row r="248" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I248" s="2"/>
+    </row>
+    <row r="249" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I249" s="2"/>
+    </row>
+    <row r="250" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I250" s="2"/>
+    </row>
+    <row r="251" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I251" s="2"/>
+    </row>
+    <row r="252" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I252" s="2"/>
+    </row>
+    <row r="253" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I253" s="2"/>
+    </row>
+    <row r="254" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I254" s="2"/>
+    </row>
+    <row r="255" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I255" s="2"/>
+    </row>
+    <row r="256" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I256" s="2"/>
+    </row>
+    <row r="257" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I257" s="2"/>
+    </row>
+    <row r="258" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I258" s="2"/>
+    </row>
+    <row r="259" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I259" s="2"/>
+    </row>
+    <row r="260" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I260" s="2"/>
+    </row>
+    <row r="261" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I261" s="2"/>
+    </row>
+    <row r="262" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I262" s="2"/>
+    </row>
+    <row r="263" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I263" s="2"/>
+    </row>
+    <row r="264" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I264" s="2"/>
+    </row>
+    <row r="265" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I265" s="2"/>
+    </row>
+    <row r="266" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I266" s="2"/>
+    </row>
+    <row r="267" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I267" s="2"/>
+    </row>
+    <row r="268" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I268" s="2"/>
+    </row>
+    <row r="269" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I269" s="2"/>
+    </row>
+    <row r="270" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I270" s="2"/>
+    </row>
+    <row r="271" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I271" s="2"/>
+    </row>
+    <row r="272" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I272" s="2"/>
+    </row>
+    <row r="273" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I273" s="2"/>
+    </row>
+    <row r="274" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I274" s="2"/>
+    </row>
+    <row r="275" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I275" s="2"/>
+    </row>
+    <row r="276" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I276" s="2"/>
+    </row>
+    <row r="277" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I277" s="2"/>
+    </row>
+    <row r="278" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I278" s="2"/>
+    </row>
+    <row r="279" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I279" s="2"/>
+    </row>
+    <row r="280" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I280" s="2"/>
+    </row>
+    <row r="281" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I281" s="2"/>
+    </row>
+    <row r="282" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I282" s="2"/>
+    </row>
+    <row r="283" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I283" s="2"/>
+    </row>
+    <row r="284" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I284" s="2"/>
+    </row>
+    <row r="285" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I285" s="2"/>
+    </row>
+    <row r="286" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I286" s="2"/>
+    </row>
+    <row r="287" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I287" s="2"/>
+    </row>
+    <row r="288" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I288" s="2"/>
+    </row>
+    <row r="289" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I289" s="2"/>
+    </row>
+    <row r="290" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I290" s="2"/>
+    </row>
+    <row r="291" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I291" s="2"/>
+    </row>
+    <row r="292" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I292" s="2"/>
+    </row>
+    <row r="293" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I293" s="2"/>
+    </row>
+    <row r="294" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I294" s="2"/>
+    </row>
+    <row r="295" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I295" s="2"/>
+    </row>
+    <row r="296" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I296" s="2"/>
+    </row>
+    <row r="297" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I297" s="2"/>
+    </row>
+    <row r="298" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I298" s="2"/>
+    </row>
+    <row r="299" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I299" s="2"/>
+    </row>
+    <row r="300" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I300" s="2"/>
+    </row>
+    <row r="301" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I301" s="2"/>
+    </row>
+    <row r="302" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I302" s="2"/>
+    </row>
+    <row r="303" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I303" s="2"/>
+    </row>
+    <row r="304" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I304" s="2"/>
+    </row>
+    <row r="305" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I305" s="2"/>
+    </row>
+    <row r="306" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I306" s="2"/>
+    </row>
+    <row r="307" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I307" s="2"/>
+    </row>
+    <row r="308" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I308" s="2"/>
+    </row>
+    <row r="309" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I309" s="2"/>
+    </row>
+    <row r="310" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I310" s="2"/>
+    </row>
+    <row r="311" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I311" s="2"/>
+    </row>
+    <row r="312" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I312" s="2"/>
+    </row>
+    <row r="313" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I313" s="2"/>
+    </row>
+    <row r="314" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I314" s="2"/>
+    </row>
+    <row r="315" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I315" s="2"/>
+    </row>
+    <row r="316" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I316" s="2"/>
+    </row>
+    <row r="317" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I317" s="2"/>
+    </row>
+    <row r="318" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I318" s="2"/>
+    </row>
+    <row r="319" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I319" s="2"/>
+    </row>
+    <row r="320" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I320" s="2"/>
+    </row>
+    <row r="321" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I321" s="2"/>
+    </row>
+    <row r="322" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I322" s="2"/>
+    </row>
+    <row r="323" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I323" s="2"/>
+    </row>
+    <row r="324" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I324" s="2"/>
+    </row>
+    <row r="325" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I325" s="2"/>
+    </row>
+    <row r="326" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I326" s="2"/>
+    </row>
+    <row r="327" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I327" s="2"/>
+    </row>
+    <row r="328" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I328" s="2"/>
+    </row>
+    <row r="329" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I329" s="2"/>
+    </row>
+    <row r="330" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I330" s="2"/>
+    </row>
+    <row r="331" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I331" s="2"/>
+    </row>
+    <row r="332" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I332" s="2"/>
+    </row>
+    <row r="333" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I333" s="2"/>
+    </row>
+    <row r="334" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I334" s="2"/>
+    </row>
+    <row r="335" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I335" s="2"/>
+    </row>
+    <row r="336" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I336" s="2"/>
+    </row>
+    <row r="337" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I337" s="2"/>
+    </row>
+    <row r="338" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I338" s="2"/>
+    </row>
+    <row r="339" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I339" s="2"/>
+    </row>
+    <row r="340" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I340" s="2"/>
+    </row>
+    <row r="341" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I341" s="2"/>
+    </row>
+    <row r="342" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I342" s="2"/>
+    </row>
+    <row r="343" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I343" s="2"/>
+    </row>
+    <row r="344" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I344" s="2"/>
+    </row>
+    <row r="345" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I345" s="2"/>
+    </row>
+    <row r="346" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I346" s="2"/>
+    </row>
+    <row r="347" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I347" s="2"/>
+    </row>
+    <row r="348" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I348" s="2"/>
+    </row>
+    <row r="349" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I349" s="2"/>
+    </row>
+    <row r="350" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I350" s="2"/>
+    </row>
+    <row r="351" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I351" s="2"/>
+    </row>
+    <row r="352" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I352" s="2"/>
+    </row>
+    <row r="353" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I353" s="2"/>
+    </row>
+    <row r="354" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I354" s="2"/>
+    </row>
+    <row r="355" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I355" s="2"/>
+    </row>
+    <row r="356" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I356" s="2"/>
+    </row>
+    <row r="357" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I357" s="2"/>
+    </row>
+    <row r="358" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I358" s="2"/>
+    </row>
+    <row r="359" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I359" s="2"/>
+    </row>
+    <row r="360" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I360" s="2"/>
+    </row>
+    <row r="361" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I361" s="2"/>
+    </row>
+    <row r="362" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I362" s="2"/>
+    </row>
+    <row r="363" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I363" s="2"/>
+    </row>
+    <row r="364" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I364" s="2"/>
+    </row>
+    <row r="365" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I365" s="2"/>
+    </row>
+    <row r="366" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I366" s="2"/>
+    </row>
+    <row r="367" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I367" s="2"/>
+    </row>
+    <row r="368" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I368" s="2"/>
+    </row>
+    <row r="369" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I369" s="2"/>
+    </row>
+    <row r="370" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I370" s="2"/>
+    </row>
+    <row r="371" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I371" s="2"/>
+    </row>
+    <row r="372" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I372" s="2"/>
+    </row>
+    <row r="373" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I373" s="2"/>
+    </row>
+    <row r="374" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I374" s="2"/>
+    </row>
+    <row r="375" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I375" s="2"/>
+    </row>
+    <row r="376" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I376" s="2"/>
+    </row>
+    <row r="377" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I377" s="2"/>
+    </row>
+    <row r="378" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I378" s="2"/>
+    </row>
+    <row r="379" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I379" s="2"/>
+    </row>
+    <row r="380" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I380" s="2"/>
+    </row>
+    <row r="381" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I381" s="2"/>
+    </row>
+    <row r="382" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I382" s="2"/>
+    </row>
+    <row r="383" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I383" s="2"/>
+    </row>
+    <row r="384" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I384" s="2"/>
+    </row>
+    <row r="385" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I385" s="2"/>
+    </row>
+    <row r="386" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I386" s="2"/>
+    </row>
+    <row r="387" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I387" s="2"/>
+    </row>
+    <row r="388" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I388" s="2"/>
+    </row>
+    <row r="389" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I389" s="2"/>
+    </row>
+    <row r="390" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I390" s="2"/>
+    </row>
+    <row r="391" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I391" s="2"/>
+    </row>
+    <row r="392" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I392" s="2"/>
+    </row>
+    <row r="393" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I393" s="2"/>
+    </row>
+    <row r="394" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I394" s="2"/>
+    </row>
+    <row r="395" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I395" s="2"/>
+    </row>
+    <row r="396" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I396" s="2"/>
+    </row>
+    <row r="397" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I397" s="2"/>
+    </row>
+    <row r="398" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I398" s="2"/>
+    </row>
+    <row r="399" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I399" s="2"/>
+    </row>
+    <row r="400" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I400" s="2"/>
+    </row>
+    <row r="401" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I401" s="2"/>
+    </row>
+    <row r="402" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I402" s="2"/>
+    </row>
+    <row r="403" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I403" s="2"/>
+    </row>
+    <row r="404" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I404" s="2"/>
+    </row>
+    <row r="405" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I405" s="2"/>
+    </row>
+    <row r="406" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I406" s="2"/>
+    </row>
+    <row r="407" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I407" s="2"/>
+    </row>
+    <row r="408" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I408" s="2"/>
+    </row>
+    <row r="409" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I409" s="2"/>
+    </row>
+    <row r="410" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I410" s="2"/>
+    </row>
+    <row r="411" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I411" s="2"/>
+    </row>
+    <row r="412" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I412" s="2"/>
+    </row>
+    <row r="413" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I413" s="2"/>
+    </row>
+    <row r="414" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I414" s="2"/>
+    </row>
+    <row r="415" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I415" s="2"/>
+    </row>
+    <row r="416" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I416" s="2"/>
+    </row>
+    <row r="417" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I417" s="2"/>
+    </row>
+    <row r="418" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I418" s="2"/>
+    </row>
+    <row r="419" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I419" s="2"/>
+    </row>
+    <row r="420" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I420" s="2"/>
+    </row>
+    <row r="421" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I421" s="2"/>
+    </row>
+    <row r="422" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I422" s="2"/>
+    </row>
+    <row r="423" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I423" s="2"/>
+    </row>
+    <row r="424" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I424" s="2"/>
+    </row>
+    <row r="425" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I425" s="2"/>
+    </row>
+    <row r="426" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I426" s="2"/>
+    </row>
+    <row r="427" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I427" s="2"/>
+    </row>
+    <row r="428" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I428" s="2"/>
+    </row>
+    <row r="429" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I429" s="2"/>
+    </row>
+    <row r="430" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I430" s="2"/>
+    </row>
+    <row r="431" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I431" s="2"/>
+    </row>
+    <row r="432" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I432" s="2"/>
+    </row>
+    <row r="433" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I433" s="2"/>
+    </row>
+    <row r="434" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I434" s="2"/>
+    </row>
+    <row r="435" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I435" s="2"/>
+    </row>
+    <row r="436" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I436" s="2"/>
+    </row>
+    <row r="437" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I437" s="2"/>
+    </row>
+    <row r="438" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I438" s="2"/>
+    </row>
+    <row r="439" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I439" s="2"/>
+    </row>
+    <row r="440" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I440" s="2"/>
+    </row>
+    <row r="441" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I441" s="2"/>
+    </row>
+    <row r="442" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I442" s="2"/>
+    </row>
+    <row r="443" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I443" s="2"/>
+    </row>
+    <row r="444" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I444" s="2"/>
+    </row>
+    <row r="445" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I445" s="2"/>
+    </row>
+    <row r="446" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I446" s="2"/>
+    </row>
+    <row r="447" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I447" s="2"/>
+    </row>
+    <row r="448" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I448" s="2"/>
+    </row>
+    <row r="449" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I449" s="2"/>
+    </row>
+    <row r="450" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I450" s="2"/>
+    </row>
+    <row r="451" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I451" s="2"/>
+    </row>
+    <row r="452" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I452" s="2"/>
+    </row>
+    <row r="453" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I453" s="2"/>
+    </row>
+    <row r="454" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I454" s="2"/>
+    </row>
+    <row r="455" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I455" s="2"/>
+    </row>
+    <row r="456" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I456" s="2"/>
+    </row>
+    <row r="457" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I457" s="2"/>
+    </row>
+    <row r="458" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I458" s="2"/>
+    </row>
+    <row r="459" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I459" s="2"/>
+    </row>
+    <row r="460" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I460" s="2"/>
+    </row>
+    <row r="461" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I461" s="2"/>
+    </row>
+    <row r="462" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I462" s="2"/>
+    </row>
+    <row r="463" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I463" s="2"/>
+    </row>
+    <row r="464" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I464" s="2"/>
+    </row>
+    <row r="465" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I465" s="2"/>
+    </row>
+    <row r="466" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I466" s="2"/>
+    </row>
+    <row r="467" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I467" s="2"/>
+    </row>
+    <row r="468" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I468" s="2"/>
+    </row>
+    <row r="469" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I469" s="2"/>
+    </row>
+    <row r="470" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I470" s="2"/>
+    </row>
+    <row r="471" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I471" s="2"/>
+    </row>
+    <row r="472" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I472" s="2"/>
+    </row>
+    <row r="473" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I473" s="2"/>
+    </row>
+    <row r="474" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I474" s="2"/>
+    </row>
+    <row r="475" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I475" s="2"/>
+    </row>
+    <row r="476" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I476" s="2"/>
+    </row>
+    <row r="477" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I477" s="2"/>
+    </row>
+    <row r="478" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I478" s="2"/>
+    </row>
+    <row r="479" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I479" s="2"/>
+    </row>
+    <row r="480" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I480" s="2"/>
+    </row>
+    <row r="481" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I481" s="2"/>
+    </row>
+    <row r="482" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I482" s="2"/>
+    </row>
+    <row r="483" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I483" s="2"/>
+    </row>
+    <row r="484" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I484" s="2"/>
+    </row>
+    <row r="485" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I485" s="2"/>
+    </row>
+    <row r="486" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I486" s="2"/>
+    </row>
+    <row r="487" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I487" s="2"/>
+    </row>
+    <row r="488" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I488" s="2"/>
+    </row>
+    <row r="489" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I489" s="2"/>
+    </row>
+    <row r="490" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I490" s="2"/>
+    </row>
+    <row r="491" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I491" s="2"/>
+    </row>
+    <row r="492" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I492" s="2"/>
+    </row>
+    <row r="493" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I493" s="2"/>
+    </row>
+    <row r="494" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I494" s="2"/>
+    </row>
+    <row r="495" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I495" s="2"/>
+    </row>
+    <row r="496" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I496" s="2"/>
+    </row>
+    <row r="497" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I497" s="2"/>
+    </row>
+    <row r="498" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I498" s="2"/>
+    </row>
+    <row r="499" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I499" s="2"/>
+    </row>
+    <row r="500" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I500" s="2"/>
+    </row>
+    <row r="501" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I501" s="2"/>
+    </row>
+    <row r="502" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I502" s="2"/>
+    </row>
+    <row r="503" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I503" s="2"/>
+    </row>
+    <row r="504" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I504" s="2"/>
+    </row>
+    <row r="505" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I505" s="2"/>
+    </row>
+    <row r="506" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I506" s="2"/>
+    </row>
+    <row r="507" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I507" s="2"/>
+    </row>
+    <row r="508" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I508" s="2"/>
+    </row>
+    <row r="509" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I509" s="2"/>
+    </row>
+    <row r="510" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I510" s="2"/>
+    </row>
+    <row r="511" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I511" s="2"/>
+    </row>
+    <row r="512" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I512" s="2"/>
+    </row>
+    <row r="513" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I513" s="2"/>
+    </row>
+    <row r="514" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I514" s="2"/>
+    </row>
+    <row r="515" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I515" s="2"/>
+    </row>
+    <row r="516" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I516" s="2"/>
+    </row>
+    <row r="517" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I517" s="2"/>
+    </row>
+    <row r="518" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I518" s="2"/>
+    </row>
+    <row r="519" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I519" s="2"/>
+    </row>
+    <row r="520" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I520" s="2"/>
+    </row>
+    <row r="521" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I521" s="2"/>
+    </row>
+    <row r="522" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I522" s="2"/>
+    </row>
+    <row r="523" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I523" s="2"/>
+    </row>
+    <row r="524" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I524" s="2"/>
+    </row>
+    <row r="525" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I525" s="2"/>
+    </row>
+    <row r="526" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I526" s="2"/>
+    </row>
+    <row r="527" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I527" s="2"/>
+    </row>
+    <row r="528" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I528" s="2"/>
+    </row>
+    <row r="529" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I529" s="2"/>
+    </row>
+    <row r="530" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I530" s="2"/>
+    </row>
+    <row r="531" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I531" s="2"/>
+    </row>
+    <row r="532" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I532" s="2"/>
+    </row>
+    <row r="533" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I533" s="2"/>
+    </row>
+    <row r="534" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I534" s="2"/>
+    </row>
+    <row r="535" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I535" s="2"/>
+    </row>
+    <row r="536" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I536" s="2"/>
+    </row>
+    <row r="537" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I537" s="2"/>
+    </row>
+    <row r="538" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I538" s="2"/>
+    </row>
+    <row r="539" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I539" s="2"/>
+    </row>
+    <row r="540" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I540" s="2"/>
+    </row>
+    <row r="541" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I541" s="2"/>
+    </row>
+    <row r="542" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I542" s="2"/>
+    </row>
+    <row r="543" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I543" s="2"/>
+    </row>
+    <row r="544" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I544" s="2"/>
+    </row>
+    <row r="545" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I545" s="2"/>
+    </row>
+    <row r="546" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I546" s="2"/>
+    </row>
+    <row r="547" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I547" s="2"/>
+    </row>
+    <row r="548" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I548" s="2"/>
+    </row>
+    <row r="549" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I549" s="2"/>
+    </row>
+    <row r="550" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I550" s="2"/>
+    </row>
+    <row r="551" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I551" s="2"/>
+    </row>
+    <row r="552" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I552" s="2"/>
+    </row>
+    <row r="553" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I553" s="2"/>
+    </row>
+    <row r="554" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I554" s="2"/>
+    </row>
+    <row r="555" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I555" s="2"/>
+    </row>
+    <row r="556" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I556" s="2"/>
+    </row>
+    <row r="557" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I557" s="2"/>
+    </row>
+    <row r="558" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I558" s="2"/>
+    </row>
+    <row r="559" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I559" s="2"/>
+    </row>
+    <row r="560" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I560" s="2"/>
+    </row>
+    <row r="561" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I561" s="2"/>
+    </row>
+    <row r="562" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I562" s="2"/>
+    </row>
+    <row r="563" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I563" s="2"/>
+    </row>
+    <row r="564" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I564" s="2"/>
+    </row>
+    <row r="565" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I565" s="2"/>
+    </row>
+    <row r="566" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I566" s="2"/>
+    </row>
+    <row r="567" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I567" s="2"/>
+    </row>
+    <row r="568" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I568" s="2"/>
+    </row>
+    <row r="569" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I569" s="2"/>
+    </row>
+    <row r="570" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I570" s="2"/>
+    </row>
+    <row r="571" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I571" s="2"/>
+    </row>
+    <row r="572" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I572" s="2"/>
+    </row>
+    <row r="573" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I573" s="2"/>
+    </row>
+    <row r="574" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I574" s="2"/>
+    </row>
+    <row r="575" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I575" s="2"/>
+    </row>
+    <row r="576" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I576" s="2"/>
+    </row>
+    <row r="577" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I577" s="2"/>
+    </row>
+    <row r="578" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I578" s="2"/>
+    </row>
+    <row r="579" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I579" s="2"/>
+    </row>
+    <row r="580" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I580" s="2"/>
+    </row>
+    <row r="581" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I581" s="2"/>
+    </row>
+    <row r="582" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I582" s="2"/>
+    </row>
+    <row r="583" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I583" s="2"/>
+    </row>
+    <row r="584" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I584" s="2"/>
+    </row>
+    <row r="585" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I585" s="2"/>
+    </row>
+    <row r="586" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I586" s="2"/>
+    </row>
+    <row r="587" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I587" s="2"/>
+    </row>
+    <row r="588" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I588" s="2"/>
+    </row>
+    <row r="589" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I589" s="2"/>
+    </row>
+    <row r="590" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I590" s="2"/>
+    </row>
+    <row r="591" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I591" s="2"/>
+    </row>
+    <row r="592" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I592" s="2"/>
+    </row>
+    <row r="593" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I593" s="2"/>
+    </row>
+    <row r="594" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I594" s="2"/>
+    </row>
+    <row r="595" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I595" s="2"/>
+    </row>
+    <row r="596" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I596" s="2"/>
+    </row>
+    <row r="597" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I597" s="2"/>
+    </row>
+    <row r="598" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I598" s="2"/>
+    </row>
+    <row r="599" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I599" s="2"/>
+    </row>
+    <row r="600" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I600" s="2"/>
+    </row>
+    <row r="601" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I601" s="2"/>
+    </row>
+    <row r="602" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I602" s="2"/>
+    </row>
+    <row r="603" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I603" s="2"/>
+    </row>
+    <row r="604" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I604" s="2"/>
+    </row>
+    <row r="605" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I605" s="2"/>
+    </row>
+    <row r="606" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I606" s="2"/>
+    </row>
+    <row r="607" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I607" s="2"/>
+    </row>
+    <row r="608" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I608" s="2"/>
+    </row>
+    <row r="609" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I609" s="2"/>
+    </row>
+    <row r="610" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I610" s="2"/>
+    </row>
+    <row r="611" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I611" s="2"/>
+    </row>
+    <row r="612" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I612" s="2"/>
+    </row>
+    <row r="613" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I613" s="2"/>
+    </row>
+    <row r="614" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I614" s="2"/>
+    </row>
+    <row r="615" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I615" s="2"/>
+    </row>
+    <row r="616" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I616" s="2"/>
+    </row>
+    <row r="617" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I617" s="2"/>
+    </row>
+    <row r="618" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I618" s="2"/>
+    </row>
+    <row r="619" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I619" s="2"/>
+    </row>
+    <row r="620" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I620" s="2"/>
+    </row>
+    <row r="621" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I621" s="2"/>
+    </row>
+    <row r="622" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I622" s="2"/>
+    </row>
+    <row r="623" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I623" s="2"/>
+    </row>
+    <row r="624" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I624" s="2"/>
+    </row>
+    <row r="625" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I625" s="2"/>
+    </row>
+    <row r="626" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I626" s="2"/>
+    </row>
+    <row r="627" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I627" s="2"/>
+    </row>
+    <row r="628" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I628" s="2"/>
+    </row>
+    <row r="629" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I629" s="2"/>
+    </row>
+    <row r="630" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I630" s="2"/>
+    </row>
+    <row r="631" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I631" s="2"/>
+    </row>
+    <row r="632" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I632" s="2"/>
+    </row>
+    <row r="633" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I633" s="2"/>
+    </row>
+    <row r="634" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I634" s="2"/>
+    </row>
+    <row r="635" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I635" s="2"/>
+    </row>
+    <row r="636" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I636" s="2"/>
+    </row>
+    <row r="637" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I637" s="2"/>
+    </row>
+    <row r="638" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I638" s="2"/>
+    </row>
+    <row r="639" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I639" s="2"/>
+    </row>
+    <row r="640" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I640" s="2"/>
+    </row>
+    <row r="641" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I641" s="2"/>
+    </row>
+    <row r="642" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I642" s="2"/>
+    </row>
+    <row r="643" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I643" s="2"/>
+    </row>
+    <row r="644" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I644" s="2"/>
+    </row>
+    <row r="645" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I645" s="2"/>
+    </row>
+    <row r="646" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I646" s="2"/>
+    </row>
+    <row r="647" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I647" s="2"/>
+    </row>
+    <row r="648" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I648" s="2"/>
+    </row>
+    <row r="649" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I649" s="2"/>
+    </row>
+    <row r="650" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I650" s="2"/>
+    </row>
+    <row r="651" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I651" s="2"/>
+    </row>
+    <row r="652" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I652" s="2"/>
+    </row>
+    <row r="653" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I653" s="2"/>
+    </row>
+    <row r="654" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I654" s="2"/>
+    </row>
+    <row r="655" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I655" s="2"/>
+    </row>
+    <row r="656" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I656" s="2"/>
+    </row>
+    <row r="657" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I657" s="2"/>
+    </row>
+    <row r="658" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I658" s="2"/>
+    </row>
+    <row r="659" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I659" s="2"/>
+    </row>
+    <row r="660" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I660" s="2"/>
+    </row>
+    <row r="661" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I661" s="2"/>
+    </row>
+    <row r="662" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I662" s="2"/>
+    </row>
+    <row r="663" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I663" s="2"/>
+    </row>
+    <row r="664" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I664" s="2"/>
+    </row>
+    <row r="665" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I665" s="2"/>
+    </row>
+    <row r="666" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I666" s="2"/>
+    </row>
+    <row r="667" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I667" s="2"/>
+    </row>
+    <row r="668" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I668" s="2"/>
+    </row>
+    <row r="669" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I669" s="2"/>
+    </row>
+    <row r="670" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I670" s="2"/>
+    </row>
+    <row r="671" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I671" s="2"/>
+    </row>
+    <row r="672" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I672" s="2"/>
+    </row>
+    <row r="673" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I673" s="2"/>
+    </row>
+    <row r="674" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I674" s="2"/>
+    </row>
+    <row r="675" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I675" s="2"/>
+    </row>
+    <row r="676" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I676" s="2"/>
+    </row>
+    <row r="677" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I677" s="2"/>
+    </row>
+    <row r="678" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I678" s="2"/>
+    </row>
+    <row r="679" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I679" s="2"/>
+    </row>
+    <row r="680" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I680" s="2"/>
+    </row>
+    <row r="681" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I681" s="2"/>
+    </row>
+    <row r="682" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I682" s="2"/>
+    </row>
+    <row r="683" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I683" s="2"/>
+    </row>
+    <row r="684" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I684" s="2"/>
+    </row>
+    <row r="685" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I685" s="2"/>
+    </row>
+    <row r="686" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I686" s="2"/>
+    </row>
+    <row r="687" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I687" s="2"/>
+    </row>
+    <row r="688" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I688" s="2"/>
+    </row>
+    <row r="689" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I689" s="2"/>
+    </row>
+    <row r="690" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I690" s="2"/>
+    </row>
+    <row r="691" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I691" s="2"/>
+    </row>
+    <row r="692" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I692" s="2"/>
+    </row>
+    <row r="693" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I693" s="2"/>
+    </row>
+    <row r="694" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I694" s="2"/>
+    </row>
+    <row r="695" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I695" s="2"/>
+    </row>
+    <row r="696" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I696" s="2"/>
+    </row>
+    <row r="697" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I697" s="2"/>
+    </row>
+    <row r="698" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I698" s="2"/>
+    </row>
+    <row r="699" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I699" s="2"/>
+    </row>
+    <row r="700" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I700" s="2"/>
+    </row>
+    <row r="701" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I701" s="2"/>
+    </row>
+    <row r="702" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I702" s="2"/>
+    </row>
+    <row r="703" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I703" s="2"/>
+    </row>
+    <row r="704" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I704" s="2"/>
+    </row>
+    <row r="705" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I705" s="2"/>
+    </row>
+    <row r="706" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I706" s="2"/>
+    </row>
+    <row r="707" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I707" s="2"/>
+    </row>
+    <row r="708" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I708" s="2"/>
+    </row>
+    <row r="709" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I709" s="2"/>
+    </row>
+    <row r="710" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I710" s="2"/>
+    </row>
+    <row r="711" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I711" s="2"/>
+    </row>
+    <row r="712" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I712" s="2"/>
+    </row>
+    <row r="713" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I713" s="2"/>
+    </row>
+    <row r="714" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I714" s="2"/>
+    </row>
+    <row r="715" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I715" s="2"/>
+    </row>
+    <row r="716" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I716" s="2"/>
+    </row>
+    <row r="717" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I717" s="2"/>
+    </row>
+    <row r="718" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I718" s="2"/>
+    </row>
+    <row r="719" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I719" s="2"/>
+    </row>
+    <row r="720" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I720" s="2"/>
+    </row>
+    <row r="721" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I721" s="2"/>
+    </row>
+    <row r="722" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I722" s="2"/>
+    </row>
+    <row r="723" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I723" s="2"/>
+    </row>
+    <row r="724" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I724" s="2"/>
+    </row>
+    <row r="725" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I725" s="2"/>
+    </row>
+    <row r="726" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I726" s="2"/>
+    </row>
+    <row r="727" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I727" s="2"/>
+    </row>
+    <row r="728" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I728" s="2"/>
+    </row>
+    <row r="729" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I729" s="2"/>
+    </row>
+    <row r="730" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I730" s="2"/>
+    </row>
+    <row r="731" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I731" s="2"/>
+    </row>
+    <row r="732" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I732" s="2"/>
+    </row>
+    <row r="733" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I733" s="2"/>
+    </row>
+    <row r="734" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I734" s="2"/>
+    </row>
+    <row r="735" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I735" s="2"/>
+    </row>
+    <row r="736" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I736" s="2"/>
+    </row>
+    <row r="737" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I737" s="2"/>
+    </row>
+    <row r="738" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I738" s="2"/>
+    </row>
+    <row r="739" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I739" s="2"/>
+    </row>
+    <row r="740" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I740" s="2"/>
+    </row>
+    <row r="741" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I741" s="2"/>
+    </row>
+    <row r="742" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I742" s="2"/>
+    </row>
+    <row r="743" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I743" s="2"/>
+    </row>
+    <row r="744" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I744" s="2"/>
+    </row>
+    <row r="745" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I745" s="2"/>
+    </row>
+    <row r="746" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I746" s="2"/>
+    </row>
+    <row r="747" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I747" s="2"/>
+    </row>
+    <row r="748" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I748" s="2"/>
+    </row>
+    <row r="749" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I749" s="2"/>
+    </row>
+    <row r="750" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I750" s="2"/>
+    </row>
+    <row r="751" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I751" s="2"/>
+    </row>
+    <row r="752" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I752" s="2"/>
+    </row>
+    <row r="753" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I753" s="2"/>
+    </row>
+    <row r="754" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I754" s="2"/>
+    </row>
+    <row r="755" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I755" s="2"/>
+    </row>
+    <row r="756" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I756" s="2"/>
+    </row>
+    <row r="757" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I757" s="2"/>
+    </row>
+    <row r="758" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I758" s="2"/>
+    </row>
+    <row r="759" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I759" s="2"/>
+    </row>
+    <row r="760" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I760" s="2"/>
+    </row>
+    <row r="761" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I761" s="2"/>
+    </row>
+    <row r="762" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I762" s="2"/>
+    </row>
+    <row r="763" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I763" s="2"/>
+    </row>
+    <row r="764" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I764" s="2"/>
+    </row>
+    <row r="765" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I765" s="2"/>
+    </row>
+    <row r="766" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I766" s="2"/>
+    </row>
+    <row r="767" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I767" s="2"/>
+    </row>
+    <row r="768" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I768" s="2"/>
+    </row>
+    <row r="769" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I769" s="2"/>
+    </row>
+    <row r="770" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I770" s="2"/>
+    </row>
+    <row r="771" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I771" s="2"/>
+    </row>
+    <row r="772" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I772" s="2"/>
+    </row>
+    <row r="773" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I773" s="2"/>
+    </row>
+    <row r="774" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I774" s="2"/>
+    </row>
+    <row r="775" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I775" s="2"/>
+    </row>
+    <row r="776" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I776" s="2"/>
+    </row>
+    <row r="777" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I777" s="2"/>
+    </row>
+    <row r="778" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I778" s="2"/>
+    </row>
+    <row r="779" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I779" s="2"/>
+    </row>
+    <row r="780" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I780" s="2"/>
+    </row>
+    <row r="781" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I781" s="2"/>
+    </row>
+    <row r="782" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I782" s="2"/>
+    </row>
+    <row r="783" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I783" s="2"/>
+    </row>
+    <row r="784" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I784" s="2"/>
+    </row>
+    <row r="785" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I785" s="2"/>
+    </row>
+    <row r="786" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I786" s="2"/>
+    </row>
+    <row r="787" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I787" s="2"/>
+    </row>
+    <row r="788" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I788" s="2"/>
+    </row>
+    <row r="789" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I789" s="2"/>
+    </row>
+    <row r="790" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I790" s="2"/>
+    </row>
+    <row r="791" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I791" s="2"/>
+    </row>
+    <row r="792" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I792" s="2"/>
+    </row>
+    <row r="793" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I793" s="2"/>
+    </row>
+    <row r="794" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I794" s="2"/>
+    </row>
+    <row r="795" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I795" s="2"/>
+    </row>
+    <row r="796" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I796" s="2"/>
+    </row>
+    <row r="797" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I797" s="2"/>
+    </row>
+    <row r="798" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I798" s="2"/>
+    </row>
+    <row r="799" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I799" s="2"/>
+    </row>
+    <row r="800" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I800" s="2"/>
+    </row>
+    <row r="801" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I801" s="2"/>
+    </row>
+    <row r="802" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I802" s="2"/>
+    </row>
+    <row r="803" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I803" s="2"/>
+    </row>
+    <row r="804" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I804" s="2"/>
+    </row>
+    <row r="805" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I805" s="2"/>
+    </row>
+    <row r="806" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I806" s="2"/>
+    </row>
+    <row r="807" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I807" s="2"/>
+    </row>
+    <row r="808" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I808" s="2"/>
+    </row>
+    <row r="809" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I809" s="2"/>
+    </row>
+    <row r="810" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I810" s="2"/>
+    </row>
+    <row r="811" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I811" s="2"/>
+    </row>
+    <row r="812" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I812" s="2"/>
+    </row>
+    <row r="813" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I813" s="2"/>
+    </row>
+    <row r="814" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I814" s="2"/>
+    </row>
+    <row r="815" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I815" s="2"/>
+    </row>
+    <row r="816" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I816" s="2"/>
+    </row>
+    <row r="817" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I817" s="2"/>
+    </row>
+    <row r="818" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I818" s="2"/>
+    </row>
+    <row r="819" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I819" s="2"/>
+    </row>
+    <row r="820" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I820" s="2"/>
+    </row>
+    <row r="821" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I821" s="2"/>
+    </row>
+    <row r="822" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I822" s="2"/>
+    </row>
+    <row r="823" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I823" s="2"/>
+    </row>
+    <row r="824" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I824" s="2"/>
+    </row>
+    <row r="825" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I825" s="2"/>
+    </row>
+    <row r="826" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I826" s="2"/>
+    </row>
+    <row r="827" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I827" s="2"/>
+    </row>
+    <row r="828" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I828" s="2"/>
+    </row>
+    <row r="829" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I829" s="2"/>
+    </row>
+    <row r="830" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I830" s="2"/>
+    </row>
+    <row r="831" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I831" s="2"/>
+    </row>
+    <row r="832" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I832" s="2"/>
+    </row>
+    <row r="833" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I833" s="2"/>
+    </row>
+    <row r="834" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I834" s="2"/>
+    </row>
+    <row r="835" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I835" s="2"/>
+    </row>
+    <row r="836" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I836" s="2"/>
+    </row>
+    <row r="837" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I837" s="2"/>
+    </row>
+    <row r="838" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I838" s="2"/>
+    </row>
+    <row r="839" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I839" s="2"/>
+    </row>
+    <row r="840" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I840" s="2"/>
+    </row>
+    <row r="841" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I841" s="2"/>
+    </row>
+    <row r="842" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I842" s="2"/>
+    </row>
+    <row r="843" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I843" s="2"/>
+    </row>
+    <row r="844" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I844" s="2"/>
+    </row>
+    <row r="845" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I845" s="2"/>
+    </row>
+    <row r="846" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I846" s="2"/>
+    </row>
+    <row r="847" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I847" s="2"/>
+    </row>
+    <row r="848" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I848" s="2"/>
+    </row>
+    <row r="849" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I849" s="2"/>
+    </row>
+    <row r="850" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I850" s="2"/>
+    </row>
+    <row r="851" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I851" s="2"/>
+    </row>
+    <row r="852" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I852" s="2"/>
+    </row>
+    <row r="853" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I853" s="2"/>
+    </row>
+    <row r="854" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I854" s="2"/>
+    </row>
+    <row r="855" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I855" s="2"/>
+    </row>
+    <row r="856" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I856" s="2"/>
+    </row>
+    <row r="857" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I857" s="2"/>
+    </row>
+    <row r="858" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I858" s="2"/>
+    </row>
+    <row r="859" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I859" s="2"/>
+    </row>
+    <row r="860" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I860" s="2"/>
+    </row>
+    <row r="861" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I861" s="2"/>
+    </row>
+    <row r="862" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I862" s="2"/>
+    </row>
+    <row r="863" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I863" s="2"/>
+    </row>
+    <row r="864" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I864" s="2"/>
+    </row>
+    <row r="865" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I865" s="2"/>
+    </row>
+    <row r="866" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I866" s="2"/>
+    </row>
+    <row r="867" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I867" s="2"/>
+    </row>
+    <row r="868" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I868" s="2"/>
+    </row>
+    <row r="869" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I869" s="2"/>
+    </row>
+    <row r="870" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I870" s="2"/>
+    </row>
+    <row r="871" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I871" s="2"/>
+    </row>
+    <row r="872" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I872" s="2"/>
+    </row>
+    <row r="873" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I873" s="2"/>
+    </row>
+    <row r="874" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I874" s="2"/>
+    </row>
+    <row r="875" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I875" s="2"/>
+    </row>
+    <row r="876" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I876" s="2"/>
+    </row>
+    <row r="877" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I877" s="2"/>
+    </row>
+    <row r="878" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I878" s="2"/>
+    </row>
+    <row r="879" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I879" s="2"/>
+    </row>
+    <row r="880" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I880" s="2"/>
+    </row>
+    <row r="881" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I881" s="2"/>
+    </row>
+    <row r="882" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I882" s="2"/>
+    </row>
+    <row r="883" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I883" s="2"/>
+    </row>
+    <row r="884" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I884" s="2"/>
+    </row>
+    <row r="885" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I885" s="2"/>
+    </row>
+    <row r="886" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I886" s="2"/>
+    </row>
+    <row r="887" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I887" s="2"/>
+    </row>
+    <row r="888" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I888" s="2"/>
+    </row>
+    <row r="889" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I889" s="2"/>
+    </row>
+    <row r="890" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I890" s="2"/>
+    </row>
+    <row r="891" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I891" s="2"/>
+    </row>
+    <row r="892" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I892" s="2"/>
+    </row>
+    <row r="893" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I893" s="2"/>
+    </row>
+    <row r="894" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I894" s="2"/>
+    </row>
+    <row r="895" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I895" s="2"/>
+    </row>
+    <row r="896" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I896" s="2"/>
+    </row>
+    <row r="897" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I897" s="2"/>
+    </row>
+    <row r="898" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I898" s="2"/>
+    </row>
+    <row r="899" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I899" s="2"/>
+    </row>
+    <row r="900" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I900" s="2"/>
+    </row>
+    <row r="901" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I901" s="2"/>
+    </row>
+    <row r="902" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I902" s="2"/>
+    </row>
+    <row r="903" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I903" s="2"/>
+    </row>
+    <row r="904" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I904" s="2"/>
+    </row>
+    <row r="905" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I905" s="2"/>
+    </row>
+    <row r="906" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I906" s="2"/>
+    </row>
+    <row r="907" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I907" s="2"/>
+    </row>
+    <row r="908" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I908" s="2"/>
+    </row>
+    <row r="909" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I909" s="2"/>
+    </row>
+    <row r="910" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I910" s="2"/>
+    </row>
+    <row r="911" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I911" s="2"/>
+    </row>
+    <row r="912" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I912" s="2"/>
+    </row>
+    <row r="913" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I913" s="2"/>
+    </row>
+    <row r="914" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I914" s="2"/>
+    </row>
+    <row r="915" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I915" s="2"/>
+    </row>
+    <row r="916" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I916" s="2"/>
+    </row>
+    <row r="917" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I917" s="2"/>
+    </row>
+    <row r="918" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I918" s="2"/>
+    </row>
+    <row r="919" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I919" s="2"/>
+    </row>
+    <row r="920" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I920" s="2"/>
+    </row>
+    <row r="921" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I921" s="2"/>
+    </row>
+    <row r="922" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I922" s="2"/>
+    </row>
+    <row r="923" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I923" s="2"/>
+    </row>
+    <row r="924" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I924" s="2"/>
+    </row>
+    <row r="925" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I925" s="2"/>
+    </row>
+    <row r="926" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I926" s="2"/>
+    </row>
+    <row r="927" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I927" s="2"/>
+    </row>
+    <row r="928" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I928" s="2"/>
+    </row>
+    <row r="929" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I929" s="2"/>
+    </row>
+    <row r="930" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I930" s="2"/>
+    </row>
+    <row r="931" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I931" s="2"/>
+    </row>
+    <row r="932" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I932" s="2"/>
+    </row>
+    <row r="933" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I933" s="2"/>
+    </row>
+    <row r="934" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I934" s="2"/>
+    </row>
+    <row r="935" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I935" s="2"/>
+    </row>
+    <row r="936" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I936" s="2"/>
+    </row>
+    <row r="937" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I937" s="2"/>
+    </row>
+    <row r="938" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I938" s="2"/>
+    </row>
+    <row r="939" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I939" s="2"/>
+    </row>
+    <row r="940" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I940" s="2"/>
+    </row>
+    <row r="941" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I941" s="2"/>
+    </row>
+    <row r="942" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I942" s="2"/>
+    </row>
+    <row r="943" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I943" s="2"/>
+    </row>
+    <row r="944" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I944" s="2"/>
+    </row>
+    <row r="945" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I945" s="2"/>
+    </row>
+    <row r="946" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I946" s="2"/>
+    </row>
+    <row r="947" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I947" s="2"/>
+    </row>
+    <row r="948" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I948" s="2"/>
+    </row>
+    <row r="949" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I949" s="2"/>
+    </row>
+    <row r="950" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I950" s="2"/>
+    </row>
+    <row r="951" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I951" s="2"/>
+    </row>
+    <row r="952" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I952" s="2"/>
+    </row>
+    <row r="953" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I953" s="2"/>
+    </row>
+    <row r="954" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I954" s="2"/>
+    </row>
+    <row r="955" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I955" s="2"/>
+    </row>
+    <row r="956" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I956" s="2"/>
+    </row>
+    <row r="957" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I957" s="2"/>
+    </row>
+    <row r="958" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I958" s="2"/>
+    </row>
+    <row r="959" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I959" s="2"/>
+    </row>
+    <row r="960" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I960" s="2"/>
+    </row>
+    <row r="961" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I961" s="2"/>
+    </row>
+    <row r="962" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I962" s="2"/>
+    </row>
+    <row r="963" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I963" s="2"/>
+    </row>
+    <row r="964" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I964" s="2"/>
+    </row>
+    <row r="965" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I965" s="2"/>
+    </row>
+    <row r="966" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I966" s="2"/>
+    </row>
+    <row r="967" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I967" s="2"/>
+    </row>
+    <row r="968" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I968" s="2"/>
+    </row>
+    <row r="969" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I969" s="2"/>
+    </row>
+    <row r="970" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I970" s="2"/>
+    </row>
+    <row r="971" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I971" s="2"/>
+    </row>
+    <row r="972" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I972" s="2"/>
+    </row>
+    <row r="973" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I973" s="2"/>
+    </row>
+    <row r="974" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I974" s="2"/>
+    </row>
+    <row r="975" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I975" s="2"/>
+    </row>
+    <row r="976" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I976" s="2"/>
+    </row>
+    <row r="977" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I977" s="2"/>
+    </row>
+    <row r="978" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I978" s="2"/>
+    </row>
+    <row r="979" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I979" s="2"/>
+    </row>
+    <row r="980" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I980" s="2"/>
+    </row>
+    <row r="981" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I981" s="2"/>
+    </row>
+    <row r="982" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I982" s="2"/>
+    </row>
+    <row r="983" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I983" s="2"/>
+    </row>
+    <row r="984" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I984" s="2"/>
+    </row>
+    <row r="985" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I985" s="2"/>
+    </row>
+    <row r="986" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I986" s="2"/>
+    </row>
+    <row r="987" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I987" s="2"/>
+    </row>
+    <row r="988" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I988" s="2"/>
+    </row>
+    <row r="989" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I989" s="2"/>
+    </row>
+    <row r="990" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I990" s="2"/>
+    </row>
+    <row r="991" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I991" s="2"/>
+    </row>
+    <row r="992" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I992" s="2"/>
+    </row>
+    <row r="993" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I993" s="2"/>
+    </row>
+    <row r="994" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I994" s="2"/>
+    </row>
+    <row r="995" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I995" s="2"/>
+    </row>
+    <row r="996" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I996" s="2"/>
+    </row>
+    <row r="997" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I997" s="2"/>
+    </row>
+    <row r="998" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I998" s="2"/>
+    </row>
+    <row r="999" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I999" s="2"/>
+    </row>
+    <row r="1000" spans="9:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I1000" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F46802-5CAA-4FFB-85A8-2807BBFD1069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF064746-B725-4529-BA12-C0DB85C53870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="703">
   <si>
     <t>#ecd437</t>
   </si>
@@ -2592,39 +2592,6 @@
     <t>赤紫色</t>
   </si>
   <si>
-    <t>赤色</t>
-  </si>
-  <si>
-    <t>紅色</t>
-  </si>
-  <si>
-    <t>赤土色</t>
-  </si>
-  <si>
-    <t>휴色</t>
-  </si>
-  <si>
-    <t>褐色</t>
-  </si>
-  <si>
-    <t>琥珀色</t>
-  </si>
-  <si>
-    <t>秋香色</t>
-  </si>
-  <si>
-    <t>肉色</t>
-  </si>
-  <si>
-    <t>朱色</t>
-  </si>
-  <si>
-    <t>朱紅色</t>
-  </si>
-  <si>
-    <t>淡朱色</t>
-  </si>
-  <si>
     <t>眞紅色</t>
   </si>
   <si>
@@ -2646,12 +2613,6 @@
     <t>軟粉紅色</t>
   </si>
   <si>
-    <t>長丹色</t>
-  </si>
-  <si>
-    <t>石間주色</t>
-  </si>
-  <si>
     <t>黑紅色</t>
   </si>
   <si>
@@ -3160,6 +3121,62 @@
   </si>
   <si>
     <t>dark red</t>
+  </si>
+  <si>
+    <t>紅色 적색과 백색의 오방간색, 단목이나 홍화로 물들여 사용. 영조, &lt;국조속오례의보&gt; 왕비의 예복인 적의는 대홍단으로 사용하다. 선조 34년, 조신이 복색을 마음대로 정하여 착용하는 일이 있어 목홍과 더불어 아청, 초록을 상용하게 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤色 오방정색, 불의 색, 오행 중 화행에 속하고 온화하다. 계절로는 생기가 왕성하고 만물이 무성한 여름, 방위는 남쪽. 감성적 의미는 기쁨이며, 예를 나타낸다. 주술적 의미가 강하여 풍속에서 주로 잡귀나 병마를 막아내고 상서로운 기운을 뜻하는 길조색으로 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長丹色 단청의 문양을 첫 번째로 연하게 채화하는 데 사용. &lt;해동역사&gt; 고려 관원들의 조복이 자색, 단색, 비색, 녹색, 청색, 벽색으로 구별되다. 문화재청, 장단색의 안료로 퍼머넌트 오렌지(Permanent Orange) 지정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bright red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">石間주色 붉은 산화철이 많이 들어 있는 돌이나 흙의 색. 적색계의 잡색. 궁궐, 사찰 등 건물의 기둥과 벽에 칠하여 잡귀의 출입을 막고 양기를 보존하다. 산수화, 도자기, 인물화의 살빛에 사용되다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤土色 철분이 섞인 붉은 흙의 색깔. 소박한 도자기의 상감 기법에 사용되다. 전령의 쾌자(전투복의 하나)는 적토색 베로 만들었다. 다산 정약용, &lt;여유당전서&gt; "가뭄으로 인해 모가 타고 …(중략) 밭은 적토가 된 지 이미 오래이다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">髹色 옻칠된 색으로 붉은 기가 있는 검은색이다. 칠로 도장하는 것을 휴, 장식하는 것을 식이라 칭한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐色 검은빛을 띈 주홍색이다. 갈색 옷은 갈의라고 하여, 벼슬하지 않은 서민들이 입는 옷이였다. &lt;구당서&gt; 고려조, "백성들은 갈의를 입고 …"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">琥珀色 호박과 같은 색으로 누런빛의 투명한 황색이다. 칠보 중의 하나, 노리개나 장식품에 사용. &lt;조선왕조실록&gt; 정조, "… 호박 갓끈은 당상관이 쓰는 것인데, 사치 풍조가 나날이 심해져서 문관, 무관, 음관이나 서인들조차도 호박이 아니면 사용치 아니하니 이를 바로 잡으려 한다. ..." </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋香色 퇴색된 낙엽의 색. 계절로는 가을. &lt;다산시문집 제1권&gt; 즐거워라 벼 기장 좋기도 하다(喜悅好禾黍), "가을 향기 물씬물씬 피어오르네 秋香穰穰多"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉色 황인종의 살빛, 적색의 잡색. 단청에서 육색을 사용하였는데 주홍에 백분을 섞어 만든다. &lt;고공기&gt; "화는 금을 이기며 적색과 백색을 혼합하면 연지-곤지색, 즉 주홍 육색이 생성된다"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱色 주는 바른 것으로 정正을 상징한다. &lt;임하필기&gt; "신라 법흥왕 7년, 처음으로 백관들의 공복을 품계에 따라 주색과 자색으로 만들다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱紅色 주와 홍의 결합으로 만들어진 복합색명으로, 조선시대 단청, 창문, 문호에 쓰였다. 이긍익, &lt;연려실기술&gt; "… 경복궁의 중수가 거의 끝날 무렵, 심연원과 윤개가 도감제조로서 공사한 것을 조사할 대에 외각의 창문과 문호를 보니, 모두 주홍색, 구리빛의 무늬가 있는 비단을 사용하였다. …"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡朱色 옅은 주색. 복식에 사용해 왔다. &lt;조선왕조실록&gt; 태종편, "사헌부의 예에 의하여 갈도의 관대는 오건과 혁대를 착용하고 담주색의 옷을 입게 하였다." 세종편, 오례의에 "상여를 만들 때 중앙을 네 곳으로 고르게 나누어서 횡목이 들어갈 구멍을 파고 담주색의 칠을 한다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3567,15 +3584,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D027F-EF52-4720-8987-66F19777A7B6}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="181.375" customWidth="1"/>
     <col min="4" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="94.25" style="1" customWidth="1"/>
@@ -3590,7 +3607,7 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3608,7 +3625,7 @@
         <v>464</v>
       </c>
       <c r="I1" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3619,7 +3636,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3637,7 +3654,7 @@
         <v>465</v>
       </c>
       <c r="I2" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3663,10 +3680,10 @@
         <v>438</v>
       </c>
       <c r="H3" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="I3" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3692,10 +3709,10 @@
         <v>438</v>
       </c>
       <c r="H4" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="I4" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3721,10 +3738,10 @@
         <v>438</v>
       </c>
       <c r="H5" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="I5" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3750,10 +3767,10 @@
         <v>438</v>
       </c>
       <c r="H6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="I6" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3779,10 +3796,10 @@
         <v>438</v>
       </c>
       <c r="H7" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="I7" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3808,10 +3825,10 @@
         <v>438</v>
       </c>
       <c r="H8" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="I8" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3837,10 +3854,10 @@
         <v>438</v>
       </c>
       <c r="H9" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="I9" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3866,10 +3883,10 @@
         <v>438</v>
       </c>
       <c r="H10" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="I10" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3895,10 +3912,10 @@
         <v>438</v>
       </c>
       <c r="H11" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="I11" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3924,10 +3941,10 @@
         <v>438</v>
       </c>
       <c r="H12" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="I12" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3953,10 +3970,10 @@
         <v>438</v>
       </c>
       <c r="H13" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="I13" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3982,10 +3999,10 @@
         <v>438</v>
       </c>
       <c r="H14" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="I14" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -4011,10 +4028,10 @@
         <v>438</v>
       </c>
       <c r="H15" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="I15" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -4040,10 +4057,10 @@
         <v>438</v>
       </c>
       <c r="H16" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="I16" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -4069,10 +4086,10 @@
         <v>439</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="I17" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -4098,10 +4115,10 @@
         <v>439</v>
       </c>
       <c r="H18" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="I18" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4127,10 +4144,10 @@
         <v>439</v>
       </c>
       <c r="H19" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="I19" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -4156,10 +4173,10 @@
         <v>439</v>
       </c>
       <c r="H20" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="I20" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -4185,10 +4202,10 @@
         <v>439</v>
       </c>
       <c r="H21" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="I21" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -4214,10 +4231,10 @@
         <v>439</v>
       </c>
       <c r="H22" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="I22" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -4243,10 +4260,10 @@
         <v>439</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="I23" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -4272,10 +4289,10 @@
         <v>439</v>
       </c>
       <c r="H24" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="I24" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -4301,10 +4318,10 @@
         <v>439</v>
       </c>
       <c r="H25" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="I25" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -4330,10 +4347,10 @@
         <v>439</v>
       </c>
       <c r="H26" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="I26" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -4359,10 +4376,10 @@
         <v>439</v>
       </c>
       <c r="H27" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="I27" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -4388,10 +4405,10 @@
         <v>439</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="I28" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -4417,10 +4434,10 @@
         <v>439</v>
       </c>
       <c r="H29" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="I29" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -4446,10 +4463,10 @@
         <v>439</v>
       </c>
       <c r="H30" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="I30" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -4475,10 +4492,10 @@
         <v>439</v>
       </c>
       <c r="H31" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="I31" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -4504,10 +4521,10 @@
         <v>439</v>
       </c>
       <c r="H32" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="I32" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -4533,10 +4550,10 @@
         <v>439</v>
       </c>
       <c r="H33" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="I33" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -4562,10 +4579,10 @@
         <v>439</v>
       </c>
       <c r="H34" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="I34" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -4591,10 +4608,10 @@
         <v>439</v>
       </c>
       <c r="H35" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="I35" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4620,10 +4637,10 @@
         <v>439</v>
       </c>
       <c r="H36" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="I36" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -4649,10 +4666,10 @@
         <v>439</v>
       </c>
       <c r="H37" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="I37" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -4678,10 +4695,10 @@
         <v>439</v>
       </c>
       <c r="H38" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="I38" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -4707,10 +4724,10 @@
         <v>439</v>
       </c>
       <c r="H39" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="I39" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -4736,10 +4753,10 @@
         <v>439</v>
       </c>
       <c r="H40" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="I40" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4765,10 +4782,10 @@
         <v>439</v>
       </c>
       <c r="H41" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="I41" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -4794,10 +4811,10 @@
         <v>439</v>
       </c>
       <c r="H42" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="I42" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -4823,10 +4840,10 @@
         <v>439</v>
       </c>
       <c r="H43" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="I43" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -4852,10 +4869,10 @@
         <v>439</v>
       </c>
       <c r="H44" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="I44" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4881,10 +4898,10 @@
         <v>439</v>
       </c>
       <c r="H45" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="I45" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4910,10 +4927,10 @@
         <v>439</v>
       </c>
       <c r="H46" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="I46" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4939,10 +4956,10 @@
         <v>439</v>
       </c>
       <c r="H47" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="I47" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4968,10 +4985,10 @@
         <v>439</v>
       </c>
       <c r="H48" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="I48" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4997,10 +5014,10 @@
         <v>440</v>
       </c>
       <c r="H49" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="I49" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -5026,10 +5043,10 @@
         <v>440</v>
       </c>
       <c r="H50" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="I50" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -5055,10 +5072,10 @@
         <v>440</v>
       </c>
       <c r="H51" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="I51" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -5084,10 +5101,10 @@
         <v>440</v>
       </c>
       <c r="H52" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="I52" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -5113,10 +5130,10 @@
         <v>440</v>
       </c>
       <c r="H53" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="I53" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -5142,10 +5159,10 @@
         <v>440</v>
       </c>
       <c r="H54" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="I54" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -5171,10 +5188,10 @@
         <v>440</v>
       </c>
       <c r="H55" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="I55" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -5200,10 +5217,10 @@
         <v>440</v>
       </c>
       <c r="H56" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="I56" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -5229,10 +5246,10 @@
         <v>440</v>
       </c>
       <c r="H57" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I57" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -5258,10 +5275,10 @@
         <v>440</v>
       </c>
       <c r="H58" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="I58" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -5287,10 +5304,10 @@
         <v>441</v>
       </c>
       <c r="H59" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I59" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -5316,10 +5333,10 @@
         <v>441</v>
       </c>
       <c r="H60" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="I60" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -5345,10 +5362,10 @@
         <v>441</v>
       </c>
       <c r="H61" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="I61" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -5374,10 +5391,10 @@
         <v>441</v>
       </c>
       <c r="H62" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="I62" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -5403,10 +5420,10 @@
         <v>441</v>
       </c>
       <c r="H63" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="I63" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -5432,10 +5449,10 @@
         <v>441</v>
       </c>
       <c r="H64" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="I64" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -5461,10 +5478,10 @@
         <v>441</v>
       </c>
       <c r="H65" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="I65" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -5490,10 +5507,10 @@
         <v>441</v>
       </c>
       <c r="H66" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="I66" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -5519,10 +5536,10 @@
         <v>441</v>
       </c>
       <c r="H67" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="I67" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -5548,10 +5565,10 @@
         <v>441</v>
       </c>
       <c r="H68" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="I68" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -5577,10 +5594,10 @@
         <v>441</v>
       </c>
       <c r="H69" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="I69" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -5591,7 +5608,7 @@
         <v>351</v>
       </c>
       <c r="C70" t="s">
-        <v>535</v>
+        <v>690</v>
       </c>
       <c r="D70" t="s">
         <v>137</v>
@@ -5609,7 +5626,7 @@
         <v>443</v>
       </c>
       <c r="I70" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -5620,7 +5637,7 @@
         <v>352</v>
       </c>
       <c r="C71" t="s">
-        <v>536</v>
+        <v>689</v>
       </c>
       <c r="D71" t="s">
         <v>139</v>
@@ -5638,7 +5655,7 @@
         <v>444</v>
       </c>
       <c r="I71" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -5649,7 +5666,7 @@
         <v>354</v>
       </c>
       <c r="C72" t="s">
-        <v>537</v>
+        <v>694</v>
       </c>
       <c r="D72" t="s">
         <v>141</v>
@@ -5667,7 +5684,7 @@
         <v>446</v>
       </c>
       <c r="I72" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -5678,7 +5695,7 @@
         <v>355</v>
       </c>
       <c r="C73" t="s">
-        <v>538</v>
+        <v>695</v>
       </c>
       <c r="D73" t="s">
         <v>143</v>
@@ -5696,7 +5713,7 @@
         <v>448</v>
       </c>
       <c r="I73" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -5707,7 +5724,7 @@
         <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>539</v>
+        <v>696</v>
       </c>
       <c r="D74" t="s">
         <v>145</v>
@@ -5725,7 +5742,7 @@
         <v>449</v>
       </c>
       <c r="I74" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -5736,7 +5753,7 @@
         <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>540</v>
+        <v>697</v>
       </c>
       <c r="D75" t="s">
         <v>147</v>
@@ -5754,7 +5771,7 @@
         <v>450</v>
       </c>
       <c r="I75" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -5765,7 +5782,7 @@
         <v>358</v>
       </c>
       <c r="C76" t="s">
-        <v>541</v>
+        <v>698</v>
       </c>
       <c r="D76" t="s">
         <v>149</v>
@@ -5783,7 +5800,7 @@
         <v>451</v>
       </c>
       <c r="I76" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -5794,7 +5811,7 @@
         <v>359</v>
       </c>
       <c r="C77" t="s">
-        <v>542</v>
+        <v>699</v>
       </c>
       <c r="D77" t="s">
         <v>151</v>
@@ -5812,7 +5829,7 @@
         <v>452</v>
       </c>
       <c r="I77" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -5823,7 +5840,7 @@
         <v>360</v>
       </c>
       <c r="C78" t="s">
-        <v>543</v>
+        <v>700</v>
       </c>
       <c r="D78" t="s">
         <v>153</v>
@@ -5841,7 +5858,7 @@
         <v>453</v>
       </c>
       <c r="I78" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -5852,7 +5869,7 @@
         <v>361</v>
       </c>
       <c r="C79" t="s">
-        <v>544</v>
+        <v>701</v>
       </c>
       <c r="D79" t="s">
         <v>155</v>
@@ -5870,7 +5887,7 @@
         <v>454</v>
       </c>
       <c r="I79" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -5881,7 +5898,7 @@
         <v>362</v>
       </c>
       <c r="C80" t="s">
-        <v>545</v>
+        <v>702</v>
       </c>
       <c r="D80" t="s">
         <v>157</v>
@@ -5899,7 +5916,7 @@
         <v>455</v>
       </c>
       <c r="I80" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5910,7 +5927,7 @@
         <v>368</v>
       </c>
       <c r="C81" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D81" t="s">
         <v>159</v>
@@ -5928,7 +5945,7 @@
         <v>462</v>
       </c>
       <c r="I81" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5939,7 +5956,7 @@
         <v>363</v>
       </c>
       <c r="C82" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D82" t="s">
         <v>161</v>
@@ -5957,7 +5974,7 @@
         <v>456</v>
       </c>
       <c r="I82" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5968,7 +5985,7 @@
         <v>364</v>
       </c>
       <c r="C83" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D83" t="s">
         <v>163</v>
@@ -5986,7 +6003,7 @@
         <v>457</v>
       </c>
       <c r="I83" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5997,7 +6014,7 @@
         <v>365</v>
       </c>
       <c r="C84" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D84" t="s">
         <v>165</v>
@@ -6015,7 +6032,7 @@
         <v>458</v>
       </c>
       <c r="I84" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6026,7 +6043,7 @@
         <v>366</v>
       </c>
       <c r="C85" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D85" t="s">
         <v>167</v>
@@ -6044,7 +6061,7 @@
         <v>459</v>
       </c>
       <c r="I85" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6055,7 +6072,7 @@
         <v>370</v>
       </c>
       <c r="C86" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D86" t="s">
         <v>169</v>
@@ -6073,7 +6090,7 @@
         <v>460</v>
       </c>
       <c r="I86" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6084,7 +6101,7 @@
         <v>367</v>
       </c>
       <c r="C87" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D87" t="s">
         <v>171</v>
@@ -6102,7 +6119,7 @@
         <v>461</v>
       </c>
       <c r="I87" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6113,7 +6130,7 @@
         <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>553</v>
+        <v>691</v>
       </c>
       <c r="D88" t="s">
         <v>173</v>
@@ -6131,7 +6148,7 @@
         <v>445</v>
       </c>
       <c r="I88" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6142,7 +6159,7 @@
         <v>371</v>
       </c>
       <c r="C89" t="s">
-        <v>554</v>
+        <v>693</v>
       </c>
       <c r="D89" t="s">
         <v>175</v>
@@ -6160,7 +6177,7 @@
         <v>447</v>
       </c>
       <c r="I89" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6171,7 +6188,7 @@
         <v>369</v>
       </c>
       <c r="C90" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="D90" t="s">
         <v>177</v>
@@ -6189,7 +6206,7 @@
         <v>463</v>
       </c>
       <c r="I90" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagja\Desktop\DHS207_Introduction to Digital History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF064746-B725-4529-BA12-C0DB85C53870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A655371-A75C-48E1-BAB4-0A5D8FADD341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225" xr2:uid="{91E5F28C-6291-45D4-8C0D-F3DDD27ECA86}"/>
   </bookViews>
